--- a/modules/tensor_mechanics/tests/mohr_coulomb/small_deform2.xlsx
+++ b/modules/tensor_mechanics/tests/mohr_coulomb/small_deform2.xlsx
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>max_ps</t>
-  </si>
-  <si>
-    <t>min_ps</t>
   </si>
   <si>
     <t>s_xx</t>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>aaa_minus</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -224,10 +224,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.171884973355906E-2"/>
-          <c:y val="0.11904327174348227"/>
+          <c:x val="6.1718849733559053E-2"/>
+          <c:y val="0.1190432717434823"/>
           <c:w val="0.81595058251804864"/>
-          <c:h val="0.82596522721643406"/>
+          <c:h val="0.82596522721643417"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -259,304 +259,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="345"/>
                 <c:pt idx="0">
-                  <c:v>9.1110792796051019</c:v>
+                  <c:v>9.1110795571980088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2780100488872517</c:v>
+                  <c:v>9.2780096790804993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2960842957462511</c:v>
+                  <c:v>9.2960842949246469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.816378346656049</c:v>
+                  <c:v>7.8163773204423501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7499019857701992</c:v>
+                  <c:v>7.74990333078585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.806296303972049</c:v>
+                  <c:v>7.8062962058036005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1434155982017487</c:v>
+                  <c:v>9.1434155637417032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1827925338184482</c:v>
+                  <c:v>9.1827923714967028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6230481372016019</c:v>
+                  <c:v>7.6230268765804503</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.674478883647601</c:v>
+                  <c:v>7.6744785057832035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5066385833070601</c:v>
+                  <c:v>7.5066387575220919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2682988978990011</c:v>
+                  <c:v>9.2682927833861477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.1538236604019971</c:v>
+                  <c:v>9.1538237031934955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5113421103616682</c:v>
+                  <c:v>7.5113541055391639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9112178297039009</c:v>
+                  <c:v>7.9112181330179983</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7138837692364026</c:v>
+                  <c:v>7.7138883120020498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2951799437254028</c:v>
+                  <c:v>9.2951799324370015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9226517934752003</c:v>
+                  <c:v>7.9226547485650487</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.1831554535703006</c:v>
+                  <c:v>9.1831535735098981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2056187792381046</c:v>
+                  <c:v>9.2056172978826023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.0643559787901502</c:v>
+                  <c:v>9.0643563971225483</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.1654165912544521</c:v>
+                  <c:v>9.1654167056344509</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.8458630454211011</c:v>
+                  <c:v>8.8458631598553001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.7822769878466023</c:v>
+                  <c:v>7.7822760447737007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.2564082608682998</c:v>
+                  <c:v>9.2564088181675501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.1665337448565047</c:v>
+                  <c:v>9.1665335792210971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.2944774226697007</c:v>
+                  <c:v>9.2944776809496013</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6827033925702963</c:v>
+                  <c:v>7.6827034501347002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.7342849134875991</c:v>
+                  <c:v>7.7342858030103505</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.6694831225942979</c:v>
+                  <c:v>7.6691856124335036</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.1739561127476499</c:v>
+                  <c:v>9.1739057478956507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.1454745319395787</c:v>
+                  <c:v>9.1454737748677868</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.2949982531254491</c:v>
+                  <c:v>9.2949982586259523</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.7606275934365501</c:v>
+                  <c:v>7.7606273361794482</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.6690164520381012</c:v>
+                  <c:v>7.6690161991065517</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.7107140155882989</c:v>
+                  <c:v>7.7107551835997494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.2803083024090007</c:v>
+                  <c:v>9.2803085235861502</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1403865836224369</c:v>
+                  <c:v>9.1403865378031153</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.1885125050714507</c:v>
+                  <c:v>9.1885125021718004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2357719291083509</c:v>
+                  <c:v>8.2357719301309498</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.8156777361743002</c:v>
+                  <c:v>7.8156777361262</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.2954952165410969</c:v>
+                  <c:v>9.2954952165414042</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.8257278362213496</c:v>
+                  <c:v>7.8257240034808966</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.1115017806331871</c:v>
+                  <c:v>9.1115036338675885</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.0940866109120755</c:v>
+                  <c:v>9.0940866015598338</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.2716579739752998</c:v>
+                  <c:v>9.2716579741871481</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.261632858058146</c:v>
+                  <c:v>9.261632858075254</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.8336056975121968</c:v>
+                  <c:v>7.833533543784549</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.7586639911356512</c:v>
+                  <c:v>7.7586728973983492</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.9933209612935006</c:v>
+                  <c:v>7.9933270270621009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.1463278945177393</c:v>
+                  <c:v>9.1462110342431071</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.2116361394990012</c:v>
+                  <c:v>9.2116333270664015</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.5962934455792022</c:v>
+                  <c:v>7.5962680807597032</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.6783717140774508</c:v>
+                  <c:v>7.6783718097067517</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.5332424029513483</c:v>
+                  <c:v>7.5332425348952885</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.2464160957168549</c:v>
+                  <c:v>9.2464161827859055</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.1539255344861559</c:v>
+                  <c:v>9.1539255162869004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.5474331783407944</c:v>
+                  <c:v>7.5474722609184042</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.8907518415402009</c:v>
+                  <c:v>7.890752818541551</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.7054171845130481</c:v>
+                  <c:v>7.7054149446350957</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.2827348682947015</c:v>
+                  <c:v>9.2827348499812512</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.0646323878024511</c:v>
+                  <c:v>8.0646324106549994</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.1800940679795939</c:v>
+                  <c:v>9.1800421799305862</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.2265995806887471</c:v>
+                  <c:v>9.2260459798463454</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.958706525880352</c:v>
+                  <c:v>8.9586275925188996</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.9193327423779998</c:v>
+                  <c:v>8.9193587106613492</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.8928550663795516</c:v>
+                  <c:v>8.8928810346611993</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.7880043908444501</c:v>
+                  <c:v>7.7880034374049014</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.2309043377752005</c:v>
+                  <c:v>9.2309040127791953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.1616094100725451</c:v>
+                  <c:v>9.1616776976276562</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.2959470521498968</c:v>
+                  <c:v>9.2959491914160512</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.7469351424830997</c:v>
+                  <c:v>7.7469352384608516</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.7456401275838971</c:v>
+                  <c:v>7.7456401933583541</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.6816542550808977</c:v>
+                  <c:v>7.6816547251004001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.687257289495351</c:v>
+                  <c:v>8.6880200701644501</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.1473787900707997</c:v>
+                  <c:v>9.1480446395998509</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.2863653903976999</c:v>
+                  <c:v>9.286371226268102</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.7461536697243529</c:v>
+                  <c:v>7.746154138991451</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.6673585493805483</c:v>
+                  <c:v>7.6679018326686021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.6654839162257504</c:v>
+                  <c:v>7.6654976003346498</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.2874961543282506</c:v>
+                  <c:v>9.2875160693624519</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.1435484755538017</c:v>
+                  <c:v>9.1435462594657793</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.7964952784876989</c:v>
+                  <c:v>8.7964952309514999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.2519782614793495</c:v>
+                  <c:v>8.2519782771182513</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.7925912699702504</c:v>
+                  <c:v>7.7925905296386508</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.280775653659795</c:v>
+                  <c:v>9.2808147799593019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.8326442681653479</c:v>
+                  <c:v>7.8326429681341505</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.1264697520905091</c:v>
+                  <c:v>9.1264699128941214</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0891807729375262</c:v>
+                  <c:v>9.0891807666595597</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.2639660223373976</c:v>
+                  <c:v>9.2639660221769482</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.1725001379981439</c:v>
+                  <c:v>9.1725001379836595</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.8534787867965985</c:v>
+                  <c:v>7.8534787867958995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.7670783560031014</c:v>
+                  <c:v>7.7670783844021525</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.3960149488387508</c:v>
+                  <c:v>8.3960149795704524</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.1577561526647457</c:v>
+                  <c:v>9.1577559915404425</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.2344921533764488</c:v>
+                  <c:v>9.2344906559278019</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.5656413200925003</c:v>
+                  <c:v>7.5656460893984505</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.683614513392703</c:v>
+                  <c:v>7.6830504000283018</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.5571154026585461</c:v>
+                  <c:v>7.5571283554899473</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.2138174497305521</c:v>
+                  <c:v>9.2138163561387501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,304 +568,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="345"/>
                 <c:pt idx="0">
-                  <c:v>5.1962234981759874</c:v>
+                  <c:v>5.1962234868261925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0372621736814551</c:v>
+                  <c:v>4.0372611778041172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3786138036337938</c:v>
+                  <c:v>4.3786139462001712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.4251214722011207</c:v>
+                  <c:v>-3.4251349913416065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.660854790771058</c:v>
+                  <c:v>-3.6608532985266935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.464022546776913</c:v>
+                  <c:v>-3.464022920527408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1309249977224729</c:v>
+                  <c:v>5.1309250022572952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0378612257121453</c:v>
+                  <c:v>5.0378605746268201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.0047943221387037</c:v>
+                  <c:v>-4.0047784677510476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.8781757143759665</c:v>
+                  <c:v>-3.8781767436057004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.2437655312258062</c:v>
+                  <c:v>-4.2437654691596141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7202678298882272</c:v>
+                  <c:v>4.7202652670751588</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1079681004692956</c:v>
+                  <c:v>5.1079679215216602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.2353448032590002</c:v>
+                  <c:v>-4.2353412228179632</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.9968742035595159</c:v>
+                  <c:v>-2.996872709453466</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.7702180097457174</c:v>
+                  <c:v>-3.7702175735603913</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4360536033501159</c:v>
+                  <c:v>4.4360540654115059</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.939416531517272</c:v>
+                  <c:v>-2.9394014466493616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0369058713333779</c:v>
+                  <c:v>5.0369061586188923</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.974239707327337</c:v>
+                  <c:v>4.9742329045223972</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8424048803557813</c:v>
+                  <c:v>2.8424069988667311</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3542365904776834</c:v>
+                  <c:v>3.3542371699927269</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7359184715613114</c:v>
+                  <c:v>1.7359190510764702</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.5522920497483867</c:v>
+                  <c:v>-3.5522638372804378</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7838186346654865</c:v>
+                  <c:v>4.7838175726583314</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0784923690498589</c:v>
+                  <c:v>5.0784923834248525</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4551511894915024</c:v>
+                  <c:v>4.455150910563944</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.8565205528890809</c:v>
+                  <c:v>-3.8565205227729868</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.7096701747415626</c:v>
+                  <c:v>-3.7096776982721025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.8926473713740588</c:v>
+                  <c:v>-3.8924826697025097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3975125465376617</c:v>
+                  <c:v>3.3972565264664474</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1264701757451574</c:v>
+                  <c:v>5.1264692724268928</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2855043823324293</c:v>
+                  <c:v>4.2855045726719956</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.6259636585475286</c:v>
+                  <c:v>-3.625961861704976</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.8922981976302702</c:v>
+                  <c:v>-3.8922985383249813</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.7802454505653</c:v>
+                  <c:v>-3.780381823021937</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.0598286097383252</c:v>
+                  <c:v>4.0598308594191268</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.1373633775724237</c:v>
+                  <c:v>5.1373633814337207</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.4715935013665216</c:v>
+                  <c:v>3.4715934859867477</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.3536935308760627</c:v>
+                  <c:v>-1.3536935256975773</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.4278561762248985</c:v>
+                  <c:v>-3.4278561764025484</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.4208249757989337</c:v>
+                  <c:v>4.420824975777796</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.387801961441542</c:v>
+                  <c:v>-3.3878346539610158</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.1954009875738549</c:v>
+                  <c:v>5.1954026400497426</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.2275278487766377</c:v>
+                  <c:v>5.2275278650165342</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9794663265797459</c:v>
+                  <c:v>3.9794663282099805</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7572167210064933</c:v>
+                  <c:v>4.7572167209132967</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.3554413095433357</c:v>
+                  <c:v>-3.3560612412200816</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.6324556800767844</c:v>
+                  <c:v>-3.6325325424394941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.5814900821645743</c:v>
+                  <c:v>-2.5814593640328858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.1248553404359605</c:v>
+                  <c:v>5.1248703769037656</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9557797110237241</c:v>
+                  <c:v>4.9557770519094646</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.0648934211763974</c:v>
+                  <c:v>-4.0648834154479694</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.8679869428713247</c:v>
+                  <c:v>-3.8679874121341173</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.1935689267432839</c:v>
+                  <c:v>-4.1935689513854459</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.8295494332910875</c:v>
+                  <c:v>4.8295496022249562</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.107740657533296</c:v>
+                  <c:v>5.107740604013542</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.1663251671680248</c:v>
+                  <c:v>-4.1663212083631791</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3.0976818816519271</c:v>
+                  <c:v>-3.0976771512005934</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.7943833750041458</c:v>
+                  <c:v>-3.794384768511974</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0854921873551922</c:v>
+                  <c:v>4.0854919876161038</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.2204497365766271</c:v>
+                  <c:v>-2.2204496208473161</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.0452181079818095</c:v>
+                  <c:v>5.0450450060325087</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9092366195472161</c:v>
+                  <c:v>4.9090772199271298</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.307376880082499</c:v>
+                  <c:v>2.3069771474994107</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1080213362318507</c:v>
+                  <c:v>2.1081528442273174</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9738947811666849</c:v>
+                  <c:v>1.9740262891619218</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-3.531850679733588</c:v>
+                  <c:v>-3.5318919919229503</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.8907792479691059</c:v>
+                  <c:v>4.8907824306483869</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.0904025406580073</c:v>
+                  <c:v>5.0904210683984328</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.3984241856635933</c:v>
+                  <c:v>4.398424078865423</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-3.6702303575147894</c:v>
+                  <c:v>-3.6702310058009382</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-3.674349924385591</c:v>
+                  <c:v>-3.6743507544831999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-3.8593427322877689</c:v>
+                  <c:v>-3.8593421911662813</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.93270231869321674</c:v>
+                  <c:v>0.93270245518130346</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.1223075285393396</c:v>
+                  <c:v>5.1223662199328039</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.5803842594097324</c:v>
+                  <c:v>4.5803175952484976</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.6727156676807682</c:v>
+                  <c:v>-3.6727141759481445</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-3.8965497181043696</c:v>
+                  <c:v>-3.8964840364696505</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.9013498659659449</c:v>
+                  <c:v>-3.9013159859309963</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.1425502068689291</c:v>
+                  <c:v>4.1425922937566693</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.1306810350807819</c:v>
+                  <c:v>5.1306776781668253</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.4858669192379097</c:v>
+                  <c:v>1.4858666785061718</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.2716218034762607</c:v>
+                  <c:v>-1.2716217242779495</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.5150976503214046</c:v>
+                  <c:v>-3.5151127738786259</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6361367961126554</c:v>
+                  <c:v>4.6361529003565183</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.3594901941608684</c:v>
+                  <c:v>-3.3594978930731272</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.1661104861611555</c:v>
+                  <c:v>5.166110217961208</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.2363271706077592</c:v>
+                  <c:v>5.2363271805792309</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.9180962031871789</c:v>
+                  <c:v>3.9180962020516752</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.0639234592728775</c:v>
+                  <c:v>5.0639234593084739</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-3.2704505569286213</c:v>
+                  <c:v>-3.2704505569316216</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.6044883902039508</c:v>
+                  <c:v>-3.6044887506541428</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.54217342594630924</c:v>
+                  <c:v>-0.54217327031553997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.0990588206088496</c:v>
+                  <c:v>5.099058216643316</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.8775005938036857</c:v>
+                  <c:v>4.877499914449678</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.1295659519294254</c:v>
+                  <c:v>-4.1294785785398629</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-3.8557660086733452</c:v>
+                  <c:v>-3.8556109075085145</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.146458091120321</c:v>
+                  <c:v>-4.1464189749938747</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9489225162999571</c:v>
+                  <c:v>4.9489253196588345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,11 +1272,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63228544"/>
-        <c:axId val="101949824"/>
+        <c:axId val="145695872"/>
+        <c:axId val="145697792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63228544"/>
+        <c:axId val="145695872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1303,12 +1303,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101949824"/>
+        <c:crossAx val="145697792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101949824"/>
+        <c:axId val="145697792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1336,7 +1336,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63228544"/>
+        <c:crossAx val="145695872"/>
         <c:crossesAt val="5"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1870,7 +1870,8 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.21875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1878,7 +1879,7 @@
   <sheetData>
     <row r="1" spans="3:19">
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="3:19">
@@ -1889,46 +1890,46 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:19">
@@ -1992,55 +1993,55 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>6.8898669969285995E-7</v>
-      </c>
-      <c r="E6">
-        <v>6.1109769045993003</v>
-      </c>
-      <c r="F6">
-        <v>-12.111181654611</v>
+        <v>8.6534964527373996E-7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.6534964527373996E-7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.6534964527373996E-7</v>
       </c>
       <c r="G6">
-        <v>6.0000207313181004</v>
+        <v>6.0000207182127001</v>
       </c>
       <c r="H6" s="1">
-        <v>-1.0149453681539999E-18</v>
+        <v>-1.0149656233063001E-18</v>
       </c>
       <c r="I6" s="1">
-        <v>3.1785868883401E-17</v>
+        <v>3.1785869336207E-17</v>
       </c>
       <c r="J6">
-        <v>6.1109769045993003</v>
+        <v>6.1109771887450002</v>
       </c>
       <c r="K6" s="1">
-        <v>-5.6664479189629002E-17</v>
+        <v>-5.6664480914008005E-17</v>
       </c>
       <c r="L6">
-        <v>-12.111181654611</v>
+        <v>-12.111181925651</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N34" si="0">(G6+J6+L6)/3</f>
-        <v>-6.1339564533469115E-5</v>
+        <f t="shared" ref="N6:N30" si="0">(G6+J6+L6)/3</f>
+        <v>-6.1339564433401009E-5</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O34" si="1">SQRT(0.5*((G6-N6)^2+2*H6^2+2*I6^2+(J6-N6)^2+2*K6^2+(L6-N6)^2))</f>
-        <v>10.488684583027831</v>
+        <f t="shared" ref="O6:O30" si="1">SQRT(0.5*((G6-N6)^2+2*H6^2+2*I6^2+(J6-N6)^2+2*K6^2+(L6-N6)^2))</f>
+        <v>10.488684818538291</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P34" si="2">(G6-N6)*(J6-N6)*(L6-N6)</f>
-        <v>-444.07519074023531</v>
+        <f t="shared" ref="P6:P30" si="2">(G6-N6)*(J6-N6)*(L6-N6)</f>
+        <v>-444.07522035664374</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q35" si="3">ASIN(-1.5*SQRT(3)*P6/POWER(O6,3))/3</f>
-        <v>0.51830942354566323</v>
+        <f t="shared" ref="Q6:Q30" si="3">ASIN(-1.5*SQRT(3)*P6/POWER(O6,3))/3</f>
+        <v>0.51830940949413662</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R35" si="4">O6*COS(Q6)</f>
-        <v>9.1110792796051019</v>
+        <f t="shared" ref="R6:R30" si="4">O6*COS(Q6)</f>
+        <v>9.1110795571980088</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S35" si="5">O6*SIN(Q6)</f>
-        <v>5.1962234981759874</v>
+        <f t="shared" ref="S6:S30" si="5">O6*SIN(Q6)</f>
+        <v>5.1962234868261925</v>
       </c>
     </row>
     <row r="7" spans="3:19">
@@ -2048,55 +2049,55 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>4.2149910872701997E-7</v>
-      </c>
-      <c r="E7">
-        <v>6.9470766685605003</v>
-      </c>
-      <c r="F7">
-        <v>-11.608943429213999</v>
+        <v>1.9039279219868001E-7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.9039279219868001E-7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.9039279219868001E-7</v>
       </c>
       <c r="G7">
-        <v>4.6618098279654996</v>
+        <v>4.6618086780255998</v>
       </c>
       <c r="H7" s="1">
-        <v>-2.7449167233809999E-17</v>
+        <v>-2.7449190791358E-17</v>
       </c>
       <c r="I7" s="1">
-        <v>8.7013074332539999E-18</v>
+        <v>8.7013872398716001E-18</v>
       </c>
       <c r="J7">
-        <v>-11.608943429213999</v>
+        <v>-11.608942484437</v>
       </c>
       <c r="K7" s="1">
-        <v>3.9310685710817002E-17</v>
+        <v>3.9310674657665003E-17</v>
       </c>
       <c r="L7">
-        <v>6.9470766685605003</v>
+        <v>6.9470768737239998</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8977562666518583E-5</v>
+        <v>-1.8977562466678439E-5</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>10.118347509662431</v>
+        <v>10.118346773209334</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>-375.96860774880525</v>
+        <v>-375.96849551357798</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0.41043049086462019</v>
+        <v>0.41043041519865664</v>
       </c>
       <c r="R7">
         <f t="shared" si="4"/>
-        <v>9.2780100488872517</v>
+        <v>9.2780096790804993</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>4.0372621736814551</v>
+        <v>4.0372611778041172</v>
       </c>
     </row>
     <row r="8" spans="3:19">
@@ -2104,55 +2105,55 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>5.5878405680331999E-8</v>
-      </c>
-      <c r="E8">
-        <v>6.7680888704865003</v>
-      </c>
-      <c r="F8">
-        <v>-11.824079721005999</v>
+        <v>5.5878766058725997E-8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.5878766058725997E-8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5878766058725997E-8</v>
       </c>
       <c r="G8">
-        <v>-11.824079721005999</v>
+        <v>-11.824079802495</v>
       </c>
       <c r="H8" s="1">
-        <v>5.6416956588152E-17</v>
+        <v>5.6416941004006E-17</v>
       </c>
       <c r="I8" s="1">
-        <v>-1.1005572470788E-16</v>
+        <v>-1.1005568812182E-16</v>
       </c>
       <c r="J8">
-        <v>5.0559861493564</v>
+        <v>5.0559863139779999</v>
       </c>
       <c r="K8" s="1">
-        <v>6.0677120586819999E-18</v>
+        <v>6.0677098791626997E-18</v>
       </c>
       <c r="L8">
-        <v>6.7680888704865003</v>
+        <v>6.7680887873542996</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5670543662693603E-6</v>
+        <v>-1.5670542333386568E-6</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>10.275672341749345</v>
+        <v>10.275672401755678</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>-404.61264851672581</v>
+        <v>-404.61265950945193</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.44019355904346091</v>
+        <v>0.44019357162906153</v>
       </c>
       <c r="R8">
         <f t="shared" si="4"/>
-        <v>9.2960842957462511</v>
+        <v>9.2960842949246469</v>
       </c>
       <c r="S8">
         <f t="shared" si="5"/>
-        <v>4.3786138036337938</v>
+        <v>4.3786139462001712</v>
       </c>
     </row>
     <row r="9" spans="3:19">
@@ -2160,55 +2161,55 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0033159016997001E-5</v>
-      </c>
-      <c r="E9">
-        <v>9.7938517358230008</v>
-      </c>
-      <c r="F9">
-        <v>-5.8389049574890999</v>
+        <v>2.2170682096423E-5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.2170682096423E-5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2170682096423E-5</v>
       </c>
       <c r="G9">
-        <v>-5.8389049574890999</v>
+        <v>-5.8388961259960004</v>
       </c>
       <c r="H9" s="1">
-        <v>2.7406384754711E-17</v>
+        <v>2.7388334125518999E-17</v>
       </c>
       <c r="I9" s="1">
-        <v>-1.8978636132132001E-17</v>
+        <v>-1.8979138049694999E-17</v>
       </c>
       <c r="J9">
-        <v>9.7938517358230008</v>
+        <v>9.7938585148887007</v>
       </c>
       <c r="K9" s="1">
-        <v>2.7345837600801002E-17</v>
+        <v>2.7345806389692001E-17</v>
       </c>
       <c r="L9">
-        <v>-3.9550110227805</v>
+        <v>-3.9550266333392998</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1414815533008873E-5</v>
+        <v>-2.1414815533156901E-5</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>8.5338870133958729</v>
+        <v>8.5338914994531194</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>226.16720694757751</v>
+        <v>226.16791410300976</v>
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
-        <v>-0.4129961658754841</v>
+        <v>-0.41299766511649327</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>7.816378346656049</v>
+        <v>7.8163773204423501</v>
       </c>
       <c r="S9">
         <f t="shared" si="5"/>
-        <v>-3.4251214722011207</v>
+        <v>-3.4251349913416065</v>
       </c>
     </row>
     <row r="10" spans="3:19">
@@ -2216,55 +2217,55 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>5.3562742201585001E-6</v>
-      </c>
-      <c r="E10">
-        <v>9.8634511481147005</v>
-      </c>
-      <c r="F10">
-        <v>-5.6363528234256997</v>
+        <v>6.1160025237594001E-6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.1160025237594001E-6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.1160025237594001E-6</v>
       </c>
       <c r="G10">
-        <v>-4.2272373344028997</v>
+        <v>-4.2272356113075</v>
       </c>
       <c r="H10" s="1">
-        <v>1.5913454550870001E-18</v>
+        <v>1.631341571464E-18</v>
       </c>
       <c r="I10" s="1">
-        <v>-1.2176862578013E-17</v>
+        <v>-1.2176816945863001E-17</v>
       </c>
       <c r="J10">
-        <v>-5.6363528234256997</v>
+        <v>-5.6363550299889997</v>
       </c>
       <c r="K10" s="1">
-        <v>7.2274573894085004E-17</v>
+        <v>7.2257281407252E-17</v>
       </c>
       <c r="L10">
-        <v>9.8634511481147005</v>
+        <v>9.8634516315827003</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>-4.6336571299931961E-5</v>
+        <v>-4.6336571266773298E-5</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>8.5710465281759074</v>
+        <v>8.5710471069677006</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>235.00516643151292</v>
+        <v>235.00517415963174</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>-0.44130384985703425</v>
+        <v>-0.44130362540813245</v>
       </c>
       <c r="R10">
         <f t="shared" si="4"/>
-        <v>7.7499019857701992</v>
+        <v>7.74990333078585</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>-3.660854790771058</v>
+        <v>-3.6608532985266935</v>
       </c>
     </row>
     <row r="11" spans="3:19">
@@ -2272,55 +2273,55 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>5.0881464486173995E-7</v>
-      </c>
-      <c r="E11">
-        <v>9.8062368793489991</v>
-      </c>
-      <c r="F11">
-        <v>-5.8063557285950997</v>
+        <v>5.0883191460294001E-7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.0883191460294001E-7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.0883191460294001E-7</v>
       </c>
       <c r="G11">
-        <v>9.8062368793489991</v>
+        <v>9.8062369969655006</v>
       </c>
       <c r="H11" s="1">
-        <v>-5.0690242454275998E-17</v>
+        <v>-5.0670690816558001E-17</v>
       </c>
       <c r="I11" s="1">
-        <v>9.3998907326686E-17</v>
+        <v>9.3998920827902996E-17</v>
       </c>
       <c r="J11">
-        <v>-3.9999224742048001</v>
+        <v>-3.9999229057746999</v>
       </c>
       <c r="K11" s="1">
-        <v>-6.1178875459084995E-17</v>
+        <v>-6.1181408197316995E-17</v>
       </c>
       <c r="L11">
-        <v>-5.8063557285950997</v>
+        <v>-5.8063554146416996</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3774483633414528E-5</v>
+        <v>-1.377448363282241E-5</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>8.5403579661502764</v>
+        <v>8.5403580280151559</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>227.74857983965882</v>
+        <v>227.74859482965874</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>-0.41764198878871223</v>
+        <v>-0.41764203345236589</v>
       </c>
       <c r="R11">
         <f t="shared" si="4"/>
-        <v>7.806296303972049</v>
+        <v>7.8062962058036005</v>
       </c>
       <c r="S11">
         <f t="shared" si="5"/>
-        <v>-3.464022546776913</v>
+        <v>-3.464022920527408</v>
       </c>
     </row>
     <row r="12" spans="3:19">
@@ -2328,55 +2329,55 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>1.1397562915682999E-7</v>
-      </c>
-      <c r="E12">
-        <v>6.1810196158644999</v>
-      </c>
-      <c r="F12">
-        <v>-12.105811580538999</v>
+        <v>9.2377960170252996E-8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.2377960170252996E-8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.2377960170252996E-8</v>
       </c>
       <c r="G12">
-        <v>5.9246268035433003</v>
+        <v>5.9246268087798004</v>
       </c>
       <c r="H12" s="1">
-        <v>-2.3481184917829002E-18</v>
+        <v>-2.3476922088910001E-18</v>
       </c>
       <c r="I12" s="1">
-        <v>3.5771791094350001E-17</v>
+        <v>3.5771792694254999E-17</v>
       </c>
       <c r="J12">
-        <v>6.1810196158644999</v>
+        <v>6.1810195787864002</v>
       </c>
       <c r="K12" s="1">
-        <v>4.9288807940357997E-17</v>
+        <v>4.9288521104936002E-17</v>
       </c>
       <c r="L12">
-        <v>-12.105811580538999</v>
+        <v>-12.105811548697</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>-5.5053710399377564E-5</v>
+        <v>-5.5053710266742918E-5</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>10.484676443920071</v>
+        <v>10.484676416087577</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>-443.3237107320702</v>
+        <v>-443.32370729845894</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.51137144542825541</v>
+        <v>0.51137144741387142</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>9.1434155982017487</v>
+        <v>9.1434155637417032</v>
       </c>
       <c r="S12">
         <f t="shared" si="5"/>
-        <v>5.1309249977224729</v>
+        <v>5.1309250022572952</v>
       </c>
     </row>
     <row r="13" spans="3:19">
@@ -2384,55 +2385,55 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>4.3776520097794002E-7</v>
-      </c>
-      <c r="E13">
-        <v>6.2741612574749004</v>
-      </c>
-      <c r="F13">
-        <v>-12.091423810162</v>
+        <v>1.5245967577292999E-7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.5245967577292999E-7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.5245967577292999E-7</v>
       </c>
       <c r="G13">
-        <v>5.8172003280710998</v>
+        <v>5.8171995762625004</v>
       </c>
       <c r="H13" s="1">
-        <v>-4.3356539562249002E-17</v>
+        <v>-4.3356419783601002E-17</v>
       </c>
       <c r="I13" s="1">
-        <v>3.1492291660649003E-17</v>
+        <v>3.1492346310675E-17</v>
       </c>
       <c r="J13">
-        <v>-12.091423810162</v>
+        <v>-12.091423271936</v>
       </c>
       <c r="K13" s="1">
-        <v>-2.3430593468174999E-16</v>
+        <v>-2.3430600528834999E-16</v>
       </c>
       <c r="L13">
-        <v>6.2741612574749004</v>
+        <v>6.2741614710573996</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0741538666750142E-5</v>
+        <v>-2.0741538699908801E-5</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>10.47395457545457</v>
+        <v>10.473954119977675</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>-441.31570159022044</v>
+        <v>-441.31563993397708</v>
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0.50178289052627345</v>
+        <v>0.50178284348113189</v>
       </c>
       <c r="R13">
         <f t="shared" si="4"/>
-        <v>9.1827925338184482</v>
+        <v>9.1827923714967028</v>
       </c>
       <c r="S13">
         <f t="shared" si="5"/>
-        <v>5.0378612257121453</v>
+        <v>5.0378605746268201</v>
       </c>
     </row>
     <row r="14" spans="3:19">
@@ -2440,55 +2441,55 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0850896852442E-4</v>
+        <v>1.8538010825185999E-4</v>
       </c>
       <c r="E14">
-        <v>9.9352058755232004</v>
+        <v>1.8538010825185999E-4</v>
       </c>
       <c r="F14">
-        <v>-5.3108903988799998</v>
+        <v>1.8538010825185999E-4</v>
       </c>
       <c r="G14">
-        <v>-4.6243495014859999</v>
+        <v>-4.6243311944160004</v>
       </c>
       <c r="H14" s="1">
-        <v>6.9322413791012998E-18</v>
+        <v>6.9330839485974997E-18</v>
       </c>
       <c r="I14" s="1">
-        <v>-1.1866273811771E-16</v>
+        <v>-1.1866105081249E-16</v>
       </c>
       <c r="J14">
-        <v>-5.3108903988799998</v>
+        <v>-5.3108782917938004</v>
       </c>
       <c r="K14" s="1">
-        <v>1.7148219319805999E-17</v>
+        <v>1.7148160711537E-17</v>
       </c>
       <c r="L14">
-        <v>9.9352058755232004</v>
+        <v>9.9351754613671002</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1341614266413558E-5</v>
+        <v>-1.1341614233254896E-5</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>8.6109953236967449</v>
+        <v>8.6109691287816332</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>244.00198702611536</v>
+        <v>243.99971786924368</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
-        <v>-0.48372400860953046</v>
+        <v>-0.48372352695315962</v>
       </c>
       <c r="R14">
         <f t="shared" si="4"/>
-        <v>7.6230481372016019</v>
+        <v>7.6230268765804503</v>
       </c>
       <c r="S14">
         <f t="shared" si="5"/>
-        <v>-4.0047943221387037</v>
+        <v>-4.0047784677510476</v>
       </c>
     </row>
     <row r="15" spans="3:19">
@@ -2496,55 +2497,55 @@
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>8.3606806522417999E-7</v>
-      </c>
-      <c r="E15">
-        <v>9.9135277740122003</v>
-      </c>
-      <c r="F15">
-        <v>-5.4354299932829999</v>
+        <v>8.5063582200283998E-7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.5063582200283998E-7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.5063582200283998E-7</v>
       </c>
       <c r="G15">
-        <v>-5.4354299932829999</v>
+        <v>-5.4354290211925003</v>
       </c>
       <c r="H15" s="1">
-        <v>-2.6412258403539999E-18</v>
+        <v>-2.6438926760555999E-18</v>
       </c>
       <c r="I15" s="1">
-        <v>-1.6600796437559001E-17</v>
+        <v>-1.6600917676700001E-17</v>
       </c>
       <c r="J15">
-        <v>9.9135277740122003</v>
+        <v>9.9135279903739004</v>
       </c>
       <c r="K15" s="1">
-        <v>2.1788166216969999E-17</v>
+        <v>2.1788136951342E-17</v>
       </c>
       <c r="L15">
-        <v>-4.4781484876143001</v>
+        <v>-4.4781496760664004</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6902295033223897E-5</v>
+        <v>-1.6902295000065237E-5</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>8.5987134506929852</v>
+        <v>8.5987135776447694</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>241.3005850424112</v>
+        <v>241.30061119241788</v>
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>-0.46790576065654105</v>
+        <v>-0.46790588730646848</v>
       </c>
       <c r="R15">
         <f t="shared" si="4"/>
-        <v>7.674478883647601</v>
+        <v>7.6744785057832035</v>
       </c>
       <c r="S15">
         <f t="shared" si="5"/>
-        <v>-3.8781757143759665</v>
+        <v>-3.8781767436057004</v>
       </c>
     </row>
     <row r="16" spans="3:19">
@@ -2552,55 +2553,55 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>6.2929436239756004E-7</v>
-      </c>
-      <c r="E16">
-        <v>9.9567508191659009</v>
-      </c>
-      <c r="F16">
-        <v>-5.0565263474481998</v>
+        <v>7.3954984625145999E-7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.3954984625145999E-7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.3954984625145999E-7</v>
       </c>
       <c r="G16">
-        <v>-4.9003052796338</v>
+        <v>-4.9003052079659</v>
       </c>
       <c r="H16" s="1">
-        <v>6.7604207879502001E-18</v>
+        <v>6.7605416890797001E-18</v>
       </c>
       <c r="I16" s="1">
-        <v>-4.9731458003975997E-18</v>
+        <v>-4.9731703473484002E-18</v>
       </c>
       <c r="J16">
-        <v>-5.0565263474481998</v>
+        <v>-5.0565265574972003</v>
       </c>
       <c r="K16" s="1">
-        <v>2.0971340132945999E-17</v>
+        <v>2.0971334993004999E-17</v>
       </c>
       <c r="L16">
-        <v>9.9567508191659009</v>
+        <v>9.9567509575469995</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>-2.693597203299684E-5</v>
+        <v>-2.6935972033588957E-5</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>8.6231762538182224</v>
+        <v>8.6231763749307788</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>246.71157382206997</v>
+        <v>246.71158389118543</v>
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>-0.51454044258688303</v>
+        <v>-0.51454042637857655</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>7.5066385833070601</v>
+        <v>7.5066387575220919</v>
       </c>
       <c r="S16">
         <f t="shared" si="5"/>
-        <v>-4.2437655312258062</v>
+        <v>-4.2437654691596141</v>
       </c>
     </row>
     <row r="17" spans="3:19">
@@ -2608,55 +2609,55 @@
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>5.5111025601740002E-5</v>
-      </c>
-      <c r="E17">
-        <v>6.5430084616790003</v>
-      </c>
-      <c r="F17">
-        <v>-11.993589334118999</v>
+        <v>5.0105470408734002E-5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.0105470408734002E-5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.0105470408734002E-5</v>
       </c>
       <c r="G17">
-        <v>5.4504532704792998</v>
+        <v>5.4504503111979998</v>
       </c>
       <c r="H17" s="1">
-        <v>-2.8254490685106001E-17</v>
+        <v>-2.8250644018664002E-17</v>
       </c>
       <c r="I17" s="1">
-        <v>2.6402753476403001E-19</v>
+        <v>2.6402557002477998E-19</v>
       </c>
       <c r="J17">
-        <v>-11.993589334118999</v>
+        <v>-11.993581739965</v>
       </c>
       <c r="K17" s="1">
-        <v>8.0160189228183E-18</v>
+        <v>8.0160084303619994E-18</v>
       </c>
       <c r="L17">
-        <v>6.5430084616790003</v>
+        <v>6.5430038268072996</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2533986899684351E-5</v>
+        <v>-4.2533986566913505E-5</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>10.401071716254704</v>
+        <v>10.401065104599811</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>-427.72432436254331</v>
+        <v>-427.72351832071661</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>0.4710533194644993</v>
+        <v>0.47105336669241349</v>
       </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>9.2682988978990011</v>
+        <v>9.2682927833861477</v>
       </c>
       <c r="S17">
         <f t="shared" si="5"/>
-        <v>4.7202678298882272</v>
+        <v>4.7202652670751588</v>
       </c>
     </row>
     <row r="18" spans="3:19">
@@ -2664,55 +2665,55 @@
         <v>13</v>
       </c>
       <c r="D18" s="1">
-        <v>7.7392226405236995E-8</v>
-      </c>
-      <c r="E18">
-        <v>6.2047081168149996</v>
-      </c>
-      <c r="F18">
-        <v>-12.102939203988999</v>
+        <v>5.2736826017251998E-8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.2736826017251998E-8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.2736826017251998E-8</v>
       </c>
       <c r="G18">
-        <v>5.8981447298668996</v>
+        <v>5.8981445232359997</v>
       </c>
       <c r="H18" s="1">
-        <v>-4.0105499265387001E-18</v>
+        <v>-4.0104414368232998E-18</v>
       </c>
       <c r="I18" s="1">
-        <v>4.8210573694793998E-17</v>
+        <v>4.8210572443543999E-17</v>
       </c>
       <c r="J18">
-        <v>6.2047081168149996</v>
+        <v>6.2047082629219998</v>
       </c>
       <c r="K18" s="1">
-        <v>-1.1894486707652E-17</v>
+        <v>-1.1894487341538E-17</v>
       </c>
       <c r="L18">
-        <v>-12.102939203988999</v>
+        <v>-12.102939143465001</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="0"/>
-        <v>-2.8785769033608705E-5</v>
+        <v>-2.8785769000450045E-5</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>10.482548627177806</v>
+        <v>10.482548577347085</v>
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
-        <v>-442.92555138545953</v>
+        <v>-442.92554408331506</v>
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>0.5089756947158679</v>
+        <v>0.50897567781954389</v>
       </c>
       <c r="R18">
         <f t="shared" si="4"/>
-        <v>9.1538236604019971</v>
+        <v>9.1538237031934955</v>
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
-        <v>5.1079681004692956</v>
+        <v>5.1079679215216602</v>
       </c>
     </row>
     <row r="19" spans="3:19">
@@ -2720,31 +2721,31 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>1.1870340159481E-4</v>
+        <v>1.2661605309393999E-4</v>
       </c>
       <c r="E19">
-        <v>9.9565842633416999</v>
+        <v>1.2661605309393999E-4</v>
       </c>
       <c r="F19">
-        <v>-5.0660999573816001</v>
+        <v>1.2661605309393999E-4</v>
       </c>
       <c r="G19">
-        <v>9.9565842633416999</v>
+        <v>9.9565941913506002</v>
       </c>
       <c r="H19" s="1">
-        <v>8.7797230182971995E-18</v>
+        <v>8.7797264957499007E-18</v>
       </c>
       <c r="I19" s="1">
-        <v>1.7755995774042001E-16</v>
+        <v>1.7756021293547001E-16</v>
       </c>
       <c r="J19">
-        <v>-4.8905902338373997</v>
+        <v>-4.8905860995002</v>
       </c>
       <c r="K19" s="1">
-        <v>4.8981269334856999E-18</v>
+        <v>4.8978983035995999E-18</v>
       </c>
       <c r="L19">
-        <v>-5.0660999573816001</v>
+        <v>-5.0661140197277001</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
@@ -2752,23 +2753,23 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>8.6231320238869991</v>
+        <v>8.6231407139453093</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>246.68388641103013</v>
+        <v>246.68460858972983</v>
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>-0.51342191917081836</v>
+        <v>-0.5134208742647185</v>
       </c>
       <c r="R19">
         <f t="shared" si="4"/>
-        <v>7.5113421103616682</v>
+        <v>7.5113541055391639</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>-4.2353448032590002</v>
+        <v>-4.2353412228179632</v>
       </c>
     </row>
     <row r="20" spans="3:19">
@@ -2776,55 +2777,55 @@
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>8.7171687346287996E-6</v>
-      </c>
-      <c r="E20">
-        <v>9.6414437525961993</v>
-      </c>
-      <c r="F20">
-        <v>-6.1809919068115997</v>
+        <v>8.7212746133769008E-6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.7212746133769008E-6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8.7212746133769008E-6</v>
       </c>
       <c r="G20">
-        <v>-3.4605124615652998</v>
+        <v>-3.4605107363202001</v>
       </c>
       <c r="H20" s="1">
-        <v>-9.9967411572133996E-18</v>
+        <v>-6.3001656904521004E-18</v>
       </c>
       <c r="I20" s="1">
-        <v>-1.1543161957803999E-16</v>
+        <v>-1.1543159182149001E-16</v>
       </c>
       <c r="J20">
-        <v>-6.1809919068115997</v>
+        <v>-6.1809930727482003</v>
       </c>
       <c r="K20" s="1">
-        <v>-7.9804201744371998E-17</v>
+        <v>-7.9804253274357003E-17</v>
       </c>
       <c r="L20">
-        <v>9.6414437525961993</v>
+        <v>9.6414431932878006</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0205260233533789E-5</v>
+        <v>-2.0205260199783009E-5</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>8.4598240254147949</v>
+        <v>8.4598237797757783</v>
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
-        <v>206.22324629539273</v>
+        <v>206.22317041917904</v>
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
-        <v>-0.36210960251969709</v>
+        <v>-0.36210942465972812</v>
       </c>
       <c r="R20">
         <f t="shared" si="4"/>
-        <v>7.9112178297039009</v>
+        <v>7.9112181330179983</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>-2.9968742035595159</v>
+        <v>-2.996872709453466</v>
       </c>
     </row>
     <row r="21" spans="3:19">
@@ -2832,55 +2833,55 @@
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <v>1.3791589696943E-5</v>
-      </c>
-      <c r="E21">
-        <v>9.8906140381763006</v>
-      </c>
-      <c r="F21">
-        <v>-5.5371535002965002</v>
+        <v>1.7537619306118E-5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.7537619306118E-5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.7537619306118E-5</v>
       </c>
       <c r="G21">
-        <v>-5.5371535002965002</v>
+        <v>-5.5371582948939002</v>
       </c>
       <c r="H21" s="1">
-        <v>2.5546492676747001E-17</v>
+        <v>2.6144157552682E-17</v>
       </c>
       <c r="I21" s="1">
-        <v>-1.0881815697312999E-18</v>
+        <v>-1.0880811686969001E-18</v>
       </c>
       <c r="J21">
-        <v>9.8906140381763006</v>
+        <v>9.8906183291102003</v>
       </c>
       <c r="K21" s="1">
-        <v>1.8077399038195001E-16</v>
+        <v>1.8077389429068999E-16</v>
       </c>
       <c r="L21">
-        <v>-4.3534788795508996</v>
+        <v>-4.3534783758874998</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="0"/>
-        <v>-6.113890366421515E-6</v>
+        <v>-6.1138903998762357E-6</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>8.5859505383096497</v>
+        <v>8.5859544281358406</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>238.421512497903</v>
+        <v>238.4217947992862</v>
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
-        <v>-0.45461316992981243</v>
+        <v>-0.45461289195511795</v>
       </c>
       <c r="R21">
         <f t="shared" si="4"/>
-        <v>7.7138837692364026</v>
+        <v>7.7138883120020498</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>-3.7702180097457174</v>
+        <v>-3.7702175735603913</v>
       </c>
     </row>
     <row r="22" spans="3:19">
@@ -2888,55 +2889,55 @@
         <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>6.3494970170773998E-5</v>
-      </c>
-      <c r="E22">
-        <v>6.7340046249138004</v>
-      </c>
-      <c r="F22">
-        <v>-11.856355262537001</v>
+        <v>6.3496657786377006E-5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.3496657786377006E-5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.3496657786377006E-5</v>
       </c>
       <c r="G22">
-        <v>-11.856355262537001</v>
+        <v>-11.856355518020001</v>
       </c>
       <c r="H22" s="1">
-        <v>-4.7792820288571998E-18</v>
+        <v>-4.5381256756940004E-18</v>
       </c>
       <c r="I22" s="1">
-        <v>-1.5700304332408E-16</v>
+        <v>-1.5700299488499001E-16</v>
       </c>
       <c r="J22">
-        <v>5.1222949072897999</v>
+        <v>5.1222954408322003</v>
       </c>
       <c r="K22" s="1">
-        <v>6.3149940477880004E-17</v>
+        <v>6.3149914490466006E-17</v>
       </c>
       <c r="L22">
-        <v>6.7340046249138004</v>
+        <v>6.7340043468540003</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8576777800186999E-5</v>
+        <v>-1.8576777933413762E-5</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>10.299463178148196</v>
+        <v>10.299463366973713</v>
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>-408.969843730251</v>
+        <v>-408.96987825422201</v>
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>0.44527630945887053</v>
+        <v>0.44527635041911745</v>
       </c>
       <c r="R22">
         <f t="shared" si="4"/>
-        <v>9.2951799437254028</v>
+        <v>9.2951799324370015</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>4.4360536033501159</v>
+        <v>4.4360540654115059</v>
       </c>
     </row>
     <row r="23" spans="3:19">
@@ -2944,31 +2945,31 @@
         <v>18</v>
       </c>
       <c r="D23" s="1">
-        <v>3.5424142708073999E-7</v>
-      </c>
-      <c r="E23">
-        <v>9.6196635631992002</v>
-      </c>
-      <c r="F23">
-        <v>-6.2256400237512004</v>
+        <v>3.2505950930961002E-7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.2505950930961002E-7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.2505950930961002E-7</v>
       </c>
       <c r="G23">
-        <v>-3.3942070074717998</v>
+        <v>-3.3941895889667002</v>
       </c>
       <c r="H23" s="1">
-        <v>-3.4587748298163001E-18</v>
+        <v>-3.3714952738681E-18</v>
       </c>
       <c r="I23" s="1">
-        <v>5.3348847523989E-17</v>
+        <v>5.3348512350836002E-17</v>
       </c>
       <c r="J23">
-        <v>-6.2256400237512004</v>
+        <v>-6.2256516880935999</v>
       </c>
       <c r="K23" s="1">
-        <v>-1.784260504828E-16</v>
+        <v>-1.7842632875896E-16</v>
       </c>
       <c r="L23">
-        <v>9.6196635631992002</v>
+        <v>9.6196578090365001</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
@@ -2976,23 +2977,23 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>8.4503598140205156</v>
+        <v>8.4503573373866665</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>203.26981142105379</v>
+        <v>203.26902751492733</v>
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
-        <v>-0.35527172327611184</v>
+        <v>-0.35526992799560692</v>
       </c>
       <c r="R23">
         <f t="shared" si="4"/>
-        <v>7.9226517934752003</v>
+        <v>7.9226547485650487</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>-2.939416531517272</v>
+        <v>-2.9394014466493616</v>
       </c>
     </row>
     <row r="24" spans="3:19">
@@ -3000,55 +3001,55 @@
         <v>19</v>
       </c>
       <c r="D24" s="1">
-        <v>3.7928560878697002E-6</v>
-      </c>
-      <c r="E24">
-        <v>6.2750923423735996</v>
-      </c>
-      <c r="F24">
-        <v>-12.091218564767001</v>
+        <v>2.5672699714985001E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.5672699714985001E-6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.5672699714985001E-6</v>
       </c>
       <c r="G24">
-        <v>5.8161137708946997</v>
+        <v>5.8161141026234002</v>
       </c>
       <c r="H24" s="1">
-        <v>2.2368658506022E-18</v>
+        <v>2.2390192737610999E-18</v>
       </c>
       <c r="I24" s="1">
-        <v>3.8778409482726002E-17</v>
+        <v>3.8778344343903998E-17</v>
       </c>
       <c r="J24">
-        <v>6.2750923423735996</v>
+        <v>6.2750902964488002</v>
       </c>
       <c r="K24" s="1">
-        <v>4.429091305724E-17</v>
+        <v>4.4290861836190003E-17</v>
       </c>
       <c r="L24">
-        <v>-12.091218564767001</v>
+        <v>-12.091216850571</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>-4.150499567145971E-6</v>
+        <v>-4.1504995997125134E-6</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>10.47381329034992</v>
+        <v>10.473811780120958</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>-441.28943926811218</v>
+        <v>-441.28925799758508</v>
       </c>
       <c r="Q24">
         <f t="shared" si="3"/>
-        <v>0.50168625476048601</v>
+        <v>0.50168636513233789</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>9.1831554535703006</v>
+        <v>9.1831535735098981</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>5.0369058713333779</v>
+        <v>5.0369061586188923</v>
       </c>
     </row>
     <row r="25" spans="3:19">
@@ -3056,55 +3057,55 @@
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>3.5074408573087998E-6</v>
-      </c>
-      <c r="E25">
-        <v>6.3336849459501998</v>
-      </c>
-      <c r="F25">
-        <v>-12.077552612526</v>
+        <v>8.5067837307662003E-7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.5067837307662003E-7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8.5067837307662003E-7</v>
       </c>
       <c r="G25">
-        <v>6.3336849459501998</v>
+        <v>6.3336873921962002</v>
       </c>
       <c r="H25" s="1">
-        <v>-5.8830477355378997E-18</v>
+        <v>-5.8837806059178998E-18</v>
       </c>
       <c r="I25" s="1">
-        <v>2.5441373422701E-17</v>
+        <v>2.5441367800813002E-17</v>
       </c>
       <c r="J25">
-        <v>5.7437020688295997</v>
+        <v>5.7436942136273004</v>
       </c>
       <c r="K25" s="1">
-        <v>-6.6320210610528997E-17</v>
+        <v>-6.6320204124850998E-17</v>
       </c>
       <c r="L25">
-        <v>-12.077552612526</v>
+        <v>-12.077547203569001</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
-        <v>-5.5199248733946625E-5</v>
+        <v>-5.5199248500059639E-5</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>10.463578631358068</v>
+        <v>10.463574094137657</v>
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>-439.37290642814463</v>
+        <v>-439.37227846028452</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>0.49540282662968349</v>
+        <v>0.49540232195151107</v>
       </c>
       <c r="R25">
         <f t="shared" si="4"/>
-        <v>9.2056187792381046</v>
+        <v>9.2056172978826023</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>4.974239707327337</v>
+        <v>4.9742329045223972</v>
       </c>
     </row>
     <row r="26" spans="3:19">
@@ -3112,55 +3113,55 @@
         <v>21</v>
       </c>
       <c r="D26" s="1">
-        <v>1.4270435477747999E-7</v>
-      </c>
-      <c r="E26">
-        <v>7.4232721043472996</v>
-      </c>
-      <c r="F26">
-        <v>-10.705439853233001</v>
+        <v>1.4270437453944999E-7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.4270437453944999E-7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4270437453944999E-7</v>
       </c>
       <c r="G26">
-        <v>3.2821057940150999</v>
+        <v>3.2821082402610999</v>
       </c>
       <c r="H26" s="1">
-        <v>-5.0020786467767004E-16</v>
+        <v>1.0450498656235E-16</v>
       </c>
       <c r="I26" s="1">
-        <v>-4.9065524478834002E-17</v>
+        <v>-1.2874600227335999E-16</v>
       </c>
       <c r="J26">
-        <v>-10.705439853233001</v>
+        <v>-10.705441494687999</v>
       </c>
       <c r="K26" s="1">
-        <v>-1.0896693853394E-16</v>
+        <v>-9.3341360620698002E-17</v>
       </c>
       <c r="L26">
-        <v>7.4232721043472996</v>
+        <v>7.4232712995570997</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0651623533633295E-5</v>
+        <v>-2.0651623266587649E-5</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>9.4995691909738262</v>
+        <v>9.4995702240292452</v>
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
-        <v>-260.82881894166042</v>
+        <v>-260.82902505866269</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>0.3038688953064998</v>
+        <v>0.30386909492422048</v>
       </c>
       <c r="R26">
         <f t="shared" si="4"/>
-        <v>9.0643559787901502</v>
+        <v>9.0643563971225483</v>
       </c>
       <c r="S26">
         <f t="shared" si="5"/>
-        <v>2.8424048803557813</v>
+        <v>2.8424069988667311</v>
       </c>
     </row>
     <row r="27" spans="3:19">
@@ -3168,55 +3169,55 @@
         <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>2.9196119299968E-8</v>
-      </c>
-      <c r="E27">
-        <v>7.2288471479889003</v>
-      </c>
-      <c r="F27">
-        <v>-11.101986034519999</v>
+        <v>2.9190196482176002E-8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.9190196482176002E-8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.9190196482176002E-8</v>
       </c>
       <c r="G27">
-        <v>-11.101986034519999</v>
+        <v>-11.101986483483</v>
       </c>
       <c r="H27" s="1">
-        <v>-1.4115890036591001E-16</v>
+        <v>5.0993820319410002E-17</v>
       </c>
       <c r="I27" s="1">
-        <v>-1.6754527315120001E-16</v>
+        <v>-2.0275513358172E-16</v>
       </c>
       <c r="J27">
-        <v>7.2288471479889003</v>
+        <v>7.2288469277859004</v>
       </c>
       <c r="K27" s="1">
-        <v>7.2147124617745996E-17</v>
+        <v>7.4856642825702004E-17</v>
       </c>
       <c r="L27">
-        <v>3.8731387520484</v>
+        <v>3.8731394212149</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="0"/>
-        <v>-4.482756639963744E-8</v>
+        <v>-4.4827399718154006E-8</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>9.7599059624640709</v>
+        <v>9.7599062690419256</v>
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
-        <v>-310.83705095480218</v>
+        <v>-310.83710776003704</v>
       </c>
       <c r="Q27">
         <f t="shared" si="3"/>
-        <v>0.35082757691775263</v>
+        <v>0.35082762865046502</v>
       </c>
       <c r="R27">
         <f t="shared" si="4"/>
-        <v>9.1654165912544521</v>
+        <v>9.1654167056344509</v>
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>3.3542365904776834</v>
+        <v>3.3542371699927269</v>
       </c>
     </row>
     <row r="28" spans="3:19">
@@ -3224,55 +3225,55 @@
         <v>23</v>
       </c>
       <c r="D28" s="1">
-        <v>8.7555165562136005E-8</v>
-      </c>
-      <c r="E28">
-        <v>7.8436095741444003</v>
-      </c>
-      <c r="F28">
-        <v>-9.8481165166978002</v>
+        <v>8.7555163785779999E-8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8.7555163785779999E-8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8.7555163785779999E-8</v>
       </c>
       <c r="G28">
-        <v>-9.8481165166978002</v>
+        <v>-9.8481169657151995</v>
       </c>
       <c r="H28" s="1">
-        <v>-3.5682301507381999E-17</v>
+        <v>-1.1372793057492999E-16</v>
       </c>
       <c r="I28" s="1">
-        <v>-5.0494367248059999E-17</v>
+        <v>-8.3546067020035999E-17</v>
       </c>
       <c r="J28">
-        <v>7.8436095741444003</v>
+        <v>7.8436093539953999</v>
       </c>
       <c r="K28" s="1">
-        <v>1.2823358084332E-16</v>
+        <v>1.5041462502074001E-16</v>
       </c>
       <c r="L28">
-        <v>2.0044455192648001</v>
+        <v>2.0044461884313001</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
-        <v>-2.047442953327187E-5</v>
+        <v>-2.0474429499817148E-5</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>9.014582960861496</v>
+        <v>9.0145831847498883</v>
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
-        <v>-154.83461896489811</v>
+        <v>-154.83467336834545</v>
       </c>
       <c r="Q28">
         <f t="shared" si="3"/>
-        <v>0.19377826153491776</v>
+        <v>0.193778322173597</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>8.8458630454211011</v>
+        <v>8.8458631598553001</v>
       </c>
       <c r="S28">
         <f t="shared" si="5"/>
-        <v>1.7359184715613114</v>
+        <v>1.7359190510764702</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -3280,55 +3281,55 @@
         <v>24</v>
       </c>
       <c r="D29" s="1">
-        <v>4.3759158432355003E-5</v>
-      </c>
-      <c r="E29">
-        <v>9.8331375577018001</v>
-      </c>
-      <c r="F29">
-        <v>-5.7314164179914</v>
+        <v>3.5932656782478E-5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.5932656782478E-5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.5932656782478E-5</v>
       </c>
       <c r="G29">
-        <v>-4.1018897436320003</v>
+        <v>-4.1018571666800003</v>
       </c>
       <c r="H29" s="1">
-        <v>-1.2436204613477001E-18</v>
+        <v>-3.9738248285197003E-18</v>
       </c>
       <c r="I29" s="1">
-        <v>-5.2662905565888997E-17</v>
+        <v>-5.8184982422998997E-17</v>
       </c>
       <c r="J29">
-        <v>-5.7314164179914</v>
+        <v>-5.7314317633943999</v>
       </c>
       <c r="K29" s="1">
-        <v>-2.281564852418E-17</v>
+        <v>-2.0162268915565999E-17</v>
       </c>
       <c r="L29">
-        <v>9.8331375577018001</v>
+        <v>9.8331203261530007</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="0"/>
-        <v>-5.6201307200372717E-5</v>
+        <v>-5.6201307132871157E-5</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>8.5546837418032222</v>
+        <v>8.5546711688240205</v>
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>231.16939360468618</v>
+        <v>231.16777148930765</v>
       </c>
       <c r="Q29">
         <f t="shared" si="3"/>
-        <v>-0.42821241144708599</v>
+        <v>-0.42820945709118236</v>
       </c>
       <c r="R29">
         <f t="shared" si="4"/>
-        <v>7.7822769878466023</v>
+        <v>7.7822760447737007</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>-3.5522920497483867</v>
+        <v>-3.5522638372804378</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -3336,55 +3337,55 @@
         <v>25</v>
       </c>
       <c r="D30" s="1">
-        <v>4.2883994959552997E-6</v>
-      </c>
-      <c r="E30">
-        <v>6.4944660120395996</v>
-      </c>
-      <c r="F30">
-        <v>-12.018350509696999</v>
+        <v>4.5439701041872002E-6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.5439701041872002E-6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.5439701041872002E-6</v>
       </c>
       <c r="G30">
-        <v>6.4944660120395996</v>
+        <v>6.4944671824890996</v>
       </c>
       <c r="H30" s="1">
-        <v>-7.1839176220653003E-18</v>
+        <v>-7.3962317173347E-18</v>
       </c>
       <c r="I30" s="1">
-        <v>7.8935840049634996E-17</v>
+        <v>7.7435907257250001E-17</v>
       </c>
       <c r="J30">
-        <v>5.5238746806067001</v>
+        <v>5.5238734543066004</v>
       </c>
       <c r="K30" s="1">
-        <v>-1.6264328694163E-17</v>
+        <v>-1.5430686210477999E-17</v>
       </c>
       <c r="L30">
-        <v>-12.018350509696999</v>
+        <v>-12.018350453846001</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2723502331558998E-6</v>
+        <v>-3.2723501005212561E-6</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>10.419501649370936</v>
+        <v>10.419501656870382</v>
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>-431.15406917715552</v>
+        <v>-431.15404916101295</v>
       </c>
       <c r="Q30">
         <f t="shared" si="3"/>
-        <v>0.47700621177665564</v>
+        <v>0.47700609667258392</v>
       </c>
       <c r="R30">
         <f t="shared" si="4"/>
-        <v>9.2564082608682998</v>
+        <v>9.2564088181675501</v>
       </c>
       <c r="S30">
         <f t="shared" si="5"/>
-        <v>4.7838186346654865</v>
+        <v>4.7838175726583314</v>
       </c>
     </row>
     <row r="31" spans="3:19">
@@ -3392,55 +3393,55 @@
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <v>2.4315136482045001E-7</v>
-      </c>
-      <c r="E31">
-        <v>6.2344032333930004</v>
-      </c>
-      <c r="F31">
-        <v>-12.098664256319999</v>
+        <v>1.3434637047282999E-7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.3434637047282999E-7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.3434637047282999E-7</v>
       </c>
       <c r="G31">
-        <v>5.8640762975816996</v>
+        <v>5.8640763141805001</v>
       </c>
       <c r="H31" s="1">
-        <v>-5.5710800104769997E-18</v>
+        <v>-5.5769402802871997E-18</v>
       </c>
       <c r="I31" s="1">
-        <v>3.6113089026287002E-17</v>
+        <v>3.5920729609257002E-17</v>
       </c>
       <c r="J31">
-        <v>6.2344032333930004</v>
+        <v>6.2344030594581996</v>
       </c>
       <c r="K31" s="1">
-        <v>4.3075560080296999E-17</v>
+        <v>4.3175281349472999E-17</v>
       </c>
       <c r="L31">
-        <v>-12.098664256319999</v>
+        <v>-12.098664098984001</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" ref="N31:N94" si="6">(G31+J31+L31)/3</f>
-        <v>-6.1575115099780461E-5</v>
+        <v>-6.1575115100372571E-5</v>
       </c>
       <c r="O31">
         <f t="shared" ref="O31:O94" si="7">SQRT(0.5*((G31-N31)^2+2*H31^2+2*I31^2+(J31-N31)^2+2*K31^2+(L31-N31)^2))</f>
-        <v>10.479333263051169</v>
+        <v>10.479333125132161</v>
       </c>
       <c r="P31">
         <f t="shared" ref="P31:P94" si="8">(G31-N31)*(J31-N31)*(L31-N31)</f>
-        <v>-442.3220248733013</v>
+        <v>-442.32200803284996</v>
       </c>
       <c r="Q31">
         <f t="shared" ref="Q31:Q94" si="9">ASIN(-1.5*SQRT(3)*P31/POWER(O31,3))/3</f>
-        <v>0.50592846208552755</v>
+        <v>0.50592847094528615</v>
       </c>
       <c r="R31">
         <f t="shared" ref="R31:R94" si="10">O31*COS(Q31)</f>
-        <v>9.1665337448565047</v>
+        <v>9.1665335792210971</v>
       </c>
       <c r="S31">
         <f t="shared" ref="S31:S94" si="11">O31*SIN(Q31)</f>
-        <v>5.0784923690498589</v>
+        <v>5.0784923834248525</v>
       </c>
     </row>
     <row r="32" spans="3:19">
@@ -3448,55 +3449,55 @@
         <v>27</v>
       </c>
       <c r="D32" s="1">
-        <v>3.2018851165993999E-6</v>
-      </c>
-      <c r="E32">
-        <v>6.7222761723754001</v>
-      </c>
-      <c r="F32">
-        <v>-11.866678672963999</v>
+        <v>3.4035942311216998E-6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.4035942311216998E-6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.4035942311216998E-6</v>
       </c>
       <c r="G32">
-        <v>5.1443469653058997</v>
+        <v>5.1443466432280998</v>
       </c>
       <c r="H32" s="1">
-        <v>-5.4362784299827004E-18</v>
+        <v>-5.4380875496478997E-18</v>
       </c>
       <c r="I32" s="1">
-        <v>1.1218281479271001E-17</v>
+        <v>1.1207581293710001E-17</v>
       </c>
       <c r="J32">
-        <v>-11.866678672963999</v>
+        <v>-11.866678770205001</v>
       </c>
       <c r="K32" s="1">
-        <v>-7.9281372116825005E-17</v>
+        <v>-7.9262217025676994E-17</v>
       </c>
       <c r="L32">
-        <v>6.7222761723754001</v>
+        <v>6.7222765916942002</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="6"/>
-        <v>-1.8511760899878975E-5</v>
+        <v>-1.8511760900175034E-5</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>10.307069548700268</v>
+        <v>10.307069661041833</v>
       </c>
       <c r="P32">
         <f t="shared" si="8"/>
-        <v>-410.37213799869807</v>
+        <v>-410.37214126686933</v>
       </c>
       <c r="Q32">
         <f t="shared" si="9"/>
-        <v>0.4469778602361531</v>
+        <v>0.44697782500164657</v>
       </c>
       <c r="R32">
         <f t="shared" si="10"/>
-        <v>9.2944774226697007</v>
+        <v>9.2944776809496013</v>
       </c>
       <c r="S32">
         <f t="shared" si="11"/>
-        <v>4.4551511894915024</v>
+        <v>4.455150910563944</v>
       </c>
     </row>
     <row r="33" spans="3:19">
@@ -3504,55 +3505,55 @@
         <v>28</v>
       </c>
       <c r="D33" s="1">
-        <v>8.6780665986551996E-8</v>
-      </c>
-      <c r="E33">
-        <v>9.9092610838984001</v>
-      </c>
-      <c r="F33">
-        <v>-5.4561457012421997</v>
+        <v>1.2573219776434999E-7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.2573219776434999E-7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.2573219776434999E-7</v>
       </c>
       <c r="G33">
-        <v>-5.4561457012421997</v>
+        <v>-5.4561457761941003</v>
       </c>
       <c r="H33" s="1">
-        <v>4.5975817739846003E-18</v>
+        <v>4.5974447900528001E-18</v>
       </c>
       <c r="I33" s="1">
-        <v>-3.5042973927681002E-17</v>
+        <v>-3.5045968299433998E-17</v>
       </c>
       <c r="J33">
-        <v>-4.4531318467094003</v>
+        <v>-4.4531318119343002</v>
       </c>
       <c r="K33" s="1">
-        <v>4.3942775779678002E-17</v>
+        <v>4.3949168609461003E-17</v>
       </c>
       <c r="L33">
-        <v>9.9092610838984001</v>
+        <v>9.9092611240753001</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="6"/>
-        <v>-5.4880177332942521E-6</v>
+        <v>-5.4880177001355906E-6</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>8.5963179439261701</v>
+        <v>8.5963179818618194</v>
       </c>
       <c r="P33">
         <f t="shared" si="8"/>
-        <v>240.76427862479125</v>
+        <v>240.76428102822322</v>
       </c>
       <c r="Q33">
         <f t="shared" si="9"/>
-        <v>-0.46522589443931034</v>
+        <v>-0.465225888304105</v>
       </c>
       <c r="R33">
         <f t="shared" si="10"/>
-        <v>7.6827033925702963</v>
+        <v>7.6827034501347002</v>
       </c>
       <c r="S33">
         <f t="shared" si="11"/>
-        <v>-3.8565205528890809</v>
+        <v>-3.8565205227729868</v>
       </c>
     </row>
     <row r="34" spans="3:19">
@@ -3560,55 +3561,55 @@
         <v>29</v>
       </c>
       <c r="D34" s="1">
-        <v>1.6276827415450999E-5</v>
-      </c>
-      <c r="E34">
-        <v>9.8760434826638992</v>
-      </c>
-      <c r="F34">
-        <v>-5.5925263443112998</v>
+        <v>1.9159043515016E-5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.9159043515016E-5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.9159043515016E-5</v>
       </c>
       <c r="G34">
-        <v>-5.5925263443112998</v>
+        <v>-5.5925228901216997</v>
       </c>
       <c r="H34" s="1">
-        <v>3.4696711740865003E-17</v>
+        <v>3.4625876675674002E-17</v>
       </c>
       <c r="I34" s="1">
-        <v>-2.1155344381845E-17</v>
+        <v>-2.1155375304207E-17</v>
       </c>
       <c r="J34">
-        <v>9.8760434826638992</v>
+        <v>9.8760487158989996</v>
       </c>
       <c r="K34" s="1">
-        <v>4.9042028194605003E-17</v>
+        <v>4.9043549771294999E-17</v>
       </c>
       <c r="L34">
-        <v>-4.2835786527990001</v>
+        <v>-4.2835873402238001</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="6"/>
-        <v>-2.0504815466892978E-5</v>
+        <v>-2.0504815500051638E-5</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>8.5779260855039414</v>
+        <v>8.577930141223165</v>
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
-        <v>236.58925026637394</v>
+        <v>236.58970932764873</v>
       </c>
       <c r="Q34">
         <f t="shared" si="9"/>
-        <v>-0.44722711071682947</v>
+        <v>-0.44722785668935078</v>
       </c>
       <c r="R34">
         <f t="shared" si="10"/>
-        <v>7.7342849134875991</v>
+        <v>7.7342858030103505</v>
       </c>
       <c r="S34">
         <f t="shared" si="11"/>
-        <v>-3.7096701747415626</v>
+        <v>-3.7096776982721025</v>
       </c>
     </row>
     <row r="35" spans="3:19">
@@ -3616,31 +3617,31 @@
         <v>30</v>
       </c>
       <c r="D35" s="1">
-        <v>4.9658084801107005E-4</v>
+        <v>1.9362034096981001E-4</v>
       </c>
       <c r="E35">
-        <v>9.9168675463820009</v>
+        <v>1.9362034096981001E-4</v>
       </c>
       <c r="F35">
-        <v>-5.4220986988066002</v>
+        <v>1.9362034096981001E-4</v>
       </c>
       <c r="G35">
-        <v>-4.4948785993816003</v>
+        <v>-4.4946884182728004</v>
       </c>
       <c r="H35" s="1">
-        <v>-6.9346253009618001E-18</v>
+        <v>-6.6824990990729997E-18</v>
       </c>
       <c r="I35" s="1">
-        <v>-6.8630013555441004E-18</v>
+        <v>-6.8608533632717003E-18</v>
       </c>
       <c r="J35">
-        <v>-5.4220986988066002</v>
+        <v>-5.4218962792002001</v>
       </c>
       <c r="K35" s="1">
-        <v>-4.1731130956443997E-17</v>
+        <v>-4.1824837875672997E-17</v>
       </c>
       <c r="L35">
-        <v>9.9168675463820009</v>
+        <v>9.9164749456668009</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="6"/>
@@ -3648,23 +3649,23 @@
       </c>
       <c r="O35">
         <f t="shared" si="7"/>
-        <v>8.6007950170681404</v>
+        <v>8.6004551793432089</v>
       </c>
       <c r="P35">
         <f t="shared" si="8"/>
-        <v>241.68797062666215</v>
+        <v>241.65915468690591</v>
       </c>
       <c r="Q35">
         <f t="shared" si="9"/>
-        <v>-0.46966947604595949</v>
+        <v>-0.46966805555824082</v>
       </c>
       <c r="R35">
         <f t="shared" si="10"/>
-        <v>7.6694831225942979</v>
+        <v>7.6691856124335036</v>
       </c>
       <c r="S35">
         <f t="shared" si="11"/>
-        <v>-3.8926473713740588</v>
+        <v>-3.8924826697025097</v>
       </c>
     </row>
     <row r="36" spans="3:19">
@@ -3672,55 +3673,55 @@
         <v>31</v>
       </c>
       <c r="D36" s="1">
-        <v>6.869834310308E-7</v>
-      </c>
-      <c r="E36">
-        <v>7.2123744029573</v>
-      </c>
-      <c r="F36">
-        <v>-11.135537822538</v>
+        <v>6.6851469648909999E-7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.6851469648909999E-7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6.6851469648909999E-7</v>
       </c>
       <c r="G36">
-        <v>7.2123744029573</v>
+        <v>7.2124718513622996</v>
       </c>
       <c r="H36" s="1">
-        <v>6.8061669545907995E-17</v>
+        <v>6.4193330639174998E-17</v>
       </c>
       <c r="I36" s="1">
-        <v>1.6996580069384E-17</v>
+        <v>1.6643768730812E-17</v>
       </c>
       <c r="J36">
-        <v>-11.135537822538</v>
+        <v>-11.135339644428999</v>
       </c>
       <c r="K36" s="1">
-        <v>1.6965492777231001E-16</v>
+        <v>1.6980071004081001E-16</v>
       </c>
       <c r="L36">
-        <v>3.9230826401656</v>
+        <v>3.9227870136515</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="6"/>
-        <v>-2.6926471699884047E-5</v>
+        <v>-2.6926471733190738E-5</v>
       </c>
       <c r="O36">
         <f t="shared" si="7"/>
-        <v>9.7828708599521441</v>
+        <v>9.7827347187732592</v>
       </c>
       <c r="P36">
         <f t="shared" si="8"/>
-        <v>-315.07973350625917</v>
+        <v>-315.0546403080769</v>
       </c>
       <c r="Q36">
         <f t="shared" si="9"/>
-        <v>0.3546817860520301</v>
+        <v>0.35465903236156882</v>
       </c>
       <c r="R36">
         <f t="shared" si="10"/>
-        <v>9.1739561127476499</v>
+        <v>9.1739057478956507</v>
       </c>
       <c r="S36">
         <f t="shared" si="11"/>
-        <v>3.3975125465376617</v>
+        <v>3.3972565264664474</v>
       </c>
     </row>
     <row r="37" spans="3:19">
@@ -3728,55 +3729,55 @@
         <v>32</v>
       </c>
       <c r="D37" s="1">
-        <v>3.2833504837181999E-6</v>
-      </c>
-      <c r="E37">
-        <v>6.1856613474611999</v>
-      </c>
-      <c r="F37">
-        <v>-12.105287716417999</v>
+        <v>2.4989723326207999E-6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.4989723326207999E-6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.4989723326207999E-6</v>
       </c>
       <c r="G37">
-        <v>5.9194936233986999</v>
+        <v>5.9194925803367999</v>
       </c>
       <c r="H37" s="1">
-        <v>-6.2207241129551996E-19</v>
+        <v>-7.2713941336494002E-19</v>
       </c>
       <c r="I37" s="1">
-        <v>4.1898461106242999E-17</v>
+        <v>4.1854814185753003E-17</v>
       </c>
       <c r="J37">
-        <v>6.1856613474611999</v>
+        <v>6.1856611119206004</v>
       </c>
       <c r="K37" s="1">
-        <v>9.2291850161238005E-18</v>
+        <v>9.2462592890970004E-18</v>
       </c>
       <c r="L37">
-        <v>-12.105287716417999</v>
+        <v>-12.105286437815</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="6"/>
-        <v>-4.424851936650024E-5</v>
+        <v>-4.4248519200114821E-5</v>
       </c>
       <c r="O37">
         <f t="shared" si="7"/>
-        <v>10.484293055669516</v>
+        <v>10.484291953581394</v>
       </c>
       <c r="P37">
         <f t="shared" si="8"/>
-        <v>-443.25187187282796</v>
+        <v>-443.25173007266937</v>
       </c>
       <c r="Q37">
         <f t="shared" si="9"/>
-        <v>0.51090479274999812</v>
+        <v>0.51090475290144732</v>
       </c>
       <c r="R37">
         <f t="shared" si="10"/>
-        <v>9.1454745319395787</v>
+        <v>9.1454737748677868</v>
       </c>
       <c r="S37">
         <f t="shared" si="11"/>
-        <v>5.1264701757451574</v>
+        <v>5.1264692724268928</v>
       </c>
     </row>
     <row r="38" spans="3:19">
@@ -3784,55 +3785,55 @@
         <v>33</v>
       </c>
       <c r="D38" s="1">
-        <v>2.3352099367546002E-6</v>
-      </c>
-      <c r="E38">
-        <v>6.8207351329639003</v>
-      </c>
-      <c r="F38">
-        <v>-11.769261373287</v>
+        <v>2.3352313671675999E-6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.3352313671675999E-6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.3352313671675999E-6</v>
       </c>
       <c r="G38">
-        <v>6.8207351329639003</v>
+        <v>6.8207350285719004</v>
       </c>
       <c r="H38" s="1">
-        <v>-9.8991604914840005E-18</v>
+        <v>-9.9336896280272002E-18</v>
       </c>
       <c r="I38" s="1">
-        <v>5.9924551276217005E-17</v>
+        <v>5.9919454998405005E-17</v>
       </c>
       <c r="J38">
-        <v>-11.769261373287</v>
+        <v>-11.76926148868</v>
       </c>
       <c r="K38" s="1">
-        <v>-2.6984930231252998E-16</v>
+        <v>-2.6984207021701E-16</v>
       </c>
       <c r="L38">
-        <v>4.9484482060973001</v>
+        <v>4.9484484258826003</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="6"/>
-        <v>-2.6011408599776093E-5</v>
+        <v>-2.6011408499707993E-5</v>
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
-        <v>10.235357362427344</v>
+        <v>10.235357447116934</v>
       </c>
       <c r="P38">
         <f t="shared" si="8"/>
-        <v>-397.23947670532095</v>
+        <v>-397.23949216362826</v>
       </c>
       <c r="Q38">
         <f t="shared" si="9"/>
-        <v>0.43200904925625688</v>
+        <v>0.43200906591902094</v>
       </c>
       <c r="R38">
         <f t="shared" si="10"/>
-        <v>9.2949982531254491</v>
+        <v>9.2949982586259523</v>
       </c>
       <c r="S38">
         <f t="shared" si="11"/>
-        <v>4.2855043823324293</v>
+        <v>4.2855045726719956</v>
       </c>
     </row>
     <row r="39" spans="3:19">
@@ -3840,55 +3841,55 @@
         <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>3.4859586584002001E-6</v>
-      </c>
-      <c r="E39">
-        <v>9.8540623536708996</v>
-      </c>
-      <c r="F39">
-        <v>-5.6671928332021997</v>
+        <v>2.7898088788003002E-6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.7898088788003002E-6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.7898088788003002E-6</v>
       </c>
       <c r="G39">
-        <v>-4.1869185227683001</v>
+        <v>-4.1869164479531999</v>
       </c>
       <c r="H39" s="1">
-        <v>-7.1443451264876995E-18</v>
+        <v>-7.1464082014642005E-18</v>
       </c>
       <c r="I39" s="1">
-        <v>-5.5492877044117002E-17</v>
+        <v>-5.5493877543132E-17</v>
       </c>
       <c r="J39">
-        <v>-5.6671928332021997</v>
+        <v>-5.6671936133526</v>
       </c>
       <c r="K39" s="1">
-        <v>-1.1509197639493E-17</v>
+        <v>-1.1508105679027E-17</v>
       </c>
       <c r="L39">
-        <v>9.8540623536708996</v>
+        <v>9.8540610590063</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="6"/>
-        <v>-1.6334099866455176E-5</v>
+        <v>-1.6334099833296516E-5</v>
       </c>
       <c r="O39">
         <f t="shared" si="7"/>
-        <v>8.5659181117447165</v>
+        <v>8.5659171180670857</v>
       </c>
       <c r="P39">
         <f t="shared" si="8"/>
-        <v>233.8167285748531</v>
+        <v>233.81661417501462</v>
       </c>
       <c r="Q39">
         <f t="shared" si="9"/>
-        <v>-0.43708601578040879</v>
+        <v>-0.43708583844710974</v>
       </c>
       <c r="R39">
         <f t="shared" si="10"/>
-        <v>7.7606275934365501</v>
+        <v>7.7606273361794482</v>
       </c>
       <c r="S39">
         <f t="shared" si="11"/>
-        <v>-3.6259636585475286</v>
+        <v>-3.625961861704976</v>
       </c>
     </row>
     <row r="40" spans="3:19">
@@ -3896,55 +3897,55 @@
         <v>35</v>
       </c>
       <c r="D40" s="1">
-        <v>1.33774191724E-7</v>
-      </c>
-      <c r="E40">
-        <v>9.9162238059304997</v>
-      </c>
-      <c r="F40">
-        <v>-5.4218090981457001</v>
+        <v>3.2960426610273E-8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3.2960426610273E-8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3.2960426610273E-8</v>
       </c>
       <c r="G40">
-        <v>-5.4218090981457001</v>
+        <v>-5.4218086485138999</v>
       </c>
       <c r="H40" s="1">
-        <v>2.4032747559346E-17</v>
+        <v>2.4029752144274001E-17</v>
       </c>
       <c r="I40" s="1">
-        <v>-1.088802255101E-17</v>
+        <v>-1.0887899029177E-17</v>
       </c>
       <c r="J40">
-        <v>9.9162238059304997</v>
+        <v>9.9162237496991992</v>
       </c>
       <c r="K40" s="1">
-        <v>8.4418162305141E-17</v>
+        <v>8.4418446416225006E-17</v>
       </c>
       <c r="L40">
-        <v>-4.494450882612</v>
+        <v>-4.4944512760122999</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="6"/>
-        <v>-1.2058275733473067E-5</v>
+        <v>-1.2058275666859686E-5</v>
       </c>
       <c r="O40">
         <f t="shared" si="7"/>
-        <v>8.6002208460542988</v>
+        <v>8.6002207747013966</v>
       </c>
       <c r="P40">
         <f t="shared" si="8"/>
-        <v>241.63819211075563</v>
+        <v>241.63819185206833</v>
       </c>
       <c r="Q40">
         <f t="shared" si="9"/>
-        <v>-0.46965783060951444</v>
+        <v>-0.46965787924517749</v>
       </c>
       <c r="R40">
         <f t="shared" si="10"/>
-        <v>7.6690164520381012</v>
+        <v>7.6690161991065517</v>
       </c>
       <c r="S40">
         <f t="shared" si="11"/>
-        <v>-3.8922981976302702</v>
+        <v>-3.8922985383249813</v>
       </c>
     </row>
     <row r="41" spans="3:19">
@@ -3952,55 +3953,55 @@
         <v>36</v>
       </c>
       <c r="D41" s="1">
-        <v>2.8237379612594998E-4</v>
+        <v>3.5807545079636E-4</v>
       </c>
       <c r="E41">
-        <v>9.8932184717873994</v>
+        <v>3.5807545079636E-4</v>
       </c>
       <c r="F41">
-        <v>-5.5282095593892002</v>
+        <v>3.5807545079636E-4</v>
       </c>
       <c r="G41">
-        <v>-5.5282095593892002</v>
+        <v>-5.5281719927260999</v>
       </c>
       <c r="H41" s="1">
-        <v>6.3006844571188999E-18</v>
+        <v>6.3951595350756003E-18</v>
       </c>
       <c r="I41" s="1">
-        <v>-1.3231132930837E-16</v>
+        <v>-1.3230904452761E-16</v>
       </c>
       <c r="J41">
-        <v>-4.3650727292611</v>
+        <v>-4.3652301986101998</v>
       </c>
       <c r="K41" s="1">
-        <v>1.9461585889731E-17</v>
+        <v>1.9463176150591999E-17</v>
       </c>
       <c r="L41">
-        <v>9.8932184717873994</v>
+        <v>9.8933383744733998</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="6"/>
-        <v>-2.1272287633896287E-5</v>
+        <v>-2.127228763330417E-5</v>
       </c>
       <c r="O41">
         <f t="shared" si="7"/>
-        <v>8.5875122297851476</v>
+        <v>8.5876092266267605</v>
       </c>
       <c r="P41">
         <f t="shared" si="8"/>
-        <v>238.73205017494055</v>
+        <v>238.74193351959312</v>
       </c>
       <c r="Q41">
         <f t="shared" si="9"/>
-        <v>-0.45582432995945199</v>
+        <v>-0.45583647843400077</v>
       </c>
       <c r="R41">
         <f t="shared" si="10"/>
-        <v>7.7107140155882989</v>
+        <v>7.7107551835997494</v>
       </c>
       <c r="S41">
         <f t="shared" si="11"/>
-        <v>-3.7802454505653</v>
+        <v>-3.780381823021937</v>
       </c>
     </row>
     <row r="42" spans="3:19">
@@ -4008,55 +4009,55 @@
         <v>37</v>
       </c>
       <c r="D42" s="1">
-        <v>3.3283393152672002E-8</v>
-      </c>
-      <c r="E42">
-        <v>6.9363112934639997</v>
-      </c>
-      <c r="F42">
-        <v>-11.624305311354</v>
+        <v>3.3345485705992999E-8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.3345485705992999E-8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.3345485705992999E-8</v>
       </c>
       <c r="G42">
-        <v>4.6878324131435001</v>
+        <v>4.6878350108511002</v>
       </c>
       <c r="H42" s="1">
-        <v>2.7315068126201001E-18</v>
+        <v>2.7562222359004001E-18</v>
       </c>
       <c r="I42" s="1">
-        <v>2.0544818413681E-17</v>
+        <v>2.0544877562167999E-17</v>
       </c>
       <c r="J42">
-        <v>-11.624305311354</v>
+        <v>-11.624306831385001</v>
       </c>
       <c r="K42" s="1">
-        <v>-2.5110294616736001E-16</v>
+        <v>-2.5110195480707999E-16</v>
       </c>
       <c r="L42">
-        <v>6.9363112934639997</v>
+        <v>6.9363102157872998</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="6"/>
-        <v>-5.3868248833429298E-5</v>
+        <v>-5.3868248866884016E-5</v>
       </c>
       <c r="O42">
         <f t="shared" si="7"/>
-        <v>10.129478294967182</v>
+        <v>10.129479399260241</v>
       </c>
       <c r="P42">
         <f t="shared" si="8"/>
-        <v>-377.98451811221543</v>
+        <v>-377.98471826617089</v>
       </c>
       <c r="Q42">
         <f t="shared" si="9"/>
-        <v>0.41238274087585652</v>
+        <v>0.412382935598617</v>
       </c>
       <c r="R42">
         <f t="shared" si="10"/>
-        <v>9.2803083024090007</v>
+        <v>9.2803085235861502</v>
       </c>
       <c r="S42">
         <f t="shared" si="11"/>
-        <v>4.0598286097383252</v>
+        <v>4.0598308594191268</v>
       </c>
     </row>
     <row r="43" spans="3:19">
@@ -4064,55 +4065,55 @@
         <v>38</v>
       </c>
       <c r="D43" s="1">
-        <v>4.0580056515083002E-7</v>
-      </c>
-      <c r="E43">
-        <v>6.1743130565808997</v>
-      </c>
-      <c r="F43">
-        <v>-12.106460110664001</v>
+        <v>3.7650411899293E-7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.7650411899293E-7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.7650411899293E-7</v>
       </c>
       <c r="G43">
-        <v>5.9321008598575</v>
+        <v>5.9321008643162001</v>
       </c>
       <c r="H43" s="1">
-        <v>-2.3179886591943002E-18</v>
+        <v>-2.3176660955402E-18</v>
       </c>
       <c r="I43" s="1">
-        <v>2.0430320082026001E-17</v>
+        <v>2.0430327383805001E-17</v>
       </c>
       <c r="J43">
-        <v>6.1743130565808997</v>
+        <v>6.1743130085322004</v>
       </c>
       <c r="K43" s="1">
-        <v>1.2111364190205001E-16</v>
+        <v>1.2111376813327E-16</v>
       </c>
       <c r="L43">
-        <v>-12.106460110664001</v>
+        <v>-12.106460067074</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="6"/>
-        <v>-1.5398075200678818E-5</v>
+        <v>-1.5398075200086698E-5</v>
       </c>
       <c r="O43">
         <f t="shared" si="7"/>
-        <v>10.485188094225462</v>
+        <v>10.485188056174698</v>
       </c>
       <c r="P43">
         <f t="shared" si="8"/>
-        <v>-443.42074333245762</v>
+        <v>-443.42073861847223</v>
       </c>
       <c r="Q43">
         <f t="shared" si="9"/>
-        <v>0.51204831125045269</v>
+        <v>0.51204831371258019</v>
       </c>
       <c r="R43">
         <f t="shared" si="10"/>
-        <v>9.1403865836224369</v>
+        <v>9.1403865378031153</v>
       </c>
       <c r="S43">
         <f t="shared" si="11"/>
-        <v>5.1373633775724237</v>
+        <v>5.1373633814337207</v>
       </c>
     </row>
     <row r="44" spans="3:19">
@@ -4120,55 +4121,55 @@
         <v>39</v>
       </c>
       <c r="D44" s="1">
-        <v>7.3796527186642996E-5</v>
-      </c>
-      <c r="E44">
-        <v>7.1841419968768996</v>
-      </c>
-      <c r="F44">
-        <v>-11.192883013266</v>
+        <v>7.3796597521269994E-5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.3796597521269994E-5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7.3796597521269994E-5</v>
       </c>
       <c r="G44">
-        <v>7.1841419968768996</v>
+        <v>7.1841420028565999</v>
       </c>
       <c r="H44" s="1">
-        <v>1.5318167949587E-19</v>
+        <v>8.9870812762738999E-19</v>
       </c>
       <c r="I44" s="1">
-        <v>1.4804334802515E-16</v>
+        <v>1.4804335004398999E-16</v>
       </c>
       <c r="J44">
-        <v>4.0086058193982002</v>
+        <v>4.0086058016389998</v>
       </c>
       <c r="K44" s="1">
-        <v>-4.1178465382489998E-17</v>
+        <v>-4.1178418356401998E-17</v>
       </c>
       <c r="L44">
-        <v>-11.192883013266</v>
+        <v>-11.192883001487001</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="6"/>
-        <v>-4.5065663633418275E-5</v>
+        <v>-4.5065663800395818E-5</v>
       </c>
       <c r="O44">
         <f t="shared" si="7"/>
-        <v>9.822460154899316</v>
+        <v>9.822460146751073</v>
       </c>
       <c r="P44">
         <f t="shared" si="8"/>
-        <v>-322.34139644384339</v>
+        <v>-322.34139494489267</v>
       </c>
       <c r="Q44">
         <f t="shared" si="9"/>
-        <v>0.36123972368372459</v>
+        <v>0.36123972232334051</v>
       </c>
       <c r="R44">
         <f t="shared" si="10"/>
-        <v>9.1885125050714507</v>
+        <v>9.1885125021718004</v>
       </c>
       <c r="S44">
         <f t="shared" si="11"/>
-        <v>3.4715935013665216</v>
+        <v>3.4715934859867477</v>
       </c>
     </row>
     <row r="45" spans="3:19">
@@ -4176,31 +4177,31 @@
         <v>40</v>
       </c>
       <c r="D45" s="1">
-        <v>1.3887529082268001E-7</v>
-      </c>
-      <c r="E45">
-        <v>9.0173058153448995</v>
-      </c>
-      <c r="F45">
-        <v>-7.4542380428717996</v>
+        <v>1.3887529015655E-7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.3887529015655E-7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.3887529015655E-7</v>
       </c>
       <c r="G45">
-        <v>-1.5631320871181</v>
+        <v>-1.5631320811385001</v>
       </c>
       <c r="H45" s="1">
-        <v>-7.5087173493365004E-17</v>
+        <v>-2.4185808052627001E-16</v>
       </c>
       <c r="I45" s="1">
-        <v>2.3087250703554E-17</v>
+        <v>2.1257656085199E-17</v>
       </c>
       <c r="J45">
-        <v>-7.4542380428717996</v>
+        <v>-7.4542380468841998</v>
       </c>
       <c r="K45" s="1">
-        <v>-1.2765686561266999E-16</v>
+        <v>2.6720317811154999E-17</v>
       </c>
       <c r="L45">
-        <v>9.0173058153448995</v>
+        <v>9.0173058133776998</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="6"/>
@@ -4208,23 +4209,23 @@
       </c>
       <c r="O45">
         <f t="shared" si="7"/>
-        <v>8.3462821330113677</v>
+        <v>8.346282133180523</v>
       </c>
       <c r="P45">
         <f t="shared" si="8"/>
-        <v>105.06778127843288</v>
+        <v>105.0677809101352</v>
       </c>
       <c r="Q45">
         <f t="shared" si="9"/>
-        <v>-0.16291085385107462</v>
+        <v>-0.16291085321896373</v>
       </c>
       <c r="R45">
         <f t="shared" si="10"/>
-        <v>8.2357719291083509</v>
+        <v>8.2357719301309498</v>
       </c>
       <c r="S45">
         <f t="shared" si="11"/>
-        <v>-1.3536935308760627</v>
+        <v>-1.3536935256975773</v>
       </c>
     </row>
     <row r="46" spans="3:19">
@@ -4232,55 +4233,55 @@
         <v>41</v>
       </c>
       <c r="D46" s="1">
-        <v>2.3098523632692001E-5</v>
-      </c>
-      <c r="E46">
-        <v>9.7947494172224996</v>
-      </c>
-      <c r="F46">
-        <v>-5.8366060551260999</v>
+        <v>2.3098521156895001E-5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.3098521156895001E-5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.3098521156895001E-5</v>
       </c>
       <c r="G46">
-        <v>-5.8366060551260999</v>
+        <v>-5.8366060549754</v>
       </c>
       <c r="H46" s="1">
-        <v>2.5522547481998E-17</v>
+        <v>-6.0422983117446002E-18</v>
       </c>
       <c r="I46" s="1">
-        <v>-2.5383761598222E-17</v>
+        <v>-2.5493730091222999E-17</v>
       </c>
       <c r="J46">
-        <v>9.7947494172224996</v>
+        <v>9.794749417277</v>
       </c>
       <c r="K46" s="1">
-        <v>9.4586172576108004E-17</v>
+        <v>1.3545620282984001E-16</v>
       </c>
       <c r="L46">
-        <v>-3.9581493772120999</v>
+        <v>-3.9581493774171999</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="6"/>
-        <v>-2.0050385667325088E-6</v>
+        <v>-2.0050385332777885E-6</v>
       </c>
       <c r="O46">
         <f t="shared" si="7"/>
-        <v>8.5343433514602527</v>
+        <v>8.5343433514875571</v>
       </c>
       <c r="P46">
         <f t="shared" si="8"/>
-        <v>226.27970866367011</v>
+        <v>226.27970867081424</v>
       </c>
       <c r="Q46">
         <f t="shared" si="9"/>
-        <v>-0.41332260815900734</v>
+        <v>-0.41332260818033406</v>
       </c>
       <c r="R46">
         <f t="shared" si="10"/>
-        <v>7.8156777361743002</v>
+        <v>7.8156777361262</v>
       </c>
       <c r="S46">
         <f t="shared" si="11"/>
-        <v>-3.4278561762248985</v>
+        <v>-3.4278561764025484</v>
       </c>
     </row>
     <row r="47" spans="3:19">
@@ -4288,55 +4289,55 @@
         <v>42</v>
       </c>
       <c r="D47" s="1">
-        <v>3.9891834080485001E-7</v>
-      </c>
-      <c r="E47">
-        <v>6.7431118686072002</v>
-      </c>
-      <c r="F47">
-        <v>-11.847878564475</v>
+        <v>3.9891834036077001E-7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.9891834036077001E-7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3.9891834036077001E-7</v>
       </c>
       <c r="G47">
-        <v>-11.847878564475</v>
+        <v>-11.847878564463</v>
       </c>
       <c r="H47" s="1">
-        <v>4.0955107509725999E-17</v>
+        <v>3.1602828784233002E-17</v>
       </c>
       <c r="I47" s="1">
-        <v>-1.6663145597918E-16</v>
+        <v>-1.6667223889765999E-16</v>
       </c>
       <c r="J47">
-        <v>6.7431118686072002</v>
+        <v>6.7431118686197999</v>
       </c>
       <c r="K47" s="1">
-        <v>3.4856078504011998E-17</v>
+        <v>3.8787165311776999E-17</v>
       </c>
       <c r="L47">
-        <v>5.1047101215193003</v>
+        <v>5.1047101214949997</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="6"/>
-        <v>-1.8858116166420302E-5</v>
+        <v>-1.8858116066944319E-5</v>
       </c>
       <c r="O47">
         <f t="shared" si="7"/>
-        <v>10.293197986407629</v>
+        <v>10.293197986398827</v>
       </c>
       <c r="P47">
         <f t="shared" si="8"/>
-        <v>-407.82530690795659</v>
+        <v>-407.82530690635366</v>
       </c>
       <c r="Q47">
         <f t="shared" si="9"/>
-        <v>0.44392789428684759</v>
+        <v>0.44392789428498031</v>
       </c>
       <c r="R47">
         <f t="shared" si="10"/>
-        <v>9.2954952165410969</v>
+        <v>9.2954952165414042</v>
       </c>
       <c r="S47">
         <f t="shared" si="11"/>
-        <v>4.4208249757989337</v>
+        <v>4.420824975777796</v>
       </c>
     </row>
     <row r="48" spans="3:19">
@@ -4344,55 +4345,55 @@
         <v>43</v>
       </c>
       <c r="D48" s="1">
-        <v>1.1760987514986001E-6</v>
-      </c>
-      <c r="E48">
-        <v>9.7816144941120999</v>
-      </c>
-      <c r="F48">
-        <v>-5.8698411783306002</v>
+        <v>4.9444604774961999E-6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.9444604774961999E-6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.9444604774961999E-6</v>
       </c>
       <c r="G48">
-        <v>-3.9119584653074999</v>
+        <v>-3.9119962153772998</v>
       </c>
       <c r="H48" s="1">
-        <v>2.1992922717216E-18</v>
+        <v>1.8271815518542E-18</v>
       </c>
       <c r="I48" s="1">
-        <v>-2.1417782301348E-19</v>
+        <v>-2.2160019688284001E-19</v>
       </c>
       <c r="J48">
-        <v>-5.8698411783306002</v>
+        <v>-5.8698184705551997</v>
       </c>
       <c r="K48" s="1">
-        <v>4.8701045123211998E-17</v>
+        <v>4.9182766589269002E-17</v>
       </c>
       <c r="L48">
-        <v>9.7816144941120999</v>
+        <v>9.7816295364065997</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="6"/>
-        <v>-6.1716508666857336E-5</v>
+        <v>-6.1716508633106556E-5</v>
       </c>
       <c r="O48">
         <f t="shared" si="7"/>
-        <v>8.5275564082893549</v>
+        <v>8.5275658790323181</v>
       </c>
       <c r="P48">
         <f t="shared" si="8"/>
-        <v>224.60656736623022</v>
+        <v>224.60821131831315</v>
       </c>
       <c r="Q48">
         <f t="shared" si="9"/>
-        <v>-0.40854772045723164</v>
+        <v>-0.40855141723826205</v>
       </c>
       <c r="R48">
         <f t="shared" si="10"/>
-        <v>7.8257278362213496</v>
+        <v>7.8257240034808966</v>
       </c>
       <c r="S48">
         <f t="shared" si="11"/>
-        <v>-3.387801961441542</v>
+        <v>-3.3878346539610158</v>
       </c>
     </row>
     <row r="49" spans="3:19">
@@ -4400,55 +4401,55 @@
         <v>44</v>
       </c>
       <c r="D49" s="1">
-        <v>1.4709537697444E-5</v>
-      </c>
-      <c r="E49">
-        <v>6.1119355187814</v>
-      </c>
-      <c r="F49">
-        <v>-12.111068042485</v>
+        <v>1.6478148264775999E-5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.6478148264775999E-5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.6478148264775999E-5</v>
       </c>
       <c r="G49">
-        <v>5.9991322143195998</v>
+        <v>5.9991341224342998</v>
       </c>
       <c r="H49" s="1">
-        <v>-6.5608005860864003E-18</v>
+        <v>-6.5747352242148998E-18</v>
       </c>
       <c r="I49" s="1">
-        <v>5.5860290651013003E-17</v>
+        <v>5.5858885775670005E-17</v>
       </c>
       <c r="J49">
-        <v>6.1119355187814</v>
+        <v>6.1119364179581002</v>
       </c>
       <c r="K49" s="1">
-        <v>-1.1596420171549001E-16</v>
+        <v>-1.1587184677298001E-16</v>
       </c>
       <c r="L49">
-        <v>-12.111068042485</v>
+        <v>-12.111070849777001</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="6"/>
-        <v>-1.0312800036160752E-7</v>
+        <v>-1.0312819990569248E-7</v>
       </c>
       <c r="O49">
         <f t="shared" si="7"/>
-        <v>10.488644150707236</v>
+        <v>10.488646579145382</v>
       </c>
       <c r="P49">
         <f t="shared" si="8"/>
-        <v>-444.06817769101292</v>
+        <v>-444.06848719723058</v>
       </c>
       <c r="Q49">
         <f t="shared" si="9"/>
-        <v>0.51822134804459685</v>
+        <v>0.51822139738700368</v>
       </c>
       <c r="R49">
         <f t="shared" si="10"/>
-        <v>9.1115017806331871</v>
+        <v>9.1115036338675885</v>
       </c>
       <c r="S49">
         <f t="shared" si="11"/>
-        <v>5.1954009875738549</v>
+        <v>5.1954026400497426</v>
       </c>
     </row>
     <row r="50" spans="3:19">
@@ -4456,55 +4457,55 @@
         <v>45</v>
       </c>
       <c r="D50" s="1">
-        <v>3.306376907819E-6</v>
-      </c>
-      <c r="E50">
-        <v>6.0759110474079003</v>
-      </c>
-      <c r="F50">
-        <v>-12.112262174415999</v>
+        <v>3.306201994846E-6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.306201994846E-6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.306201994846E-6</v>
       </c>
       <c r="G50">
-        <v>6.0361682685586997</v>
+        <v>6.0361682873106002</v>
       </c>
       <c r="H50" s="1">
-        <v>-1.0274507526878E-18</v>
+        <v>-1.0279413689226999E-18</v>
       </c>
       <c r="I50" s="1">
-        <v>3.0488471729290003E-17</v>
+        <v>3.0488256497872999E-17</v>
       </c>
       <c r="J50">
-        <v>6.0759110474079003</v>
+        <v>6.0759110286795996</v>
       </c>
       <c r="K50" s="1">
-        <v>1.8744294206350999E-17</v>
+        <v>1.8758263845797999E-17</v>
       </c>
       <c r="L50">
-        <v>-12.112262174415999</v>
+        <v>-12.11226217444</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="6"/>
-        <v>-6.0952816466416003E-5</v>
+        <v>-6.0952816599642766E-5</v>
       </c>
       <c r="O50">
         <f t="shared" si="7"/>
-        <v>10.489492775940388</v>
+        <v>10.489492775925555</v>
       </c>
       <c r="P50">
         <f t="shared" si="8"/>
-        <v>-444.22660431785539</v>
+        <v>-444.22660432950238</v>
       </c>
       <c r="Q50">
         <f t="shared" si="9"/>
-        <v>0.52170436547428012</v>
+        <v>0.52170436726085734</v>
       </c>
       <c r="R50">
         <f t="shared" si="10"/>
-        <v>9.0940866109120755</v>
+        <v>9.0940866015598338</v>
       </c>
       <c r="S50">
         <f t="shared" si="11"/>
-        <v>5.2275278487766377</v>
+        <v>5.2275278650165342</v>
       </c>
     </row>
     <row r="51" spans="3:19">
@@ -4512,55 +4513,55 @@
         <v>46</v>
       </c>
       <c r="D51" s="1">
-        <v>7.8449727670016007E-5</v>
-      </c>
-      <c r="E51">
-        <v>6.9740928249795999</v>
-      </c>
-      <c r="F51">
-        <v>-11.569223122971</v>
+        <v>7.8449744034259002E-5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7.8449744034259002E-5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7.8449744034259002E-5</v>
       </c>
       <c r="G51">
-        <v>4.5950727156499003</v>
+        <v>4.5950727175323998</v>
       </c>
       <c r="H51" s="1">
-        <v>3.6382789453348E-18</v>
+        <v>3.6382085270167998E-18</v>
       </c>
       <c r="I51" s="1">
-        <v>2.5018008862106E-18</v>
+        <v>2.5017894313661E-18</v>
       </c>
       <c r="J51">
-        <v>-11.569223122971</v>
+        <v>-11.569223124123999</v>
       </c>
       <c r="K51" s="1">
-        <v>-5.2110947269478E-17</v>
+        <v>-5.2108667878374E-17</v>
       </c>
       <c r="L51">
-        <v>6.9740928249795999</v>
+        <v>6.9740928242502997</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="6"/>
-        <v>-1.9194113833146769E-5</v>
+        <v>-1.9194113766533388E-5</v>
       </c>
       <c r="O51">
         <f t="shared" si="7"/>
-        <v>10.089588387578646</v>
+        <v>10.089588388416306</v>
       </c>
       <c r="P51">
         <f t="shared" si="8"/>
-        <v>-370.75464230075397</v>
+        <v>-370.75464245081554</v>
       </c>
       <c r="Q51">
         <f t="shared" si="9"/>
-        <v>0.40542914127701635</v>
+        <v>0.40542914141721242</v>
       </c>
       <c r="R51">
         <f t="shared" si="10"/>
-        <v>9.2716579739752998</v>
+        <v>9.2716579741871481</v>
       </c>
       <c r="S51">
         <f t="shared" si="11"/>
-        <v>3.9794663265797459</v>
+        <v>3.9794663282099805</v>
       </c>
     </row>
     <row r="52" spans="3:19">
@@ -4568,55 +4569,55 @@
         <v>47</v>
       </c>
       <c r="D52" s="1">
-        <v>1.9842339549213999E-7</v>
-      </c>
-      <c r="E52">
-        <v>6.5150512450792997</v>
-      </c>
-      <c r="F52">
-        <v>-12.008214471037</v>
+        <v>1.9842339060716001E-7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.9842339060716001E-7</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.9842339060716001E-7</v>
       </c>
       <c r="G52">
-        <v>-12.008214471037</v>
+        <v>-12.008214471000001</v>
       </c>
       <c r="H52" s="1">
-        <v>-2.7300265266013002E-18</v>
+        <v>-2.7300604469852999E-18</v>
       </c>
       <c r="I52" s="1">
-        <v>-3.9653119549689001E-17</v>
+        <v>-3.9653124456079E-17</v>
       </c>
       <c r="J52">
-        <v>5.4931594504205998</v>
+        <v>5.4931594503132999</v>
       </c>
       <c r="K52" s="1">
-        <v>-7.0694761567281993E-18</v>
+        <v>-7.0691402719944E-18</v>
       </c>
       <c r="L52">
-        <v>6.5150512450792997</v>
+        <v>6.5150512451504996</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="6"/>
-        <v>-1.2585123669121383E-6</v>
+        <v>-1.2585120670038918E-6</v>
       </c>
       <c r="O52">
         <f t="shared" si="7"/>
-        <v>10.411962069086021</v>
+        <v>10.411962069058658</v>
       </c>
       <c r="P52">
         <f t="shared" si="8"/>
-        <v>-429.75270149477819</v>
+        <v>-429.75270148972351</v>
       </c>
       <c r="Q52">
         <f t="shared" si="9"/>
-        <v>0.47450608880000139</v>
+        <v>0.47450608879128858</v>
       </c>
       <c r="R52">
         <f t="shared" si="10"/>
-        <v>9.261632858058146</v>
+        <v>9.261632858075254</v>
       </c>
       <c r="S52">
         <f t="shared" si="11"/>
-        <v>4.7572167210064933</v>
+        <v>4.7572167209132967</v>
       </c>
     </row>
     <row r="53" spans="3:19">
@@ -4624,55 +4625,55 @@
         <v>48</v>
       </c>
       <c r="D53" s="1">
-        <v>1.1389870602229999E-7</v>
-      </c>
-      <c r="E53">
-        <v>9.7708491957553001</v>
-      </c>
-      <c r="F53">
-        <v>-5.8963621992690998</v>
+        <v>6.8900659222714998E-5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6.8900659222714998E-5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6.8900659222714998E-5</v>
       </c>
       <c r="G53">
-        <v>-5.8963621992690998</v>
+        <v>-5.8959321278210002</v>
       </c>
       <c r="H53" s="1">
-        <v>3.5397597011998998E-18</v>
+        <v>3.5189357564799998E-18</v>
       </c>
       <c r="I53" s="1">
-        <v>-1.4496914730945001E-17</v>
+        <v>-1.4500513756041E-17</v>
       </c>
       <c r="J53">
-        <v>9.7708491957553001</v>
+        <v>9.7711349597480996</v>
       </c>
       <c r="K53" s="1">
-        <v>1.7361675440714999E-16</v>
+        <v>1.7362912481083999E-16</v>
       </c>
       <c r="L53">
-        <v>-3.8745513317014</v>
+        <v>-3.8752671671423</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="6"/>
-        <v>-2.1445071733220782E-5</v>
+        <v>-2.1445071733516841E-5</v>
       </c>
       <c r="O53">
         <f t="shared" si="7"/>
-        <v>8.521992994944636</v>
+        <v>8.5221707819321129</v>
       </c>
       <c r="P53">
         <f t="shared" si="8"/>
-        <v>223.22089885712464</v>
+        <v>223.25238455663433</v>
       </c>
       <c r="Q53">
         <f t="shared" si="9"/>
-        <v>-0.40469567505412618</v>
+        <v>-0.40476587603397357</v>
       </c>
       <c r="R53">
         <f t="shared" si="10"/>
-        <v>7.8336056975121968</v>
+        <v>7.833533543784549</v>
       </c>
       <c r="S53">
         <f t="shared" si="11"/>
-        <v>-3.3554413095433357</v>
+        <v>-3.3560612412200816</v>
       </c>
     </row>
     <row r="54" spans="3:19">
@@ -4680,55 +4681,55 @@
         <v>49</v>
       </c>
       <c r="D54" s="1">
-        <v>3.2443718667173998E-7</v>
-      </c>
-      <c r="E54">
-        <v>9.8558155890891008</v>
-      </c>
-      <c r="F54">
-        <v>-5.6615123931821998</v>
+        <v>2.8380961212937E-5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.8380961212937E-5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.8380961212937E-5</v>
       </c>
       <c r="G54">
-        <v>-4.1944461961817003</v>
+        <v>-4.1945349491932999</v>
       </c>
       <c r="H54" s="1">
-        <v>5.7060117478012E-18</v>
+        <v>5.7343047627887002E-18</v>
       </c>
       <c r="I54" s="1">
-        <v>-4.9567162124765001E-17</v>
+        <v>-4.9568803043420002E-17</v>
       </c>
       <c r="J54">
-        <v>-5.6615123931821998</v>
+        <v>-5.6614769229390998</v>
       </c>
       <c r="K54" s="1">
-        <v>-5.8857659302336998E-17</v>
+        <v>-5.8855276740437003E-17</v>
       </c>
       <c r="L54">
-        <v>9.8558155890891008</v>
+        <v>9.8558688718576004</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="6"/>
-        <v>-4.7666758266728948E-5</v>
+        <v>-4.7666758266136831E-5</v>
       </c>
       <c r="O54">
         <f t="shared" si="7"/>
-        <v>8.5668898204113191</v>
+        <v>8.5669304771724182</v>
       </c>
       <c r="P54">
         <f t="shared" si="8"/>
-        <v>234.04165877973173</v>
+        <v>234.04641002012195</v>
       </c>
       <c r="Q54">
         <f t="shared" si="9"/>
-        <v>-0.43786960191189134</v>
+        <v>-0.43787728664632303</v>
       </c>
       <c r="R54">
         <f t="shared" si="10"/>
-        <v>7.7586639911356512</v>
+        <v>7.7586728973983492</v>
       </c>
       <c r="S54">
         <f t="shared" si="11"/>
-        <v>-3.6324556800767844</v>
+        <v>-3.6325325424394941</v>
       </c>
     </row>
     <row r="55" spans="3:19">
@@ -4736,55 +4737,55 @@
         <v>50</v>
       </c>
       <c r="D55" s="1">
-        <v>1.1256754639533E-8</v>
-      </c>
-      <c r="E55">
-        <v>9.4837326786077991</v>
-      </c>
-      <c r="F55">
-        <v>-6.5029092439792002</v>
+        <v>1.1256566123663E-8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.1256566123663E-8</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.1256566123663E-8</v>
       </c>
       <c r="G55">
-        <v>9.4837326786077991</v>
+        <v>9.4837210092548005</v>
       </c>
       <c r="H55" s="1">
-        <v>2.0441185960328E-17</v>
+        <v>1.3728571116719001E-16</v>
       </c>
       <c r="I55" s="1">
-        <v>1.867497937636E-16</v>
+        <v>1.8683505634076E-16</v>
       </c>
       <c r="J55">
-        <v>-2.9808602642299</v>
+        <v>-2.9808247939867001</v>
       </c>
       <c r="K55" s="1">
-        <v>-1.0818834343393E-16</v>
+        <v>-1.1380964065817999E-16</v>
       </c>
       <c r="L55">
-        <v>-6.5029092439792002</v>
+        <v>-6.5029330448694003</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="6"/>
-        <v>-1.2276533767045331E-5</v>
+        <v>-1.2276533766749273E-5</v>
       </c>
       <c r="O55">
         <f t="shared" si="7"/>
-        <v>8.3998375600107948</v>
+        <v>8.3998338917930102</v>
       </c>
       <c r="P55">
         <f t="shared" si="8"/>
-        <v>183.83430954169978</v>
+        <v>183.83256866247098</v>
       </c>
       <c r="Q55">
         <f t="shared" si="9"/>
-        <v>-0.31238196170372784</v>
+        <v>-0.31237825976461314</v>
       </c>
       <c r="R55">
         <f t="shared" si="10"/>
-        <v>7.9933209612935006</v>
+        <v>7.9933270270621009</v>
       </c>
       <c r="S55">
         <f t="shared" si="11"/>
-        <v>-2.5814900821645743</v>
+        <v>-2.5814593640328858</v>
       </c>
     </row>
     <row r="56" spans="3:19">
@@ -4792,55 +4793,55 @@
         <v>51</v>
       </c>
       <c r="D56" s="1">
-        <v>7.3618181052781002E-5</v>
-      </c>
-      <c r="E56">
-        <v>6.1874350783195</v>
-      </c>
-      <c r="F56">
-        <v>-12.105220710716001</v>
+        <v>3.1813913947687002E-8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3.1813913947687002E-8</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3.1813913947687002E-8</v>
       </c>
       <c r="G56">
-        <v>5.9176170148775</v>
+        <v>5.9176343774950997</v>
       </c>
       <c r="H56" s="1">
-        <v>-3.4247794381569E-18</v>
+        <v>-3.5877282444783002E-19</v>
       </c>
       <c r="I56" s="1">
-        <v>5.4999887226153003E-17</v>
+        <v>5.5010469389987002E-17</v>
       </c>
       <c r="J56">
-        <v>6.1874350783195</v>
+        <v>6.1873095367362003</v>
       </c>
       <c r="K56" s="1">
-        <v>-2.4528289115673999E-17</v>
+        <v>-2.5161005536195E-17</v>
       </c>
       <c r="L56">
-        <v>-12.105220710716001</v>
+        <v>-12.105112531750001</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="6"/>
-        <v>-5.6205839667219003E-5</v>
+        <v>-5.6205839567150896E-5</v>
       </c>
       <c r="O56">
         <f t="shared" si="7"/>
-        <v>10.484248004240852</v>
+        <v>10.484153407069934</v>
       </c>
       <c r="P56">
         <f t="shared" si="8"/>
-        <v>-443.23727404998971</v>
+        <v>-443.22562043333744</v>
       </c>
       <c r="Q56">
         <f t="shared" si="9"/>
-        <v>0.51073063713190614</v>
+        <v>0.51073733682946154</v>
       </c>
       <c r="R56">
         <f t="shared" si="10"/>
-        <v>9.1463278945177393</v>
+        <v>9.1462110342431071</v>
       </c>
       <c r="S56">
         <f t="shared" si="11"/>
-        <v>5.1248553404359605</v>
+        <v>5.1248703769037656</v>
       </c>
     </row>
     <row r="57" spans="3:19">
@@ -4848,55 +4849,55 @@
         <v>52</v>
       </c>
       <c r="D57" s="1">
-        <v>4.0148688942309998E-6</v>
-      </c>
-      <c r="E57">
-        <v>6.350395074323</v>
-      </c>
-      <c r="F57">
-        <v>-12.072877204675001</v>
+        <v>1.4044034422067E-6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.4044034422067E-6</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.4044034422067E-6</v>
       </c>
       <c r="G57">
-        <v>5.7224211854361</v>
+        <v>5.7224181149554996</v>
       </c>
       <c r="H57" s="1">
-        <v>8.1152920617430995E-18</v>
+        <v>8.9540907128791997E-18</v>
       </c>
       <c r="I57" s="1">
-        <v>2.7104539646182E-17</v>
+        <v>2.7105154152391999E-17</v>
       </c>
       <c r="J57">
-        <v>-12.072877204675001</v>
+        <v>-12.072872857002</v>
       </c>
       <c r="K57" s="1">
-        <v>-8.1258151577392006E-18</v>
+        <v>-8.2825314388559995E-18</v>
       </c>
       <c r="L57">
-        <v>6.350395074323</v>
+        <v>6.3503937971308</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="6"/>
-        <v>-2.0314971966861606E-5</v>
+        <v>-2.0314971900248224E-5</v>
       </c>
       <c r="O57">
         <f t="shared" si="7"/>
-        <v>10.460114383252147</v>
+        <v>10.460110646668747</v>
       </c>
       <c r="P57">
         <f t="shared" si="8"/>
-        <v>-438.72617749278174</v>
+        <v>-438.72569585609193</v>
       </c>
       <c r="Q57">
         <f t="shared" si="9"/>
-        <v>0.49357672180319551</v>
+        <v>0.49357662531644736</v>
       </c>
       <c r="R57">
         <f t="shared" si="10"/>
-        <v>9.2116361394990012</v>
+        <v>9.2116333270664015</v>
       </c>
       <c r="S57">
         <f t="shared" si="11"/>
-        <v>4.9557797110237241</v>
+        <v>4.9557770519094646</v>
       </c>
     </row>
     <row r="58" spans="3:19">
@@ -4904,31 +4905,31 @@
         <v>53</v>
       </c>
       <c r="D58" s="1">
-        <v>2.430411257377E-4</v>
+        <v>2.1867914889295E-4</v>
       </c>
       <c r="E58">
-        <v>9.9431500876421008</v>
+        <v>2.1867914889295E-4</v>
       </c>
       <c r="F58">
-        <v>-5.2494368035162999</v>
+        <v>2.1867914889295E-4</v>
       </c>
       <c r="G58">
-        <v>-4.6937452907671</v>
+        <v>-4.6937337371470997</v>
       </c>
       <c r="H58" s="1">
-        <v>3.2381070267550001E-18</v>
+        <v>3.2979012502334001E-18</v>
       </c>
       <c r="I58" s="1">
-        <v>-7.8810588899785997E-17</v>
+        <v>-7.8809548222393002E-17</v>
       </c>
       <c r="J58">
-        <v>-5.2494368035162999</v>
+        <v>-5.2494172155068002</v>
       </c>
       <c r="K58" s="1">
-        <v>-2.0214654597389001E-17</v>
+        <v>-2.0246559452970999E-17</v>
       </c>
       <c r="L58">
-        <v>9.9431500876421008</v>
+        <v>9.9431189460125999</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="6"/>
@@ -4936,23 +4937,23 @@
       </c>
       <c r="O58">
         <f t="shared" si="7"/>
-        <v>8.6155111651528085</v>
+        <v>8.6154840801868264</v>
       </c>
       <c r="P58">
         <f t="shared" si="8"/>
-        <v>244.9936463261418</v>
+        <v>244.99136178688099</v>
       </c>
       <c r="Q58">
         <f t="shared" si="9"/>
-        <v>-0.49134370275650069</v>
+        <v>-0.49134406783810053</v>
       </c>
       <c r="R58">
         <f t="shared" si="10"/>
-        <v>7.5962934455792022</v>
+        <v>7.5962680807597032</v>
       </c>
       <c r="S58">
         <f t="shared" si="11"/>
-        <v>-4.0648934211763974</v>
+        <v>-4.0648834154479694</v>
       </c>
     </row>
     <row r="59" spans="3:19">
@@ -4960,31 +4961,31 @@
         <v>54</v>
       </c>
       <c r="D59" s="1">
-        <v>1.3367479723136E-7</v>
-      </c>
-      <c r="E59">
-        <v>9.9115375232724006</v>
-      </c>
-      <c r="F59">
-        <v>-5.4452059048825001</v>
+        <v>3.6416581972175999E-7</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3.6416581972175999E-7</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.6416581972175999E-7</v>
       </c>
       <c r="G59">
-        <v>-5.4452059048825001</v>
+        <v>-5.4452057295828</v>
       </c>
       <c r="H59" s="1">
-        <v>5.9887149684660002E-18</v>
+        <v>5.9970461495744999E-18</v>
       </c>
       <c r="I59" s="1">
-        <v>-1.4830802642121001E-17</v>
+        <v>-1.4831013078442999E-17</v>
       </c>
       <c r="J59">
-        <v>9.9115375232724006</v>
+        <v>9.9115378898307007</v>
       </c>
       <c r="K59" s="1">
-        <v>9.3498954008424997E-17</v>
+        <v>9.3492947708576996E-17</v>
       </c>
       <c r="L59">
-        <v>-4.4663840988711998</v>
+        <v>-4.4663846407292001</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="6"/>
@@ -4992,23 +4993,23 @@
       </c>
       <c r="O59">
         <f t="shared" si="7"/>
-        <v>8.5975993841169256</v>
+        <v>8.5975996806392025</v>
       </c>
       <c r="P59">
         <f t="shared" si="8"/>
-        <v>241.05107644559305</v>
+        <v>241.05110684431833</v>
       </c>
       <c r="Q59">
         <f t="shared" si="9"/>
-        <v>-0.46664385384685775</v>
+        <v>-0.46664389758789343</v>
       </c>
       <c r="R59">
         <f t="shared" si="10"/>
-        <v>7.6783717140774508</v>
+        <v>7.6783718097067517</v>
       </c>
       <c r="S59">
         <f t="shared" si="11"/>
-        <v>-3.8679869428713247</v>
+        <v>-3.8679874121341173</v>
       </c>
     </row>
     <row r="60" spans="3:19">
@@ -5016,31 +5017,31 @@
         <v>55</v>
       </c>
       <c r="D60" s="1">
-        <v>4.9970375171070999E-7</v>
-      </c>
-      <c r="E60">
-        <v>9.9543725954351991</v>
-      </c>
-      <c r="F60">
-        <v>-5.1121122104675001</v>
+        <v>6.1443258836390997E-7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6.1443258836390997E-7</v>
+      </c>
+      <c r="F60" s="1">
+        <v>6.1443258836390997E-7</v>
       </c>
       <c r="G60">
-        <v>-4.8423442536775996</v>
+        <v>-4.8423442821318998</v>
       </c>
       <c r="H60" s="1">
-        <v>-8.6924502498572006E-19</v>
+        <v>-8.6746633405395001E-19</v>
       </c>
       <c r="I60" s="1">
-        <v>-6.9744147325478002E-17</v>
+        <v>-6.9744205095997995E-17</v>
       </c>
       <c r="J60">
-        <v>-5.1121122104675001</v>
+        <v>-5.1121123281842999</v>
       </c>
       <c r="K60" s="1">
-        <v>1.9519925114625001E-17</v>
+        <v>1.9518810362916001E-17</v>
       </c>
       <c r="L60">
-        <v>9.9543725954351991</v>
+        <v>9.9543727416062993</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="6"/>
@@ -5048,23 +5049,23 @@
       </c>
       <c r="O60">
         <f t="shared" si="7"/>
-        <v>8.621818917430998</v>
+        <v>8.6218190447016241</v>
       </c>
       <c r="P60">
         <f t="shared" si="8"/>
-        <v>246.41450524004495</v>
+        <v>246.41451598061454</v>
       </c>
       <c r="Q60">
         <f t="shared" si="9"/>
-        <v>-0.50795364521013553</v>
+        <v>-0.50795364026392098</v>
       </c>
       <c r="R60">
         <f t="shared" si="10"/>
-        <v>7.5332424029513483</v>
+        <v>7.5332425348952885</v>
       </c>
       <c r="S60">
         <f t="shared" si="11"/>
-        <v>-4.1935689267432839</v>
+        <v>-4.1935689513854459</v>
       </c>
     </row>
     <row r="61" spans="3:19">
@@ -5072,55 +5073,55 @@
         <v>56</v>
       </c>
       <c r="D61" s="1">
-        <v>3.6267706526870999E-7</v>
-      </c>
-      <c r="E61">
-        <v>6.4580336065147002</v>
-      </c>
-      <c r="F61">
-        <v>-12.034798584919001</v>
+        <v>4.5648038748958001E-7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4.5648038748958001E-7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4.5648038748958001E-7</v>
       </c>
       <c r="G61">
-        <v>5.5766425069235002</v>
+        <v>5.5766427019915996</v>
       </c>
       <c r="H61" s="1">
-        <v>6.5546895628786999E-18</v>
+        <v>6.5554130846497999E-18</v>
       </c>
       <c r="I61" s="1">
-        <v>3.5549827671427E-17</v>
+        <v>3.5549737313324002E-17</v>
       </c>
       <c r="J61">
-        <v>-12.034798584919001</v>
+        <v>-12.034798769522</v>
       </c>
       <c r="K61" s="1">
-        <v>-1.3352692095734001E-16</v>
+        <v>-1.3352724048169999E-16</v>
       </c>
       <c r="L61">
-        <v>6.4580336065147002</v>
+        <v>6.4580335960498001</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="6"/>
-        <v>-4.0823826933452288E-5</v>
+        <v>-4.0823826866838907E-5</v>
       </c>
       <c r="O61">
         <f t="shared" si="7"/>
-        <v>10.431718858545507</v>
+        <v>10.431719013932282</v>
       </c>
       <c r="P61">
         <f t="shared" si="8"/>
-        <v>-433.42742040793644</v>
+        <v>-433.42744151495583</v>
       </c>
       <c r="Q61">
         <f t="shared" si="9"/>
-        <v>0.48134047222940701</v>
+        <v>0.48134048271939583</v>
       </c>
       <c r="R61">
         <f t="shared" si="10"/>
-        <v>9.2464160957168549</v>
+        <v>9.2464161827859055</v>
       </c>
       <c r="S61">
         <f t="shared" si="11"/>
-        <v>4.8295494332910875</v>
+        <v>4.8295496022249562</v>
       </c>
     </row>
     <row r="62" spans="3:19">
@@ -5128,55 +5129,55 @@
         <v>57</v>
       </c>
       <c r="D62" s="1">
-        <v>9.3820077040618E-8</v>
-      </c>
-      <c r="E62">
-        <v>6.2049393861522999</v>
-      </c>
-      <c r="F62">
-        <v>-12.10291168282</v>
+        <v>6.5566107654290994E-8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>6.5566107654290994E-8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6.5566107654290994E-8</v>
       </c>
       <c r="G62">
-        <v>5.8978801823991001</v>
+        <v>5.8978801205998996</v>
       </c>
       <c r="H62" s="1">
-        <v>-2.5694029938566002E-18</v>
+        <v>-2.5693535158700001E-18</v>
       </c>
       <c r="I62" s="1">
-        <v>2.5346954119681E-17</v>
+        <v>2.5346942703273999E-17</v>
       </c>
       <c r="J62">
-        <v>6.2049393861522999</v>
+        <v>6.2049393988528001</v>
       </c>
       <c r="K62" s="1">
-        <v>-6.6106385597786999E-17</v>
+        <v>-6.6106425299500996E-17</v>
       </c>
       <c r="L62">
-        <v>-12.10291168282</v>
+        <v>-12.102911633721</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="6"/>
-        <v>-3.0704756200113557E-5</v>
+        <v>-3.0704756100045451E-5</v>
       </c>
       <c r="O62">
         <f t="shared" si="7"/>
-        <v>10.482526761975679</v>
+        <v>10.482526720004916</v>
       </c>
       <c r="P62">
         <f t="shared" si="8"/>
-        <v>-442.92139722132924</v>
+        <v>-442.92139169005992</v>
       </c>
       <c r="Q62">
         <f t="shared" si="9"/>
-        <v>0.50895201199903117</v>
+        <v>0.50895200838648469</v>
       </c>
       <c r="R62">
         <f t="shared" si="10"/>
-        <v>9.1539255344861559</v>
+        <v>9.1539255162869004</v>
       </c>
       <c r="S62">
         <f t="shared" si="11"/>
-        <v>5.107740657533296</v>
+        <v>5.107740604013542</v>
       </c>
     </row>
     <row r="63" spans="3:19">
@@ -5184,55 +5185,55 @@
         <v>58</v>
       </c>
       <c r="D63" s="1">
-        <v>2.0839722843412999E-4</v>
+        <v>2.3796666881503999E-4</v>
       </c>
       <c r="E63">
-        <v>9.9528280156487998</v>
+        <v>2.3796666881503999E-4</v>
       </c>
       <c r="F63">
-        <v>-5.1420383410327997</v>
+        <v>2.3796666881503999E-4</v>
       </c>
       <c r="G63">
-        <v>9.9528280156487998</v>
+        <v>9.9528648126094001</v>
       </c>
       <c r="H63" s="1">
-        <v>-2.5062964200310999E-17</v>
+        <v>-2.5062826779476001E-17</v>
       </c>
       <c r="I63" s="1">
-        <v>8.4406229485304005E-17</v>
+        <v>8.4406424000851004E-17</v>
       </c>
       <c r="J63">
-        <v>-5.1420383410327997</v>
+        <v>-5.1420797092274002</v>
       </c>
       <c r="K63" s="1">
-        <v>7.5327240334964999E-18</v>
+        <v>7.5384122307832995E-18</v>
       </c>
       <c r="L63">
-        <v>-4.8108920330798997</v>
+        <v>-4.8108874618458</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="6"/>
-        <v>-3.4119487966499662E-5</v>
+        <v>-3.4119487933340999E-5</v>
       </c>
       <c r="O63">
         <f t="shared" si="7"/>
-        <v>8.6210215740419702</v>
+        <v>8.6210538764462896</v>
       </c>
       <c r="P63">
         <f t="shared" si="8"/>
-        <v>246.20844635408108</v>
+        <v>246.21110346048528</v>
       </c>
       <c r="Q63">
         <f t="shared" si="9"/>
-        <v>-0.50439184830447181</v>
+        <v>-0.50438925541426427</v>
       </c>
       <c r="R63">
         <f t="shared" si="10"/>
-        <v>7.5474331783407944</v>
+        <v>7.5474722609184042</v>
       </c>
       <c r="S63">
         <f t="shared" si="11"/>
-        <v>-4.1663251671680248</v>
+        <v>-4.1663212083631791</v>
       </c>
     </row>
     <row r="64" spans="3:19">
@@ -5240,55 +5241,55 @@
         <v>59</v>
       </c>
       <c r="D64" s="1">
-        <v>2.3099932300319E-7</v>
-      </c>
-      <c r="E64">
-        <v>9.6791793864094</v>
-      </c>
-      <c r="F64">
-        <v>-6.1023242966710001</v>
+        <v>2.3092384182631999E-7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.3092384182631999E-7</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2.3092384182631999E-7</v>
       </c>
       <c r="G64">
-        <v>-3.5769148598374998</v>
+        <v>-3.5769093975828001</v>
       </c>
       <c r="H64" s="1">
-        <v>3.9877844441088E-18</v>
+        <v>3.9876961545606E-18</v>
       </c>
       <c r="I64" s="1">
-        <v>1.7910527793201999E-17</v>
+        <v>1.7910568556942998E-17</v>
       </c>
       <c r="J64">
-        <v>-6.1023242966710001</v>
+        <v>-6.1023280047997002</v>
       </c>
       <c r="K64" s="1">
-        <v>6.6875414665500002E-17</v>
+        <v>6.6876196572531003E-17</v>
       </c>
       <c r="L64">
-        <v>9.6791793864094</v>
+        <v>9.6791776322834</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="6"/>
-        <v>-1.9923366366469963E-5</v>
+        <v>-1.9923366367062083E-5</v>
       </c>
       <c r="O64">
         <f t="shared" si="7"/>
-        <v>8.4770040500571131</v>
+        <v>8.4770032308824597</v>
       </c>
       <c r="P64">
         <f t="shared" si="8"/>
-        <v>211.27080271338923</v>
+        <v>211.27057017592145</v>
       </c>
       <c r="Q64">
         <f t="shared" si="9"/>
-        <v>-0.37408587594296616</v>
+        <v>-0.37408531438595549</v>
       </c>
       <c r="R64">
         <f t="shared" si="10"/>
-        <v>7.8907518415402009</v>
+        <v>7.890752818541551</v>
       </c>
       <c r="S64">
         <f t="shared" si="11"/>
-        <v>-3.0976818816519271</v>
+        <v>-3.0976771512005934</v>
       </c>
     </row>
     <row r="65" spans="3:19">
@@ -5296,55 +5297,55 @@
         <v>60</v>
       </c>
       <c r="D65" s="1">
-        <v>1.6526452897069999E-5</v>
-      </c>
-      <c r="E65">
-        <v>9.8960986263683992</v>
-      </c>
-      <c r="F65">
-        <v>-5.5147357426576997</v>
+        <v>1.5042266477749E-5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1.5042266477749E-5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.5042266477749E-5</v>
       </c>
       <c r="G65">
-        <v>-5.5147357426576997</v>
+        <v>-5.5147326982375997</v>
       </c>
       <c r="H65" s="1">
-        <v>4.8647067575632003E-18</v>
+        <v>4.8652404110638004E-18</v>
       </c>
       <c r="I65" s="1">
-        <v>-1.4140187179431999E-17</v>
+        <v>-1.4140175973557001E-17</v>
       </c>
       <c r="J65">
-        <v>9.8960986263683992</v>
+        <v>9.8960971910326005</v>
       </c>
       <c r="K65" s="1">
-        <v>9.5033465132888999E-17</v>
+        <v>9.5033661482705999E-17</v>
       </c>
       <c r="L65">
-        <v>-4.3813833470464996</v>
+        <v>-4.3813849561306997</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="6"/>
-        <v>-6.821111933360176E-6</v>
+        <v>-6.821111899609396E-6</v>
       </c>
       <c r="O65">
         <f t="shared" si="7"/>
-        <v>8.5889929085950953</v>
+        <v>8.5889915147543103</v>
       </c>
       <c r="P65">
         <f t="shared" si="8"/>
-        <v>239.11072747075025</v>
+        <v>239.11064860300047</v>
       </c>
       <c r="Q65">
         <f t="shared" si="9"/>
-        <v>-0.45757379085434341</v>
+        <v>-0.45757405161494469</v>
       </c>
       <c r="R65">
         <f t="shared" si="10"/>
-        <v>7.7054171845130481</v>
+        <v>7.7054149446350957</v>
       </c>
       <c r="S65">
         <f t="shared" si="11"/>
-        <v>-3.7943833750041458</v>
+        <v>-3.794384768511974</v>
       </c>
     </row>
     <row r="66" spans="3:19">
@@ -5352,55 +5353,55 @@
         <v>61</v>
       </c>
       <c r="D66" s="1">
-        <v>5.9182364533505E-6</v>
-      </c>
-      <c r="E66">
-        <v>6.9239561139383996</v>
-      </c>
-      <c r="F66">
-        <v>-11.641513622651001</v>
+        <v>5.9181758758076004E-6</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5.9181758758076004E-6</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5.9181758758076004E-6</v>
       </c>
       <c r="G66">
-        <v>-11.641513622651001</v>
+        <v>-11.641513489017999</v>
       </c>
       <c r="H66" s="1">
-        <v>4.5020997267978999E-17</v>
+        <v>4.5021144326981001E-17</v>
       </c>
       <c r="I66" s="1">
-        <v>4.7975739816659999E-18</v>
+        <v>4.7975779923956002E-18</v>
       </c>
       <c r="J66">
-        <v>4.7175012880685996</v>
+        <v>4.7175010574299003</v>
       </c>
       <c r="K66" s="1">
-        <v>-1.0892522944645999E-20</v>
+        <v>-1.0869389163708E-20</v>
       </c>
       <c r="L66">
-        <v>6.9239561139383996</v>
+        <v>6.9239562109444996</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="6"/>
-        <v>-1.8740214667190003E-5</v>
+        <v>-1.8740214533075061E-5</v>
       </c>
       <c r="O66">
         <f t="shared" si="7"/>
-        <v>10.142012278043966</v>
+        <v>10.142012180821506</v>
       </c>
       <c r="P66">
         <f t="shared" si="8"/>
-        <v>-380.25767300466083</v>
+        <v>-380.2576553764078</v>
       </c>
       <c r="Q66">
         <f t="shared" si="9"/>
-        <v>0.4146051427046038</v>
+        <v>0.41460512540634969</v>
       </c>
       <c r="R66">
         <f t="shared" si="10"/>
-        <v>9.2827348682947015</v>
+        <v>9.2827348499812512</v>
       </c>
       <c r="S66">
         <f t="shared" si="11"/>
-        <v>4.0854921873551922</v>
+        <v>4.0854919876161038</v>
       </c>
     </row>
     <row r="67" spans="3:19">
@@ -5408,55 +5409,55 @@
         <v>62</v>
       </c>
       <c r="D67" s="1">
-        <v>1.3695421063886001E-7</v>
-      </c>
-      <c r="E67">
-        <v>9.3465489391694003</v>
-      </c>
-      <c r="F67">
-        <v>-6.7827158364355</v>
+        <v>1.3695421086091001E-7</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.3695421086091001E-7</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.3695421086091001E-7</v>
       </c>
       <c r="G67">
-        <v>-2.5640152080366998</v>
+        <v>-2.5640150744039998</v>
       </c>
       <c r="H67" s="1">
-        <v>-1.0177749752341E-16</v>
+        <v>8.4252596309622996E-17</v>
       </c>
       <c r="I67" s="1">
-        <v>9.2672472720656002E-17</v>
+        <v>9.5863903135507005E-17</v>
       </c>
       <c r="J67">
-        <v>-6.7827158364355</v>
+        <v>-6.7827159261043999</v>
       </c>
       <c r="K67" s="1">
-        <v>7.4769431203704006E-17</v>
+        <v>-2.8873034595951999E-17</v>
       </c>
       <c r="L67">
-        <v>9.3465489391694003</v>
+        <v>9.3465488952056006</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="6"/>
-        <v>-6.0701767599979917E-5</v>
+        <v>-6.07017675993878E-5</v>
       </c>
       <c r="O67">
         <f t="shared" si="7"/>
-        <v>8.3647290800751861</v>
+        <v>8.3647290713870746</v>
       </c>
       <c r="P67">
         <f t="shared" si="8"/>
-        <v>162.5414597266255</v>
+        <v>162.54145263930511</v>
       </c>
       <c r="Q67">
         <f t="shared" si="9"/>
-        <v>-0.26867465480957214</v>
+        <v>-0.26867464074532066</v>
       </c>
       <c r="R67">
         <f t="shared" si="10"/>
-        <v>8.0646323878024511</v>
+        <v>8.0646324106549994</v>
       </c>
       <c r="S67">
         <f t="shared" si="11"/>
-        <v>-2.2204497365766271</v>
+        <v>-2.2204496208473161</v>
       </c>
     </row>
     <row r="68" spans="3:19">
@@ -5464,55 +5465,55 @@
         <v>63</v>
       </c>
       <c r="D68" s="1">
-        <v>1.0729946012566E-4</v>
-      </c>
-      <c r="E68">
-        <v>6.2672308466512003</v>
-      </c>
-      <c r="F68">
-        <v>-12.092957289308</v>
+        <v>2.4912863929138001E-5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.4912863929138001E-5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2.4912863929138001E-5</v>
       </c>
       <c r="G68">
-        <v>5.8257108769626003</v>
+        <v>5.8255109960485001</v>
       </c>
       <c r="H68" s="1">
-        <v>2.7676732380205002E-19</v>
+        <v>6.8319212141656997E-18</v>
       </c>
       <c r="I68" s="1">
-        <v>-8.2125653969014999E-18</v>
+        <v>-7.7091870420127003E-18</v>
       </c>
       <c r="J68">
-        <v>6.2672308466512003</v>
+        <v>6.2672788990591997</v>
       </c>
       <c r="K68" s="1">
-        <v>-1.1609642414775001E-16</v>
+        <v>-1.3117574178402E-16</v>
       </c>
       <c r="L68">
-        <v>-12.092957289308</v>
+        <v>-12.092805460801999</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="6"/>
-        <v>-5.188564732823882E-6</v>
+        <v>-5.1885647665746619E-6</v>
       </c>
       <c r="O68">
         <f t="shared" si="7"/>
-        <v>10.475130207021852</v>
+        <v>10.475001362205079</v>
       </c>
       <c r="P68">
         <f t="shared" si="8"/>
-        <v>-441.5274388274384</v>
+        <v>-441.51013187312037</v>
       </c>
       <c r="Q68">
         <f t="shared" si="9"/>
-        <v>0.50252253833806593</v>
+        <v>0.50251044190223004</v>
       </c>
       <c r="R68">
         <f t="shared" si="10"/>
-        <v>9.1800940679795939</v>
+        <v>9.1800421799305862</v>
       </c>
       <c r="S68">
         <f t="shared" si="11"/>
-        <v>5.0452181079818095</v>
+        <v>5.0450450060325087</v>
       </c>
     </row>
     <row r="69" spans="3:19">
@@ -5520,55 +5521,55 @@
         <v>64</v>
       </c>
       <c r="D69" s="1">
-        <v>6.1347038722380995E-4</v>
+        <v>1.7976868891867001E-4</v>
       </c>
       <c r="E69">
-        <v>6.3921963087854996</v>
+        <v>1.7976868891867001E-4</v>
       </c>
       <c r="F69">
-        <v>-12.061002852592001</v>
+        <v>1.7976868891867001E-4</v>
       </c>
       <c r="G69">
-        <v>6.3921963087854996</v>
+        <v>6.3917347373566997</v>
       </c>
       <c r="H69" s="1">
-        <v>-6.5080551751668002E-18</v>
+        <v>-6.1433566136008002E-18</v>
       </c>
       <c r="I69" s="1">
-        <v>1.0593145869964001E-17</v>
+        <v>1.0691004216428001E-17</v>
       </c>
       <c r="J69">
-        <v>5.6686439795302004</v>
+        <v>5.6684599207030999</v>
       </c>
       <c r="K69" s="1">
-        <v>-8.9256769064301004E-17</v>
+        <v>-9.2602126032618003E-17</v>
       </c>
       <c r="L69">
-        <v>-12.061002852592001</v>
+        <v>-12.060357222336</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="6"/>
-        <v>-5.418809210055997E-5</v>
+        <v>-5.418809206680919E-5</v>
       </c>
       <c r="O69">
         <f t="shared" si="7"/>
-        <v>10.451351300624678</v>
+        <v>10.450787701099204</v>
       </c>
       <c r="P69">
         <f t="shared" si="8"/>
-        <v>-437.03738402322358</v>
+        <v>-436.96824471469796</v>
       </c>
       <c r="Q69">
         <f t="shared" si="9"/>
-        <v>0.4889766065743984</v>
+        <v>0.4889880237658053</v>
       </c>
       <c r="R69">
         <f t="shared" si="10"/>
-        <v>9.2265995806887471</v>
+        <v>9.2260459798463454</v>
       </c>
       <c r="S69">
         <f t="shared" si="11"/>
-        <v>4.9092366195472161</v>
+        <v>4.9090772199271298</v>
       </c>
     </row>
     <row r="70" spans="3:19">
@@ -5576,55 +5577,55 @@
         <v>65</v>
       </c>
       <c r="D70" s="1">
-        <v>1.4293236105800001E-7</v>
-      </c>
-      <c r="E70">
-        <v>7.6265210087697</v>
-      </c>
-      <c r="F70">
-        <v>-10.290892042991</v>
+        <v>1.4293397065934E-7</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.4293397065934E-7</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.4293397065934E-7</v>
       </c>
       <c r="G70">
-        <v>2.6643084714019998</v>
+        <v>2.6638468999731999</v>
       </c>
       <c r="H70" s="1">
-        <v>1.3762754227335999E-16</v>
+        <v>-1.2839846310425001E-16</v>
       </c>
       <c r="I70" s="1">
-        <v>1.9897036352484E-17</v>
+        <v>2.2924243855060001E-17</v>
       </c>
       <c r="J70">
-        <v>-10.290892042991</v>
+        <v>-10.290582323915</v>
       </c>
       <c r="K70" s="1">
-        <v>1.7119361090599E-16</v>
+        <v>1.7575170345148999E-16</v>
       </c>
       <c r="L70">
-        <v>7.6265210087697</v>
+        <v>7.6266728611227999</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="6"/>
-        <v>-2.0854273100094172E-5</v>
+        <v>-2.0854273000322127E-5</v>
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>9.2510761905623955</v>
+        <v>9.2509000589415891</v>
       </c>
       <c r="P70">
         <f t="shared" si="8"/>
-        <v>-209.10658316524973</v>
+        <v>-209.06822770286149</v>
       </c>
       <c r="Q70">
         <f t="shared" si="9"/>
-        <v>0.25207831714094553</v>
+        <v>0.25203860077194734</v>
       </c>
       <c r="R70">
         <f t="shared" si="10"/>
-        <v>8.958706525880352</v>
+        <v>8.9586275925188996</v>
       </c>
       <c r="S70">
         <f t="shared" si="11"/>
-        <v>2.307376880082499</v>
+        <v>2.3069771474994107</v>
       </c>
     </row>
     <row r="71" spans="3:19">
@@ -5632,55 +5633,55 @@
         <v>66</v>
       </c>
       <c r="D71" s="1">
-        <v>3.4612732013883003E-8</v>
-      </c>
-      <c r="E71">
-        <v>7.7022659370469997</v>
-      </c>
-      <c r="F71">
-        <v>-10.136399547709001</v>
+        <v>3.4614059618576002E-8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3.4614059618576002E-8</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3.4614059618576002E-8</v>
       </c>
       <c r="G71">
-        <v>-10.136399547709001</v>
+        <v>-10.136501442168999</v>
       </c>
       <c r="H71" s="1">
-        <v>1.2661396904699001E-16</v>
+        <v>-6.7543256793894E-16</v>
       </c>
       <c r="I71" s="1">
-        <v>-3.0804689012335999E-17</v>
+        <v>-2.8103305311821998E-17</v>
       </c>
       <c r="J71">
-        <v>7.7022659370469997</v>
+        <v>7.7022159791537002</v>
       </c>
       <c r="K71" s="1">
-        <v>7.0236301715292998E-17</v>
+        <v>7.1382257389801001E-17</v>
       </c>
       <c r="L71">
-        <v>2.4341332524618</v>
+        <v>2.4342851048148999</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="6"/>
-        <v>-1.1940006701867864E-7</v>
+        <v>-1.1940013303994115E-7</v>
       </c>
       <c r="O71">
         <f t="shared" si="7"/>
-        <v>9.1650559476341975</v>
+        <v>9.1651114681750716</v>
       </c>
       <c r="P71">
         <f t="shared" si="8"/>
-        <v>-190.04069171563182</v>
+        <v>-190.05322507530846</v>
       </c>
       <c r="Q71">
         <f t="shared" si="9"/>
-        <v>0.23208423808745729</v>
+        <v>0.23209755044924543</v>
       </c>
       <c r="R71">
         <f t="shared" si="10"/>
-        <v>8.9193327423779998</v>
+        <v>8.9193587106613492</v>
       </c>
       <c r="S71">
         <f t="shared" si="11"/>
-        <v>2.1080213362318507</v>
+        <v>2.1081528442273174</v>
       </c>
     </row>
     <row r="72" spans="3:19">
@@ -5688,55 +5689,55 @@
         <v>67</v>
       </c>
       <c r="D72" s="1">
-        <v>8.1693988018827001E-8</v>
-      </c>
-      <c r="E72">
-        <v>7.7532060804571001</v>
-      </c>
-      <c r="F72">
-        <v>-10.032504052302</v>
+        <v>8.1693988462915999E-8</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8.1693988462915999E-8</v>
+      </c>
+      <c r="F72" s="1">
+        <v>8.1693988462915999E-8</v>
       </c>
       <c r="G72">
-        <v>-10.032504052302</v>
+        <v>-10.03260594676</v>
       </c>
       <c r="H72" s="1">
-        <v>7.8547355056215004E-16</v>
+        <v>2.9834121340054E-16</v>
       </c>
       <c r="I72" s="1">
-        <v>-1.5497522832691999E-16</v>
+        <v>-1.4566228036581999E-16</v>
       </c>
       <c r="J72">
-        <v>7.7532060804571001</v>
+        <v>7.7531561225623999</v>
       </c>
       <c r="K72" s="1">
-        <v>9.5114613694585E-17</v>
+        <v>7.2107576849742998E-17</v>
       </c>
       <c r="L72">
-        <v>2.2792370638533002</v>
+        <v>2.2793889162063001</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="6"/>
-        <v>-2.0302663866692921E-5</v>
+        <v>-2.0302663766772849E-5</v>
       </c>
       <c r="O72">
         <f t="shared" si="7"/>
-        <v>9.1092882180085581</v>
+        <v>9.1093420666335305</v>
       </c>
       <c r="P72">
         <f t="shared" si="8"/>
-        <v>-177.29002325647932</v>
+        <v>-177.30249326013904</v>
       </c>
       <c r="Q72">
         <f t="shared" si="9"/>
-        <v>0.21842297963661486</v>
+        <v>0.21843645551001975</v>
       </c>
       <c r="R72">
         <f t="shared" si="10"/>
-        <v>8.8928550663795516</v>
+        <v>8.8928810346611993</v>
       </c>
       <c r="S72">
         <f t="shared" si="11"/>
-        <v>1.9738947811666849</v>
+        <v>1.9740262891619218</v>
       </c>
     </row>
     <row r="73" spans="3:19">
@@ -5744,31 +5745,31 @@
         <v>68</v>
       </c>
       <c r="D73" s="1">
-        <v>3.0184976584469001E-5</v>
-      </c>
-      <c r="E73">
-        <v>9.8270621740043005</v>
-      </c>
-      <c r="F73">
-        <v>-5.7489466076845996</v>
+        <v>3.9438315583506997E-5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3.9438315583506997E-5</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3.9438315583506997E-5</v>
       </c>
       <c r="G73">
-        <v>-4.0782870388854002</v>
+        <v>-4.0783347420927001</v>
       </c>
       <c r="H73" s="1">
-        <v>2.3523906004299999E-17</v>
+        <v>6.3961141894785002E-18</v>
       </c>
       <c r="I73" s="1">
-        <v>1.8436072941373999E-17</v>
+        <v>2.0000943101381E-17</v>
       </c>
       <c r="J73">
-        <v>-5.7489466076845996</v>
+        <v>-5.7489218026413997</v>
       </c>
       <c r="K73" s="1">
-        <v>-3.6363705725333997E-17</v>
+        <v>-3.9113708574950003E-17</v>
       </c>
       <c r="L73">
-        <v>9.8270621740043005</v>
+        <v>9.8270850721683995</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="6"/>
@@ -5776,23 +5777,23 @@
       </c>
       <c r="O73">
         <f t="shared" si="7"/>
-        <v>8.5514315535907226</v>
+        <v>8.5514477478167414</v>
       </c>
       <c r="P73">
         <f t="shared" si="8"/>
-        <v>230.39968952158048</v>
+        <v>230.40192724389294</v>
       </c>
       <c r="Q73">
         <f t="shared" si="9"/>
-        <v>-0.42575972194566108</v>
+        <v>-0.42576416772334014</v>
       </c>
       <c r="R73">
         <f t="shared" si="10"/>
-        <v>7.7880043908444501</v>
+        <v>7.7880034374049014</v>
       </c>
       <c r="S73">
         <f t="shared" si="11"/>
-        <v>-3.531850679733588</v>
+        <v>-3.5318919919229503</v>
       </c>
     </row>
     <row r="74" spans="3:19">
@@ -5800,55 +5801,55 @@
         <v>69</v>
       </c>
       <c r="D74" s="1">
-        <v>5.7391102317171999E-6</v>
-      </c>
-      <c r="E74">
-        <v>6.4072091159123996</v>
-      </c>
-      <c r="F74">
-        <v>-12.054599559638</v>
+        <v>6.1365984993510998E-6</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6.1365984993510998E-6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>6.1365984993510998E-6</v>
       </c>
       <c r="G74">
-        <v>6.4072091159123996</v>
+        <v>6.4072069533954004</v>
       </c>
       <c r="H74" s="1">
-        <v>1.3290364471236E-18</v>
+        <v>8.7301114563631996E-20</v>
       </c>
       <c r="I74" s="1">
-        <v>7.2836647507352002E-17</v>
+        <v>7.3242247398649996E-17</v>
       </c>
       <c r="J74">
-        <v>5.6473829242231997</v>
+        <v>5.6473865992643999</v>
       </c>
       <c r="K74" s="1">
-        <v>7.4824362243233995E-18</v>
+        <v>6.6809828947773998E-18</v>
       </c>
       <c r="L74">
-        <v>-12.054599559638</v>
+        <v>-12.054601072163001</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="6"/>
-        <v>-2.5065008000998055E-6</v>
+        <v>-2.5065010671454502E-6</v>
       </c>
       <c r="O74">
         <f t="shared" si="7"/>
-        <v>10.446497812449982</v>
+        <v>10.446499015320013</v>
       </c>
       <c r="P74">
         <f t="shared" si="8"/>
-        <v>-436.18346223532853</v>
+        <v>-436.18365359368426</v>
       </c>
       <c r="Q74">
         <f t="shared" si="9"/>
-        <v>0.48722324594387706</v>
+        <v>0.48722352972177568</v>
       </c>
       <c r="R74">
         <f t="shared" si="10"/>
-        <v>9.2309043377752005</v>
+        <v>9.2309040127791953</v>
       </c>
       <c r="S74">
         <f t="shared" si="11"/>
-        <v>4.8907792479691059</v>
+        <v>4.8907824306483869</v>
       </c>
     </row>
     <row r="75" spans="3:19">
@@ -5856,55 +5857,55 @@
         <v>70</v>
       </c>
       <c r="D75" s="1">
-        <v>7.6866188333468997E-5</v>
+        <v>1.2857875381367E-4</v>
       </c>
       <c r="E75">
-        <v>6.2226022342050999</v>
+        <v>1.2857875381367E-4</v>
       </c>
       <c r="F75">
-        <v>-12.100616585939999</v>
+        <v>1.2857875381367E-4</v>
       </c>
       <c r="G75">
-        <v>5.8778286555298997</v>
+        <v>5.8778500495217996</v>
       </c>
       <c r="H75" s="1">
-        <v>-4.9780332068151998E-18</v>
+        <v>-5.0917038910247E-18</v>
       </c>
       <c r="I75" s="1">
-        <v>5.0749604845884E-17</v>
+        <v>5.0803114891036E-17</v>
       </c>
       <c r="J75">
-        <v>6.2226022342050999</v>
+        <v>6.2226598247642997</v>
       </c>
       <c r="K75" s="1">
-        <v>-4.1051713948927001E-17</v>
+        <v>-4.114228459425E-17</v>
       </c>
       <c r="L75">
-        <v>-12.100616585939999</v>
+        <v>-12.100695570491</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="6"/>
-        <v>-6.1898734999843441E-5</v>
+        <v>-6.1898734966684785E-5</v>
       </c>
       <c r="O75">
         <f t="shared" si="7"/>
-        <v>10.480805551514983</v>
+        <v>10.480874242581228</v>
       </c>
       <c r="P75">
         <f t="shared" si="8"/>
-        <v>-442.59156694155774</v>
+        <v>-442.60016303264513</v>
       </c>
       <c r="Q75">
         <f t="shared" si="9"/>
-        <v>0.50715017705050902</v>
+        <v>0.50714855783837043</v>
       </c>
       <c r="R75">
         <f t="shared" si="10"/>
-        <v>9.1616094100725451</v>
+        <v>9.1616776976276562</v>
       </c>
       <c r="S75">
         <f t="shared" si="11"/>
-        <v>5.0904025406580073</v>
+        <v>5.0904210683984328</v>
       </c>
     </row>
     <row r="76" spans="3:19">
@@ -5912,55 +5913,55 @@
         <v>71</v>
       </c>
       <c r="D76" s="1">
-        <v>3.8802652215342002E-5</v>
-      </c>
-      <c r="E76">
-        <v>6.7564971588668001</v>
-      </c>
-      <c r="F76">
-        <v>-11.835396945433001</v>
+        <v>4.0560838257874997E-5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4.0560838257874997E-5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4.0560838257874997E-5</v>
       </c>
       <c r="G76">
-        <v>5.0788442695259999</v>
+        <v>5.0788441462062996</v>
       </c>
       <c r="H76" s="1">
-        <v>2.8038533186269E-18</v>
+        <v>2.7768070769847002E-18</v>
       </c>
       <c r="I76" s="1">
-        <v>-1.0834705705183E-17</v>
+        <v>-1.0831953343729001E-17</v>
       </c>
       <c r="J76">
-        <v>-11.835396945433001</v>
+        <v>-11.835399023039001</v>
       </c>
       <c r="K76" s="1">
-        <v>-1.3783485984399E-17</v>
+        <v>-1.3800367528113E-17</v>
       </c>
       <c r="L76">
-        <v>6.7564971588668001</v>
+        <v>6.7564993597931</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="6"/>
-        <v>-1.8505680066856673E-5</v>
+        <v>-1.8505679867016529E-5</v>
       </c>
       <c r="O76">
         <f t="shared" si="7"/>
-        <v>10.284005392521184</v>
+        <v>10.284007280575596</v>
       </c>
       <c r="P76">
         <f t="shared" si="8"/>
-        <v>-406.13593347938365</v>
+        <v>-406.13612721018018</v>
       </c>
       <c r="Q76">
         <f t="shared" si="9"/>
-        <v>0.44194193746904281</v>
+        <v>0.44194183911321083</v>
       </c>
       <c r="R76">
         <f t="shared" si="10"/>
-        <v>9.2959470521498968</v>
+        <v>9.2959491914160512</v>
       </c>
       <c r="S76">
         <f t="shared" si="11"/>
-        <v>4.3984241856635933</v>
+        <v>4.398424078865423</v>
       </c>
     </row>
     <row r="77" spans="3:19">
@@ -5968,55 +5969,55 @@
         <v>72</v>
       </c>
       <c r="D77" s="1">
-        <v>8.1858242451104999E-7</v>
-      </c>
-      <c r="E77">
-        <v>9.8659387257473998</v>
-      </c>
-      <c r="F77">
-        <v>-5.6279315592188004</v>
+        <v>1.0782402477537999E-6</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1.0782402477537999E-6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.0782402477537999E-6</v>
       </c>
       <c r="G77">
-        <v>-5.6279315592188004</v>
+        <v>-5.6279312809083004</v>
       </c>
       <c r="H77" s="1">
-        <v>1.4008603433639999E-17</v>
+        <v>1.4006012975724999E-17</v>
       </c>
       <c r="I77" s="1">
-        <v>3.0351778136041997E-17</v>
+        <v>3.0352575738524E-17</v>
       </c>
       <c r="J77">
-        <v>-4.2380218714330002</v>
+        <v>-4.2380226200092999</v>
       </c>
       <c r="K77" s="1">
-        <v>1.4781811436813999E-16</v>
+        <v>1.4781196502329999E-16</v>
       </c>
       <c r="L77">
-        <v>9.8659387257473998</v>
+        <v>9.8659391960134002</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="6"/>
-        <v>-4.9016347999734462E-6</v>
+        <v>-4.9016347330640047E-6</v>
       </c>
       <c r="O77">
         <f t="shared" si="7"/>
-        <v>8.5723739406924366</v>
+        <v>8.5723743049897827</v>
       </c>
       <c r="P77">
         <f t="shared" si="8"/>
-        <v>235.31507491581152</v>
+        <v>235.31511606007308</v>
       </c>
       <c r="Q77">
         <f t="shared" si="9"/>
-        <v>-0.44244058772823491</v>
+        <v>-0.44244065127769777</v>
       </c>
       <c r="R77">
         <f t="shared" si="10"/>
-        <v>7.7469351424830997</v>
+        <v>7.7469352384608516</v>
       </c>
       <c r="S77">
         <f t="shared" si="11"/>
-        <v>-3.6702303575147894</v>
+        <v>-3.6702310058009382</v>
       </c>
     </row>
     <row r="78" spans="3:19">
@@ -6024,55 +6025,55 @@
         <v>73</v>
       </c>
       <c r="D78" s="1">
-        <v>1.6081130267409001E-6</v>
-      </c>
-      <c r="E78">
-        <v>9.8670062583441993</v>
-      </c>
-      <c r="F78">
-        <v>-5.6242739968236002</v>
+        <v>1.8919615636381001E-6</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.8919615636381001E-6</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.8919615636381001E-6</v>
       </c>
       <c r="G78">
-        <v>-5.6242739968236002</v>
+        <v>-5.6242735833408997</v>
       </c>
       <c r="H78" s="1">
-        <v>-1.8366205099333001E-17</v>
+        <v>-1.8359554856935001E-17</v>
       </c>
       <c r="I78" s="1">
-        <v>-1.2886921443268E-17</v>
+        <v>-1.2886793784091999E-17</v>
       </c>
       <c r="J78">
-        <v>9.8670062583441993</v>
+        <v>9.8670068033757996</v>
       </c>
       <c r="K78" s="1">
-        <v>2.3059225145658001E-17</v>
+        <v>2.3057928596034001E-17</v>
       </c>
       <c r="L78">
-        <v>-4.2427946230623999</v>
+        <v>-4.2427955815764999</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="6"/>
-        <v>-2.0787180600242056E-5</v>
+        <v>-2.0787180533332617E-5</v>
       </c>
       <c r="O78">
         <f t="shared" si="7"/>
-        <v>8.5729684679736398</v>
+        <v>8.5729688831780848</v>
       </c>
       <c r="P78">
         <f t="shared" si="8"/>
-        <v>235.45128524409103</v>
+        <v>235.45133413242786</v>
       </c>
       <c r="Q78">
         <f t="shared" si="9"/>
-        <v>-0.44293952196246189</v>
+        <v>-0.44293960615720035</v>
       </c>
       <c r="R78">
         <f t="shared" si="10"/>
-        <v>7.7456401275838971</v>
+        <v>7.7456401933583541</v>
       </c>
       <c r="S78">
         <f t="shared" si="11"/>
-        <v>-3.674349924385591</v>
+        <v>-3.6743507544831999</v>
       </c>
     </row>
     <row r="79" spans="3:19">
@@ -6080,55 +6081,55 @@
         <v>74</v>
       </c>
       <c r="D79" s="1">
-        <v>6.3977243391911E-7</v>
-      </c>
-      <c r="E79">
-        <v>9.9098089213083007</v>
-      </c>
-      <c r="F79">
-        <v>-5.4534995888535001</v>
+        <v>8.6371174434773998E-7</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8.6371174434773998E-7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8.6371174434773998E-7</v>
       </c>
       <c r="G79">
-        <v>-4.4564230299167003</v>
+        <v>-4.4564224050833996</v>
       </c>
       <c r="H79" s="1">
-        <v>6.3810998870574999E-18</v>
+        <v>6.3816855359435002E-18</v>
       </c>
       <c r="I79" s="1">
-        <v>-1.010556510442E-16</v>
+        <v>-1.0105549768566E-16</v>
       </c>
       <c r="J79">
-        <v>-5.4534995888535001</v>
+        <v>-5.4535003712896</v>
       </c>
       <c r="K79" s="1">
-        <v>3.4538547224198998E-17</v>
+        <v>3.4539149603404003E-17</v>
       </c>
       <c r="L79">
-        <v>9.9098089213083007</v>
+        <v>9.9098090789112003</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="6"/>
-        <v>-3.7899153966236554E-5</v>
+        <v>-3.7899153933077891E-5</v>
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>8.5966469288824978</v>
+        <v>8.5966471059462162</v>
       </c>
       <c r="P79">
         <f t="shared" si="8"/>
-        <v>240.83628786867686</v>
+        <v>240.83629248502376</v>
       </c>
       <c r="Q79">
         <f t="shared" si="9"/>
-        <v>-0.46557404272829489</v>
+        <v>-0.46557396193688111</v>
       </c>
       <c r="R79">
         <f t="shared" si="10"/>
-        <v>7.6816542550808977</v>
+        <v>7.6816547251004001</v>
       </c>
       <c r="S79">
         <f t="shared" si="11"/>
-        <v>-3.8593427322877689</v>
+        <v>-3.8593421911662813</v>
       </c>
     </row>
     <row r="80" spans="3:19">
@@ -6136,55 +6137,55 @@
         <v>75</v>
       </c>
       <c r="D80" s="1">
-        <v>5.6083626631675998E-9</v>
+        <v>6.9021037808947002E-4</v>
       </c>
       <c r="E80">
-        <v>8.1487362475065996</v>
+        <v>6.9021037808947002E-4</v>
       </c>
       <c r="F80">
-        <v>-9.2257783314841006</v>
+        <v>6.9021037808947002E-4</v>
       </c>
       <c r="G80">
-        <v>8.1487362475065996</v>
+        <v>8.1494989493742995</v>
       </c>
       <c r="H80" s="1">
-        <v>-3.0911439093449001E-16</v>
+        <v>-1.4137279102113001E-16</v>
       </c>
       <c r="I80" s="1">
-        <v>2.4783921465422998E-16</v>
+        <v>2.3863384515448001E-16</v>
       </c>
       <c r="J80">
-        <v>-9.2257783314841006</v>
+        <v>-9.2265411909546007</v>
       </c>
       <c r="K80" s="1">
-        <v>-4.8529790201544E-17</v>
+        <v>-8.6167799597507998E-17</v>
       </c>
       <c r="L80">
-        <v>1.0769667623251999</v>
+        <v>1.0769669199281</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="6"/>
-        <v>-2.5107217433687861E-5</v>
+        <v>-2.510721740038117E-5</v>
       </c>
       <c r="O80">
         <f t="shared" si="7"/>
-        <v>8.73718334643298</v>
+        <v>8.7379417833653203</v>
       </c>
       <c r="P80">
         <f t="shared" si="8"/>
-        <v>-80.966591630193676</v>
+        <v>-80.980877328631891</v>
       </c>
       <c r="Q80">
         <f t="shared" si="9"/>
-        <v>0.10695471332092162</v>
+        <v>0.10694541000574846</v>
       </c>
       <c r="R80">
         <f t="shared" si="10"/>
-        <v>8.687257289495351</v>
+        <v>8.6880200701644501</v>
       </c>
       <c r="S80">
         <f t="shared" si="11"/>
-        <v>0.93270231869321674</v>
+        <v>0.93270245518130346</v>
       </c>
     </row>
     <row r="81" spans="3:19">
@@ -6192,55 +6193,55 @@
         <v>76</v>
       </c>
       <c r="D81" s="1">
-        <v>3.3013508371481998E-8</v>
+        <v>4.6404972418213002E-4</v>
       </c>
       <c r="E81">
-        <v>6.1899672184475998</v>
+        <v>4.6404972418213002E-4</v>
       </c>
       <c r="F81">
-        <v>-12.104790361694</v>
+        <v>4.6404972418213002E-4</v>
       </c>
       <c r="G81">
-        <v>5.9146853197995002</v>
+        <v>5.9147530907829999</v>
       </c>
       <c r="H81" s="1">
-        <v>-1.0154778473829E-17</v>
+        <v>-5.5955131001941001E-18</v>
       </c>
       <c r="I81" s="1">
-        <v>6.3851584876279003E-17</v>
+        <v>6.2744003335358996E-17</v>
       </c>
       <c r="J81">
-        <v>6.1899672184475998</v>
+        <v>6.1905991824847</v>
       </c>
       <c r="K81" s="1">
-        <v>-6.9992836279875E-17</v>
+        <v>-7.4352593375330998E-17</v>
       </c>
       <c r="L81">
-        <v>-12.104790361694</v>
+        <v>-12.105490096715</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="6"/>
-        <v>-4.5941148966832657E-5</v>
+        <v>-4.594114910005942E-5</v>
       </c>
       <c r="O81">
         <f t="shared" si="7"/>
-        <v>10.483919741488291</v>
+        <v>10.484529384727779</v>
       </c>
       <c r="P81">
         <f t="shared" si="8"/>
-        <v>-443.1821025021917</v>
+        <v>-443.25804908654334</v>
       </c>
       <c r="Q81">
         <f t="shared" si="9"/>
-        <v>0.51046963047941185</v>
+        <v>0.51044348564026909</v>
       </c>
       <c r="R81">
         <f t="shared" si="10"/>
-        <v>9.1473787900707997</v>
+        <v>9.1480446395998509</v>
       </c>
       <c r="S81">
         <f t="shared" si="11"/>
-        <v>5.1223075285393396</v>
+        <v>5.1223662199328039</v>
       </c>
     </row>
     <row r="82" spans="3:19">
@@ -6248,55 +6249,55 @@
         <v>77</v>
       </c>
       <c r="D82" s="1">
-        <v>1.8209554148996001E-6</v>
-      </c>
-      <c r="E82">
-        <v>6.6418541360703998</v>
-      </c>
-      <c r="F82">
-        <v>-11.930876644725</v>
+        <v>1.4856566992183001E-6</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1.4856566992183001E-6</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.4856566992183001E-6</v>
       </c>
       <c r="G82">
-        <v>6.6418541360703998</v>
+        <v>6.6418984605122002</v>
       </c>
       <c r="H82" s="1">
-        <v>6.1386087027946002E-18</v>
+        <v>7.6275303864975006E-18</v>
       </c>
       <c r="I82" s="1">
-        <v>-1.9814044689399002E-18</v>
+        <v>-2.0977718453186002E-18</v>
       </c>
       <c r="J82">
-        <v>-11.930876644725</v>
+        <v>-11.930843992024</v>
       </c>
       <c r="K82" s="1">
-        <v>-7.0305242138338E-17</v>
+        <v>-7.2013661003031999E-17</v>
       </c>
       <c r="L82">
-        <v>5.2889470011590998</v>
+        <v>5.2888700240161999</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="6"/>
-        <v>-2.5169165166853229E-5</v>
+        <v>-2.5169165200011889E-5</v>
       </c>
       <c r="O82">
         <f t="shared" si="7"/>
-        <v>10.354540169791447</v>
+        <v>10.354515914585438</v>
       </c>
       <c r="P82">
         <f t="shared" si="8"/>
-        <v>-419.11547885434408</v>
+        <v>-419.11102881264594</v>
       </c>
       <c r="Q82">
         <f t="shared" si="9"/>
-        <v>0.45822304131638797</v>
+        <v>0.4582170179917267</v>
       </c>
       <c r="R82">
         <f t="shared" si="10"/>
-        <v>9.2863653903976999</v>
+        <v>9.286371226268102</v>
       </c>
       <c r="S82">
         <f t="shared" si="11"/>
-        <v>4.5803842594097324</v>
+        <v>4.5803175952484976</v>
       </c>
     </row>
     <row r="83" spans="3:19">
@@ -6304,55 +6305,55 @@
         <v>78</v>
       </c>
       <c r="D83" s="1">
-        <v>1.7084291759061999E-7</v>
-      </c>
-      <c r="E83">
-        <v>9.8665812788916991</v>
-      </c>
-      <c r="F83">
-        <v>-5.6257260605569996</v>
+        <v>1.687150137375E-7</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1.687150137375E-7</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.687150137375E-7</v>
       </c>
       <c r="G83">
-        <v>-4.2409025290100004</v>
+        <v>-4.2409008065054996</v>
       </c>
       <c r="H83" s="1">
-        <v>-2.0712737275464999E-18</v>
+        <v>-1.9953014535059E-18</v>
       </c>
       <c r="I83" s="1">
-        <v>-2.1981495584132001E-17</v>
+        <v>-2.2004883442337001E-17</v>
       </c>
       <c r="J83">
-        <v>-5.6257260605569996</v>
+        <v>-5.6257273910762997</v>
       </c>
       <c r="K83" s="1">
-        <v>5.8598943901028997E-17</v>
+        <v>5.8339260878206996E-17</v>
       </c>
       <c r="L83">
-        <v>9.8665812788916991</v>
+        <v>9.8665808869066005</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="6"/>
-        <v>-1.5770225100316299E-5</v>
+        <v>-1.5770225066565519E-5</v>
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>8.5727321812017347</v>
+        <v>8.5727319661368657</v>
       </c>
       <c r="P83">
         <f t="shared" si="8"/>
-        <v>235.39727515089049</v>
+        <v>235.3972258615743</v>
       </c>
       <c r="Q83">
         <f t="shared" si="9"/>
-        <v>-0.44274160995738315</v>
+        <v>-0.44274142927482446</v>
       </c>
       <c r="R83">
         <f t="shared" si="10"/>
-        <v>7.7461536697243529</v>
+        <v>7.746154138991451</v>
       </c>
       <c r="S83">
         <f t="shared" si="11"/>
-        <v>-3.6727156676807682</v>
+        <v>-3.6727141759481445</v>
       </c>
     </row>
     <row r="84" spans="3:19">
@@ -6360,55 +6361,55 @@
         <v>79</v>
       </c>
       <c r="D84" s="1">
-        <v>1.7137399277445001E-8</v>
+        <v>4.3339771866191001E-4</v>
       </c>
       <c r="E84">
-        <v>9.9170197736620995</v>
+        <v>4.3339771866191001E-4</v>
       </c>
       <c r="F84">
-        <v>-5.4176973250989997</v>
+        <v>4.3339771866191001E-4</v>
       </c>
       <c r="G84">
-        <v>-5.4176973250989997</v>
+        <v>-5.4182785296964999</v>
       </c>
       <c r="H84" s="1">
-        <v>3.3521251603322001E-18</v>
+        <v>9.6570963298616002E-18</v>
       </c>
       <c r="I84" s="1">
-        <v>-1.0489476641884999E-17</v>
+        <v>-9.8750015021379997E-18</v>
       </c>
       <c r="J84">
-        <v>9.9170197736620995</v>
+        <v>9.9175251356406999</v>
       </c>
       <c r="K84" s="1">
-        <v>7.5414878064625996E-18</v>
+        <v>7.4942755281059006E-18</v>
       </c>
       <c r="L84">
-        <v>-4.4993608616934004</v>
+        <v>-4.4992850190744003</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="6"/>
-        <v>-1.2804376766872849E-5</v>
+        <v>-1.2804376733418129E-5</v>
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>8.6006678130490677</v>
+        <v>8.6011223896596967</v>
       </c>
       <c r="P84">
         <f t="shared" si="8"/>
-        <v>241.7380653476618</v>
+        <v>241.77224338366466</v>
       </c>
       <c r="Q84">
         <f t="shared" si="9"/>
-        <v>-0.47018587276986629</v>
+        <v>-0.47015044835700465</v>
       </c>
       <c r="R84">
         <f t="shared" si="10"/>
-        <v>7.6673585493805483</v>
+        <v>7.6679018326686021</v>
       </c>
       <c r="S84">
         <f t="shared" si="11"/>
-        <v>-3.8965497181043696</v>
+        <v>-3.8964840364696505</v>
       </c>
     </row>
     <row r="85" spans="3:19">
@@ -6416,55 +6417,55 @@
         <v>80</v>
       </c>
       <c r="D85" s="1">
-        <v>1.5159123809561001E-6</v>
-      </c>
-      <c r="E85">
-        <v>9.9179074240087992</v>
-      </c>
-      <c r="F85">
-        <v>-5.4130604084426999</v>
+        <v>1.8368904741717E-6</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.8368904741717E-6</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1.8368904741717E-6</v>
       </c>
       <c r="G85">
-        <v>-5.4130604084426999</v>
+        <v>-5.4130936531989002</v>
       </c>
       <c r="H85" s="1">
-        <v>3.1086774492812001E-18</v>
+        <v>3.5099352974175002E-18</v>
       </c>
       <c r="I85" s="1">
-        <v>-6.3948742003447005E-17</v>
+        <v>-6.3809655436107006E-17</v>
       </c>
       <c r="J85">
-        <v>-4.5049126781720004</v>
+        <v>-4.5048735568774001</v>
       </c>
       <c r="K85" s="1">
-        <v>8.2025449695409999E-17</v>
+        <v>8.2013140206095004E-17</v>
       </c>
       <c r="L85">
-        <v>9.9179074240087992</v>
+        <v>9.9179015474704002</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="6"/>
-        <v>-2.1887535300635363E-5</v>
+        <v>-2.1887535300043243E-5</v>
       </c>
       <c r="O85">
         <f t="shared" si="7"/>
-        <v>8.6011728529653535</v>
+        <v>8.601169681085068</v>
       </c>
       <c r="P85">
         <f t="shared" si="8"/>
-        <v>241.85016798821891</v>
+        <v>241.84940975311443</v>
       </c>
       <c r="Q85">
         <f t="shared" si="9"/>
-        <v>-0.47078213587829815</v>
+        <v>-0.47077790375155332</v>
       </c>
       <c r="R85">
         <f t="shared" si="10"/>
-        <v>7.6654839162257504</v>
+        <v>7.6654976003346498</v>
       </c>
       <c r="S85">
         <f t="shared" si="11"/>
-        <v>-3.9013498659659449</v>
+        <v>-3.9013159859309963</v>
       </c>
     </row>
     <row r="86" spans="3:19">
@@ -6472,55 +6473,55 @@
         <v>81</v>
       </c>
       <c r="D86" s="1">
-        <v>2.4283197781472E-6</v>
-      </c>
-      <c r="E86">
-        <v>6.8957410514864996</v>
-      </c>
-      <c r="F86">
-        <v>-11.67925125717</v>
+        <v>1.6791823734374001E-5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.6791823734374001E-5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1.6791823734374001E-5</v>
       </c>
       <c r="G86">
-        <v>4.7833523283602002</v>
+        <v>4.7834009261123001</v>
       </c>
       <c r="H86" s="1">
-        <v>7.4667042730017006E-18</v>
+        <v>7.5742044474240995E-18</v>
       </c>
       <c r="I86" s="1">
-        <v>1.6010514251267999E-17</v>
+        <v>1.6014722571972E-17</v>
       </c>
       <c r="J86">
-        <v>-11.67925125717</v>
+        <v>-11.67929547108</v>
       </c>
       <c r="K86" s="1">
-        <v>4.1612043384110999E-17</v>
+        <v>4.1609959605340002E-17</v>
       </c>
       <c r="L86">
-        <v>6.8957410514864996</v>
+        <v>6.8957366676448997</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="6"/>
-        <v>-5.2625774433323613E-5</v>
+        <v>-5.2625774266642132E-5</v>
       </c>
       <c r="O86">
         <f t="shared" si="7"/>
-        <v>10.169479191831401</v>
+        <v>10.169514523857956</v>
       </c>
       <c r="P86">
         <f t="shared" si="8"/>
-        <v>-385.24273065484329</v>
+        <v>-385.24785810328086</v>
       </c>
       <c r="Q86">
         <f t="shared" si="9"/>
-        <v>0.4195519081003114</v>
+        <v>0.41955488998733331</v>
       </c>
       <c r="R86">
         <f t="shared" si="10"/>
-        <v>9.2874961543282506</v>
+        <v>9.2875160693624519</v>
       </c>
       <c r="S86">
         <f t="shared" si="11"/>
-        <v>4.1425502068689291</v>
+        <v>4.1425922937566693</v>
       </c>
     </row>
     <row r="87" spans="3:19">
@@ -6528,55 +6529,55 @@
         <v>82</v>
       </c>
       <c r="D87" s="1">
-        <v>2.6184841843024001E-5</v>
-      </c>
-      <c r="E87">
-        <v>6.1813312962545996</v>
-      </c>
-      <c r="F87">
-        <v>-12.105765654853</v>
+        <v>2.3665094502912001E-5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2.3665094502912001E-5</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2.3665094502912001E-5</v>
       </c>
       <c r="G87">
-        <v>5.9243830508907998</v>
+        <v>5.9243791746602001</v>
       </c>
       <c r="H87" s="1">
-        <v>-2.5066885277139002E-18</v>
+        <v>-2.5170696114496001E-18</v>
       </c>
       <c r="I87" s="1">
-        <v>1.7440456868931999E-17</v>
+        <v>1.7441000108801999E-17</v>
       </c>
       <c r="J87">
-        <v>6.1813312962545996</v>
+        <v>6.1813310182816004</v>
       </c>
       <c r="K87" s="1">
-        <v>-3.0977919805372001E-18</v>
+        <v>-3.0980545753387001E-18</v>
       </c>
       <c r="L87">
-        <v>-12.105765654853</v>
+        <v>-12.105761500650001</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="6"/>
-        <v>-1.7102569200252066E-5</v>
+        <v>-1.7102569400388273E-5</v>
       </c>
       <c r="O87">
         <f t="shared" si="7"/>
-        <v>10.484672937604676</v>
+        <v>10.484669362275092</v>
       </c>
       <c r="P87">
         <f t="shared" si="8"/>
-        <v>-443.32197144780179</v>
+        <v>-443.3215093240027</v>
       </c>
       <c r="Q87">
         <f t="shared" si="9"/>
-        <v>0.51134495149709913</v>
+        <v>0.51134477570924852</v>
       </c>
       <c r="R87">
         <f t="shared" si="10"/>
-        <v>9.1435484755538017</v>
+        <v>9.1435462594657793</v>
       </c>
       <c r="S87">
         <f t="shared" si="11"/>
-        <v>5.1306810350807819</v>
+        <v>5.1306776781668253</v>
       </c>
     </row>
     <row r="88" spans="3:19">
@@ -6584,55 +6585,55 @@
         <v>83</v>
       </c>
       <c r="D88" s="1">
-        <v>4.5501237444512003E-8</v>
-      </c>
-      <c r="E88">
-        <v>7.9385858170640997</v>
-      </c>
-      <c r="F88">
-        <v>-9.6544047399112998</v>
+        <v>4.5501222123433998E-8</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4.5501222123433998E-8</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4.5501222123433998E-8</v>
       </c>
       <c r="G88">
-        <v>7.9385858170640997</v>
+        <v>7.9385859085144999</v>
       </c>
       <c r="H88" s="1">
-        <v>5.0905985925878004E-16</v>
+        <v>3.9471274058834001E-16</v>
       </c>
       <c r="I88" s="1">
-        <v>8.1155641151546996E-17</v>
+        <v>6.7728070867662004E-17</v>
       </c>
       <c r="J88">
-        <v>1.7156875359823001</v>
+        <v>1.7156872580093001</v>
       </c>
       <c r="K88" s="1">
-        <v>-2.951509412907E-16</v>
+        <v>-2.9176836356384002E-16</v>
       </c>
       <c r="L88">
-        <v>-9.6544047399112998</v>
+        <v>-9.6544045533885008</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="6"/>
-        <v>-4.379562163355407E-5</v>
+        <v>-4.3795621566644627E-5</v>
       </c>
       <c r="O88">
         <f t="shared" si="7"/>
-        <v>8.9211058555619616</v>
+        <v>8.9211057685943533</v>
       </c>
       <c r="P88">
         <f t="shared" si="8"/>
-        <v>-131.49775960404395</v>
+        <v>-131.49773727378889</v>
       </c>
       <c r="Q88">
         <f t="shared" si="9"/>
-        <v>0.16733620898526566</v>
+        <v>0.16733618326516644</v>
       </c>
       <c r="R88">
         <f t="shared" si="10"/>
-        <v>8.7964952784876989</v>
+        <v>8.7964952309514999</v>
       </c>
       <c r="S88">
         <f t="shared" si="11"/>
-        <v>1.4858669192379097</v>
+        <v>1.4858666785061718</v>
       </c>
     </row>
     <row r="89" spans="3:19">
@@ -6640,55 +6641,55 @@
         <v>84</v>
       </c>
       <c r="D89" s="1">
-        <v>1.4260270320143E-7</v>
-      </c>
-      <c r="E89">
-        <v>8.9861280138577992</v>
-      </c>
-      <c r="F89">
-        <v>-7.5178285091008998</v>
+        <v>1.4260270342348E-7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.4260270342348E-7</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1.4260270342348E-7</v>
       </c>
       <c r="G89">
-        <v>-1.4683638192548001</v>
+        <v>-1.4683637278043999</v>
       </c>
       <c r="H89" s="1">
-        <v>6.8874691294857001E-17</v>
+        <v>-1.2401389313510999E-17</v>
       </c>
       <c r="I89" s="1">
-        <v>-1.4621729665959E-16</v>
+        <v>-1.5349255071432E-16</v>
       </c>
       <c r="J89">
-        <v>-7.5178285091008998</v>
+        <v>-7.5178285704648999</v>
       </c>
       <c r="K89" s="1">
-        <v>8.5098407869247001E-17</v>
+        <v>8.3330340771982995E-17</v>
       </c>
       <c r="L89">
-        <v>8.9861280138577992</v>
+        <v>8.9861279837716008</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="6"/>
-        <v>-2.1438165966595573E-5</v>
+        <v>-2.143816589968613E-5</v>
       </c>
       <c r="O89">
         <f t="shared" si="7"/>
-        <v>8.3493812488713175</v>
+        <v>8.3493812522657702</v>
       </c>
       <c r="P89">
         <f t="shared" si="8"/>
-        <v>99.195540367893088</v>
+        <v>99.195534667431232</v>
       </c>
       <c r="Q89">
         <f t="shared" si="9"/>
-        <v>-0.15289634331356725</v>
+        <v>-0.15289633365342417</v>
       </c>
       <c r="R89">
         <f t="shared" si="10"/>
-        <v>8.2519782614793495</v>
+        <v>8.2519782771182513</v>
       </c>
       <c r="S89">
         <f t="shared" si="11"/>
-        <v>-1.2716218034762607</v>
+        <v>-1.2716217242779495</v>
       </c>
     </row>
     <row r="90" spans="3:19">
@@ -6696,55 +6697,55 @@
         <v>85</v>
       </c>
       <c r="D90" s="1">
-        <v>1.0678938810126999E-5</v>
-      </c>
-      <c r="E90">
-        <v>9.8220313548620997</v>
-      </c>
-      <c r="F90">
-        <v>-5.7631511850784003</v>
+        <v>1.36745365793E-5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.36745365793E-5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.36745365793E-5</v>
       </c>
       <c r="G90">
-        <v>-5.7631511850784003</v>
+        <v>-5.7631417131568998</v>
       </c>
       <c r="H90" s="1">
-        <v>3.6129342522888999E-17</v>
+        <v>2.10834240961E-17</v>
       </c>
       <c r="I90" s="1">
-        <v>-1.158026830041E-17</v>
+        <v>-1.2002502426291E-17</v>
       </c>
       <c r="J90">
-        <v>9.8220313548620997</v>
+        <v>9.8220393461204001</v>
       </c>
       <c r="K90" s="1">
-        <v>2.7064118579702001E-18</v>
+        <v>2.2571631755803999E-18</v>
       </c>
       <c r="L90">
-        <v>-4.0588876390308002</v>
+        <v>-4.0589051022104004</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="6"/>
-        <v>-2.4897490336073247E-6</v>
+        <v>-2.4897489666978836E-6</v>
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>8.5487069309990744</v>
+        <v>8.5487124747355185</v>
       </c>
       <c r="P90">
         <f t="shared" si="8"/>
-        <v>229.75660957733547</v>
+        <v>229.75740741294589</v>
       </c>
       <c r="Q90">
         <f t="shared" si="9"/>
-        <v>-0.42375335328148767</v>
+        <v>-0.423755001520631</v>
       </c>
       <c r="R90">
         <f t="shared" si="10"/>
-        <v>7.7925912699702504</v>
+        <v>7.7925905296386508</v>
       </c>
       <c r="S90">
         <f t="shared" si="11"/>
-        <v>-3.5150976503214046</v>
+        <v>-3.5151127738786259</v>
       </c>
     </row>
     <row r="91" spans="3:19">
@@ -6752,55 +6753,55 @@
         <v>86</v>
       </c>
       <c r="D91" s="1">
-        <v>3.3005384857686998E-4</v>
+        <v>3.6216581885551E-4</v>
       </c>
       <c r="E91">
-        <v>6.6040820576385997</v>
+        <v>3.6216581885551E-4</v>
       </c>
       <c r="F91">
-        <v>-11.957469249680999</v>
+        <v>3.6216581885551E-4</v>
       </c>
       <c r="G91">
-        <v>-11.957469249680999</v>
+        <v>-11.957517673770001</v>
       </c>
       <c r="H91" s="1">
-        <v>1.3440177819139001E-17</v>
+        <v>7.5581006961172001E-18</v>
       </c>
       <c r="I91" s="1">
-        <v>-5.1475695228905E-17</v>
+        <v>-5.1631902881961997E-17</v>
       </c>
       <c r="J91">
-        <v>6.6040820576385997</v>
+        <v>6.6041118861486003</v>
       </c>
       <c r="K91" s="1">
-        <v>3.1681032902798002E-17</v>
+        <v>3.1654008918352999E-17</v>
       </c>
       <c r="L91">
-        <v>5.3533308856854998</v>
+        <v>5.3533494812646003</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="6"/>
-        <v>-1.8768785633227481E-5</v>
+        <v>-1.8768785600068821E-5</v>
       </c>
       <c r="O91">
         <f t="shared" si="7"/>
-        <v>10.374322200791438</v>
+        <v>10.374364399585893</v>
       </c>
       <c r="P91">
         <f t="shared" si="8"/>
-        <v>-422.74443223804622</v>
+        <v>-422.74952210102782</v>
       </c>
       <c r="Q91">
         <f t="shared" si="9"/>
-        <v>0.46328110432948316</v>
+        <v>0.46328080761023233</v>
       </c>
       <c r="R91">
         <f t="shared" si="10"/>
-        <v>9.280775653659795</v>
+        <v>9.2808147799593019</v>
       </c>
       <c r="S91">
         <f t="shared" si="11"/>
-        <v>4.6361367961126554</v>
+        <v>4.6361529003565183</v>
       </c>
     </row>
     <row r="92" spans="3:19">
@@ -6808,55 +6809,55 @@
         <v>87</v>
       </c>
       <c r="D92" s="1">
-        <v>2.1878929712393001E-7</v>
-      </c>
-      <c r="E92">
-        <v>9.7721848262860007</v>
-      </c>
-      <c r="F92">
-        <v>-5.8931037100447003</v>
+        <v>7.1794561962156997E-7</v>
+      </c>
+      <c r="E92" s="1">
+        <v>7.1794561962156997E-7</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7.1794561962156997E-7</v>
       </c>
       <c r="G92">
-        <v>-3.8792671456954002</v>
+        <v>-3.8792760356335001</v>
       </c>
       <c r="H92" s="1">
-        <v>4.4230803416658999E-18</v>
+        <v>4.1952565521567998E-18</v>
       </c>
       <c r="I92" s="1">
-        <v>2.3759308805939E-17</v>
+        <v>2.3730937999940001E-17</v>
       </c>
       <c r="J92">
-        <v>-5.8931037100447003</v>
+        <v>-5.8930979650444</v>
       </c>
       <c r="K92" s="1">
-        <v>4.8817759418651002E-17</v>
+        <v>4.8814222944545999E-17</v>
       </c>
       <c r="L92">
-        <v>9.7721848262860007</v>
+        <v>9.7721879712239001</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="6"/>
-        <v>-6.2009818032985706E-5</v>
+        <v>-6.2009817999827036E-5</v>
       </c>
       <c r="O92">
         <f t="shared" si="7"/>
-        <v>8.5227044179818012</v>
+        <v>8.5227062579807438</v>
       </c>
       <c r="P92">
         <f t="shared" si="8"/>
-        <v>223.39666662681182</v>
+        <v>223.39703269210722</v>
       </c>
       <c r="Q92">
         <f t="shared" si="9"/>
-        <v>-0.40517678728186657</v>
+        <v>-0.40517767760942153</v>
       </c>
       <c r="R92">
         <f t="shared" si="10"/>
-        <v>7.8326442681653479</v>
+        <v>7.8326429681341505</v>
       </c>
       <c r="S92">
         <f t="shared" si="11"/>
-        <v>-3.3594901941608684</v>
+        <v>-3.3594978930731272</v>
       </c>
     </row>
     <row r="93" spans="3:19">
@@ -6864,55 +6865,55 @@
         <v>88</v>
       </c>
       <c r="D93" s="1">
-        <v>3.1034052150325001E-7</v>
-      </c>
-      <c r="E93">
-        <v>6.1438141470180003</v>
-      </c>
-      <c r="F93">
-        <v>-12.109125357163</v>
+        <v>3.2834906726897002E-7</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3.2834906726897002E-7</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3.2834906726897002E-7</v>
       </c>
       <c r="G93">
-        <v>5.9653102344729998</v>
+        <v>5.9653099247826002</v>
       </c>
       <c r="H93" s="1">
-        <v>-3.5408123056132003E-18</v>
+        <v>-3.5509942142102003E-18</v>
       </c>
       <c r="I93" s="1">
-        <v>9.5152860267434998E-18</v>
+        <v>9.5099014742016004E-18</v>
       </c>
       <c r="J93">
-        <v>6.1438141470180003</v>
+        <v>6.1438144626672999</v>
       </c>
       <c r="K93" s="1">
-        <v>-1.1677448390031E-16</v>
+        <v>-1.1677513361083001E-16</v>
       </c>
       <c r="L93">
-        <v>-12.109125357163</v>
+        <v>-12.109125363121001</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="6"/>
-        <v>-3.2522400002695423E-7</v>
+        <v>-3.2522370041476734E-7</v>
       </c>
       <c r="O93">
         <f t="shared" si="7"/>
-        <v>10.487189694624925</v>
+        <v>10.487189702445781</v>
       </c>
       <c r="P93">
         <f t="shared" si="8"/>
-        <v>-443.79654255467989</v>
+        <v>-443.7965425340405</v>
       </c>
       <c r="Q93">
         <f t="shared" si="9"/>
-        <v>0.51508810340456912</v>
+        <v>0.51508807359538822</v>
       </c>
       <c r="R93">
         <f t="shared" si="10"/>
-        <v>9.1264697520905091</v>
+        <v>9.1264699128941214</v>
       </c>
       <c r="S93">
         <f t="shared" si="11"/>
-        <v>5.1661104861611555</v>
+        <v>5.166110217961208</v>
       </c>
     </row>
     <row r="94" spans="3:19">
@@ -6920,55 +6921,55 @@
         <v>89</v>
       </c>
       <c r="D94" s="1">
-        <v>3.8069002524343999E-5</v>
-      </c>
-      <c r="E94">
-        <v>6.065925388188</v>
-      </c>
-      <c r="F94">
-        <v>-12.112436157687</v>
+        <v>3.8068612786546002E-5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3.8068612786546002E-5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3.8068612786546002E-5</v>
       </c>
       <c r="G94">
-        <v>6.065925388188</v>
+        <v>6.0659253761532996</v>
       </c>
       <c r="H94" s="1">
-        <v>-3.128654616386E-18</v>
+        <v>-3.1290271647373001E-18</v>
       </c>
       <c r="I94" s="1">
-        <v>2.5805805554523999E-17</v>
+        <v>2.5804964120375E-17</v>
       </c>
       <c r="J94">
-        <v>6.0463293197965999</v>
+        <v>6.0463293313105</v>
       </c>
       <c r="K94" s="1">
-        <v>-7.1251888442113007E-18</v>
+        <v>-7.1252907233455005E-18</v>
       </c>
       <c r="L94">
-        <v>-12.112436157687</v>
+        <v>-12.112436157166</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="6"/>
-        <v>-6.048323413310186E-5</v>
+        <v>-6.048323406678454E-5</v>
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>10.489629610276154</v>
+        <v>10.489629609814013</v>
       </c>
       <c r="P94">
         <f t="shared" si="8"/>
-        <v>-444.24941944308216</v>
+        <v>-444.24941938855733</v>
       </c>
       <c r="Q94">
         <f t="shared" si="9"/>
-        <v>0.5226647068099286</v>
+        <v>0.52266470793238051</v>
       </c>
       <c r="R94">
         <f t="shared" si="10"/>
-        <v>9.0891807729375262</v>
+        <v>9.0891807666595597</v>
       </c>
       <c r="S94">
         <f t="shared" si="11"/>
-        <v>5.2363271706077592</v>
+        <v>5.2363271805792309</v>
       </c>
     </row>
     <row r="95" spans="3:19">
@@ -6976,55 +6977,55 @@
         <v>90</v>
       </c>
       <c r="D95" s="1">
-        <v>9.1692610570736998E-5</v>
-      </c>
-      <c r="E95">
-        <v>7.0018327059768</v>
-      </c>
-      <c r="F95">
-        <v>-11.526099338698</v>
+        <v>9.1692601650094995E-5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9.1692601650094995E-5</v>
+      </c>
+      <c r="F95" s="1">
+        <v>9.1692601650094995E-5</v>
       </c>
       <c r="G95">
-        <v>4.5242083765023002</v>
+        <v>4.5242083751911002</v>
       </c>
       <c r="H95" s="1">
-        <v>1.0881280208077999E-17</v>
+        <v>1.0864493780609999E-17</v>
       </c>
       <c r="I95" s="1">
-        <v>1.4713385416423001E-17</v>
+        <v>1.4713340229385001E-17</v>
       </c>
       <c r="J95">
-        <v>-11.526099338698</v>
+        <v>-11.526099337882</v>
       </c>
       <c r="K95" s="1">
-        <v>-6.4325775561174002E-17</v>
+        <v>-6.4325791994451002E-17</v>
       </c>
       <c r="L95">
-        <v>7.0018327059768</v>
+        <v>7.0018327064718999</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" ref="N95:N105" si="12">(G95+J95+L95)/3</f>
-        <v>-1.9418739633181303E-5</v>
+        <v>-1.9418739666636025E-5</v>
       </c>
       <c r="O95">
         <f t="shared" ref="O95:O105" si="13">SQRT(0.5*((G95-N95)^2+2*H95^2+2*I95^2+(J95-N95)^2+2*K95^2+(L95-N95)^2))</f>
-        <v>10.058456358728787</v>
+        <v>10.058456358138695</v>
       </c>
       <c r="P95">
         <f t="shared" ref="P95:P105" si="14">(G95-N95)*(J95-N95)*(L95-N95)</f>
-        <v>-365.12286003576708</v>
+        <v>-365.12285992992008</v>
       </c>
       <c r="Q95">
         <f t="shared" ref="Q95:Q105" si="15">ASIN(-1.5*SQRT(3)*P95/POWER(O95,3))/3</f>
-        <v>0.40012400430472966</v>
+        <v>0.40012400420696981</v>
       </c>
       <c r="R95">
         <f t="shared" ref="R95:R105" si="16">O95*COS(Q95)</f>
-        <v>9.2639660223373976</v>
+        <v>9.2639660221769482</v>
       </c>
       <c r="S95">
         <f t="shared" ref="S95:S105" si="17">O95*SIN(Q95)</f>
-        <v>3.9180962031871789</v>
+        <v>3.9180962020516752</v>
       </c>
     </row>
     <row r="96" spans="3:19">
@@ -7032,55 +7033,55 @@
         <v>91</v>
       </c>
       <c r="D96" s="1">
-        <v>4.0546581647760001E-7</v>
-      </c>
-      <c r="E96">
-        <v>6.2488415859042998</v>
-      </c>
-      <c r="F96">
-        <v>-12.096158690092</v>
+        <v>4.0546581869804998E-7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4.0546581869804998E-7</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4.0546581869804998E-7</v>
       </c>
       <c r="G96">
-        <v>-12.096158690092</v>
+        <v>-12.096158690097999</v>
       </c>
       <c r="H96" s="1">
-        <v>1.6862676640985001E-17</v>
+        <v>1.6854970167757001E-17</v>
       </c>
       <c r="I96" s="1">
-        <v>-1.5923448407668E-16</v>
+        <v>-1.5923450385208999E-16</v>
       </c>
       <c r="J96">
-        <v>5.8473141650066998</v>
+        <v>5.8473141650478997</v>
       </c>
       <c r="K96" s="1">
-        <v>2.4420457143409001E-17</v>
+        <v>2.4420454800488001E-17</v>
       </c>
       <c r="L96">
-        <v>6.2488415859042998</v>
+        <v>6.2488415858693003</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>-9.7972700026834514E-7</v>
+        <v>-9.7972693306284486E-7</v>
       </c>
       <c r="O96">
         <f t="shared" si="13"/>
-        <v>10.477503499543683</v>
+        <v>10.477503499548208</v>
       </c>
       <c r="P96">
         <f t="shared" si="14"/>
-        <v>-441.98092319431333</v>
+        <v>-441.98092319516388</v>
       </c>
       <c r="Q96">
         <f t="shared" si="15"/>
-        <v>0.50443619570772558</v>
+        <v>0.504436195711368</v>
       </c>
       <c r="R96">
         <f t="shared" si="16"/>
-        <v>9.1725001379981439</v>
+        <v>9.1725001379836595</v>
       </c>
       <c r="S96">
         <f t="shared" si="17"/>
-        <v>5.0639234592728775</v>
+        <v>5.0639234593084739</v>
       </c>
     </row>
     <row r="97" spans="3:19">
@@ -7088,55 +7089,55 @@
         <v>92</v>
       </c>
       <c r="D97" s="1">
-        <v>8.3383895177479992E-6</v>
-      </c>
-      <c r="E97">
-        <v>9.7416528669584999</v>
-      </c>
-      <c r="F97">
-        <v>-5.9653047066346998</v>
+        <v>8.3383895226330008E-6</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8.3383895226330008E-6</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8.3383895226330008E-6</v>
       </c>
       <c r="G97">
-        <v>-5.9653047066346998</v>
+        <v>-5.9653047066321996</v>
       </c>
       <c r="H97" s="1">
-        <v>3.8223074333187004E-18</v>
+        <v>3.5772273441869999E-18</v>
       </c>
       <c r="I97" s="1">
-        <v>-2.6734568611917E-17</v>
+        <v>-2.6734569647908999E-17</v>
       </c>
       <c r="J97">
-        <v>9.7416528669584999</v>
+        <v>9.7416528669595994</v>
       </c>
       <c r="K97" s="1">
-        <v>3.4533540473305998E-18</v>
+        <v>3.4533535120445001E-18</v>
       </c>
       <c r="L97">
-        <v>-3.7764124480804</v>
+        <v>-3.7764124480837999</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>-2.1429252199981857E-5</v>
+        <v>-2.1429252133368475E-5</v>
       </c>
       <c r="O97">
         <f t="shared" si="13"/>
-        <v>8.5072308009115929</v>
+        <v>8.5072308009121009</v>
       </c>
       <c r="P97">
         <f t="shared" si="14"/>
-        <v>219.45305624067223</v>
+        <v>219.45305624080737</v>
       </c>
       <c r="Q97">
         <f t="shared" si="15"/>
-        <v>-0.39459230917746829</v>
+        <v>-0.3945923091778254</v>
       </c>
       <c r="R97">
         <f t="shared" si="16"/>
-        <v>7.8534787867965985</v>
+        <v>7.8534787867958995</v>
       </c>
       <c r="S97">
         <f t="shared" si="17"/>
-        <v>-3.2704505569286213</v>
+        <v>-3.2704505569316216</v>
       </c>
     </row>
     <row r="98" spans="3:19">
@@ -7144,55 +7145,55 @@
         <v>93</v>
       </c>
       <c r="D98" s="1">
-        <v>2.1451042120368E-7</v>
-      </c>
-      <c r="E98">
-        <v>9.8480817325140997</v>
-      </c>
-      <c r="F98">
-        <v>-5.6860749794921004</v>
+        <v>3.3245002106773999E-7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3.3245002106773999E-7</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3.3245002106773999E-7</v>
       </c>
       <c r="G98">
-        <v>-4.1621536506143997</v>
+        <v>-4.1621540668263997</v>
       </c>
       <c r="H98" s="1">
-        <v>5.7202797386002001E-18</v>
+        <v>5.7108904304528002E-18</v>
       </c>
       <c r="I98" s="1">
-        <v>-1.0630846462974E-17</v>
+        <v>-1.063084739815E-17</v>
       </c>
       <c r="J98">
-        <v>-5.6860749794921004</v>
+        <v>-5.6860747997851</v>
       </c>
       <c r="K98" s="1">
-        <v>-1.7827937990469001E-17</v>
+        <v>-1.7827984913785001E-17</v>
       </c>
       <c r="L98">
-        <v>9.8480817325140997</v>
+        <v>9.8480819690191996</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>-4.8965864133757954E-5</v>
+        <v>-4.8965864100007174E-5</v>
       </c>
       <c r="O98">
         <f t="shared" si="13"/>
-        <v>8.5627006687964347</v>
+        <v>8.5627008462890615</v>
       </c>
       <c r="P98">
         <f t="shared" si="14"/>
-        <v>233.06424117829113</v>
+        <v>233.06426271589248</v>
       </c>
       <c r="Q98">
         <f t="shared" si="15"/>
-        <v>-0.43449489432026761</v>
+        <v>-0.43449493110813669</v>
       </c>
       <c r="R98">
         <f t="shared" si="16"/>
-        <v>7.7670783560031014</v>
+        <v>7.7670783844021525</v>
       </c>
       <c r="S98">
         <f t="shared" si="17"/>
-        <v>-3.6044883902039508</v>
+        <v>-3.6044887506541428</v>
       </c>
     </row>
     <row r="99" spans="3:19">
@@ -7200,55 +7201,55 @@
         <v>94</v>
       </c>
       <c r="D99" s="1">
-        <v>1.4579131013548001E-8</v>
-      </c>
-      <c r="E99">
-        <v>8.7090280740377004</v>
-      </c>
-      <c r="F99">
-        <v>-8.0830018236397994</v>
+        <v>1.4579129903325001E-8</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1.4579129903325001E-8</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1.4579129903325001E-8</v>
       </c>
       <c r="G99">
-        <v>8.7090280740377004</v>
+        <v>8.7090280149160009</v>
       </c>
       <c r="H99" s="1">
-        <v>-1.1624944008889E-16</v>
+        <v>-3.7066187341609998E-16</v>
       </c>
       <c r="I99" s="1">
-        <v>7.5337576711036E-17</v>
+        <v>7.7497408661078995E-17</v>
       </c>
       <c r="J99">
-        <v>-0.62605879505373996</v>
+        <v>-0.62605861534674001</v>
       </c>
       <c r="K99" s="1">
-        <v>1.0854880558351999E-16</v>
+        <v>1.0410441919476E-16</v>
       </c>
       <c r="L99">
-        <v>-8.0830018236397994</v>
+        <v>-8.0830019442249004</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>-1.0848218613190852E-5</v>
+        <v>-1.084821854628141E-5</v>
       </c>
       <c r="O99">
         <f t="shared" si="13"/>
-        <v>8.4135021866596151</v>
+        <v>8.4135022072984604</v>
       </c>
       <c r="P99">
         <f t="shared" si="14"/>
-        <v>44.070697187695679</v>
+        <v>44.070684895498481</v>
       </c>
       <c r="Q99">
         <f t="shared" si="15"/>
-        <v>-6.4485556364121496E-2</v>
+        <v>-6.4485537669448492E-2</v>
       </c>
       <c r="R99">
         <f t="shared" si="16"/>
-        <v>8.3960149488387508</v>
+        <v>8.3960149795704524</v>
       </c>
       <c r="S99">
         <f t="shared" si="17"/>
-        <v>-0.54217342594630924</v>
+        <v>-0.54217327031553997</v>
       </c>
     </row>
     <row r="100" spans="3:19">
@@ -7256,55 +7257,55 @@
         <v>95</v>
       </c>
       <c r="D100" s="1">
-        <v>7.4795725746313002E-7</v>
-      </c>
-      <c r="E100">
-        <v>6.2137558866134999</v>
-      </c>
-      <c r="F100">
-        <v>-12.101756418716</v>
+        <v>4.6107918549865E-7</v>
+      </c>
+      <c r="E100" s="1">
+        <v>4.6107918549865E-7</v>
+      </c>
+      <c r="F100" s="1">
+        <v>4.6107918549865E-7</v>
       </c>
       <c r="G100">
-        <v>5.8878286820254999</v>
+        <v>5.8878279846261998</v>
       </c>
       <c r="H100" s="1">
-        <v>-2.44619750102E-18</v>
+        <v>-9.1030858298415006E-18</v>
       </c>
       <c r="I100" s="1">
-        <v>4.5738834653169E-17</v>
+        <v>4.5997855033974002E-17</v>
       </c>
       <c r="J100">
-        <v>6.2137558866134999</v>
+        <v>6.2137560741889004</v>
       </c>
       <c r="K100" s="1">
-        <v>5.7091492681413003E-18</v>
+        <v>5.2081071763736996E-18</v>
       </c>
       <c r="L100">
-        <v>-12.101756418716</v>
+        <v>-12.101755908892001</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>-5.728335900023751E-5</v>
+        <v>-5.7283358967078847E-5</v>
       </c>
       <c r="O100">
         <f t="shared" si="13"/>
-        <v>10.481645796710453</v>
+        <v>10.481645362122904</v>
       </c>
       <c r="P100">
         <f t="shared" si="14"/>
-        <v>-442.75546754121126</v>
+        <v>-442.75540981124112</v>
       </c>
       <c r="Q100">
         <f t="shared" si="15"/>
-        <v>0.50805062871604378</v>
+        <v>0.50805058585078799</v>
       </c>
       <c r="R100">
         <f t="shared" si="16"/>
-        <v>9.1577561526647457</v>
+        <v>9.1577559915404425</v>
       </c>
       <c r="S100">
         <f t="shared" si="17"/>
-        <v>5.0990588206088496</v>
+        <v>5.099058216643316</v>
       </c>
     </row>
     <row r="101" spans="3:19">
@@ -7312,55 +7313,55 @@
         <v>96</v>
       </c>
       <c r="D101" s="1">
-        <v>9.9685517613856994E-6</v>
-      </c>
-      <c r="E101">
-        <v>6.4184459228649002</v>
-      </c>
-      <c r="F101">
-        <v>-12.050538383888</v>
+        <v>8.7424485626375008E-6</v>
+      </c>
+      <c r="E101" s="1">
+        <v>8.7424485626375008E-6</v>
+      </c>
+      <c r="F101" s="1">
+        <v>8.7424485626375008E-6</v>
       </c>
       <c r="G101">
-        <v>5.6320326119038002</v>
+        <v>5.6320318274535</v>
       </c>
       <c r="H101" s="1">
-        <v>-4.0673093104577002E-17</v>
+        <v>-4.2459485841528E-17</v>
       </c>
       <c r="I101" s="1">
-        <v>1.4807466270274999E-17</v>
+        <v>1.4824303066295001E-17</v>
       </c>
       <c r="J101">
-        <v>-12.050538383888</v>
+        <v>-12.050536494214001</v>
       </c>
       <c r="K101" s="1">
-        <v>-9.2792336499078996E-17</v>
+        <v>-9.2911128549813994E-17</v>
       </c>
       <c r="L101">
-        <v>6.4184459228649002</v>
+        <v>6.4184448176415998</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>-1.9949706433190311E-5</v>
+        <v>-1.9949706300259606E-5</v>
       </c>
       <c r="O101">
         <f t="shared" si="13"/>
-        <v>10.443460028808772</v>
+        <v>10.443458387424853</v>
       </c>
       <c r="P101">
         <f t="shared" si="14"/>
-        <v>-435.61584371697757</v>
+        <v>-435.61563972237218</v>
       </c>
       <c r="Q101">
         <f t="shared" si="15"/>
-        <v>0.48593887982012679</v>
+        <v>0.4859388892668739</v>
       </c>
       <c r="R101">
         <f t="shared" si="16"/>
-        <v>9.2344921533764488</v>
+        <v>9.2344906559278019</v>
       </c>
       <c r="S101">
         <f t="shared" si="17"/>
-        <v>4.8775005938036857</v>
+        <v>4.877499914449678</v>
       </c>
     </row>
     <row r="102" spans="3:19">
@@ -7368,55 +7369,55 @@
         <v>97</v>
       </c>
       <c r="D102" s="1">
-        <v>1.9423865310952E-4</v>
+        <v>1.6385004158902999E-4</v>
       </c>
       <c r="E102">
-        <v>9.9498373445830008</v>
+        <v>1.6385004158902999E-4</v>
       </c>
       <c r="F102">
-        <v>-5.1814452956019998</v>
+        <v>1.6385004158902999E-4</v>
       </c>
       <c r="G102">
-        <v>-4.7684220174577998</v>
+        <v>-4.7683211273578001</v>
       </c>
       <c r="H102" s="1">
-        <v>2.8808753373774998E-18</v>
+        <v>2.7577089611368998E-18</v>
       </c>
       <c r="I102" s="1">
-        <v>-7.3835367617291997E-17</v>
+        <v>-7.3830839400239006E-17</v>
       </c>
       <c r="J102">
-        <v>-5.1814452956019998</v>
+        <v>-5.1815005099578997</v>
       </c>
       <c r="K102" s="1">
-        <v>8.6254845495015998E-17</v>
+        <v>8.6229383247212006E-17</v>
       </c>
       <c r="L102">
-        <v>9.9498373445830008</v>
+        <v>9.9497916688389996</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>-9.989492266271327E-6</v>
+        <v>-9.9894922337047855E-6</v>
       </c>
       <c r="O102">
         <f t="shared" si="13"/>
-        <v>8.6192948398129285</v>
+        <v>8.6192571652462995</v>
       </c>
       <c r="P102">
         <f t="shared" si="14"/>
-        <v>245.83305148565029</v>
+        <v>245.82934122736864</v>
       </c>
       <c r="Q102">
         <f t="shared" si="15"/>
-        <v>-0.49963725602746467</v>
+        <v>-0.49962809310771844</v>
       </c>
       <c r="R102">
         <f t="shared" si="16"/>
-        <v>7.5656413200925003</v>
+        <v>7.5656460893984505</v>
       </c>
       <c r="S102">
         <f t="shared" si="17"/>
-        <v>-4.1295659519294254</v>
+        <v>-4.1294785785398629</v>
       </c>
     </row>
     <row r="103" spans="3:19">
@@ -7424,55 +7425,55 @@
         <v>98</v>
       </c>
       <c r="D103" s="1">
-        <v>5.2442265643648999E-4</v>
-      </c>
-      <c r="E103">
-        <v>9.9097240140769998</v>
-      </c>
-      <c r="F103">
-        <v>-5.4575050127083999</v>
+        <v>8.9560028282419993E-9</v>
+      </c>
+      <c r="E103" s="1">
+        <v>8.9560028282419993E-9</v>
+      </c>
+      <c r="F103" s="1">
+        <v>8.9560028282419993E-9</v>
       </c>
       <c r="G103">
-        <v>-5.4575050127083999</v>
+        <v>-5.4570304470432003</v>
       </c>
       <c r="H103" s="1">
-        <v>9.5484624800724001E-18</v>
+        <v>1.0862501578306999E-17</v>
       </c>
       <c r="I103" s="1">
-        <v>-1.4461466066838999E-17</v>
+        <v>-1.4772296318421999E-17</v>
       </c>
       <c r="J103">
-        <v>9.9097240140769998</v>
+        <v>9.9090703530133997</v>
       </c>
       <c r="K103" s="1">
-        <v>5.6561789011002999E-17</v>
+        <v>5.6541665516448005E-17</v>
       </c>
       <c r="L103">
-        <v>-4.4522731284350003</v>
+        <v>-4.4520940330364001</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>-1.8042355466837041E-5</v>
+        <v>-1.8042355400223659E-5</v>
       </c>
       <c r="O103">
         <f t="shared" si="13"/>
-        <v>8.596793792109926</v>
+        <v>8.5962200367064643</v>
       </c>
       <c r="P103">
         <f t="shared" si="14"/>
-        <v>240.78814249395921</v>
+        <v>240.74163856046565</v>
       </c>
       <c r="Q103">
         <f t="shared" si="15"/>
-        <v>-0.46509990528840084</v>
+        <v>-0.46511321181738469</v>
       </c>
       <c r="R103">
         <f t="shared" si="16"/>
-        <v>7.683614513392703</v>
+        <v>7.6830504000283018</v>
       </c>
       <c r="S103">
         <f t="shared" si="17"/>
-        <v>-3.8557660086733452</v>
+        <v>-3.8556109075085145</v>
       </c>
     </row>
     <row r="104" spans="3:19">
@@ -7480,55 +7481,55 @@
         <v>99</v>
       </c>
       <c r="D104" s="1">
-        <v>8.6112687629479993E-6</v>
-      </c>
-      <c r="E104">
-        <v>9.9510450846980998</v>
-      </c>
-      <c r="F104">
-        <v>-5.1631857206190004</v>
+        <v>3.4668188690912002E-6</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3.4668188690912002E-6</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3.4668188690912002E-6</v>
       </c>
       <c r="G104">
-        <v>-4.7879464032358996</v>
+        <v>-4.7879012358236004</v>
       </c>
       <c r="H104" s="1">
-        <v>-3.8327150309371002E-18</v>
+        <v>-3.7938837940440997E-18</v>
       </c>
       <c r="I104" s="1">
-        <v>3.2557768545798998E-17</v>
+        <v>3.2497458488684999E-17</v>
       </c>
       <c r="J104">
-        <v>-5.1631857206190004</v>
+        <v>-5.1632212571564997</v>
       </c>
       <c r="K104" s="1">
-        <v>-2.4554814201883998E-17</v>
+        <v>-2.4558258275982999E-17</v>
       </c>
       <c r="L104">
-        <v>9.9510450846980998</v>
+        <v>9.9510354538233994</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>-2.90130522670277E-5</v>
+        <v>-2.9013052233869036E-5</v>
       </c>
       <c r="O104">
         <f t="shared" si="13"/>
-        <v>8.6199250524883464</v>
+        <v>8.6199175922707898</v>
       </c>
       <c r="P104">
         <f t="shared" si="14"/>
-        <v>245.99819201566902</v>
+        <v>245.99732639875853</v>
       </c>
       <c r="Q104">
         <f t="shared" si="15"/>
-        <v>-0.501831245734636</v>
+        <v>-0.50182654453482933</v>
       </c>
       <c r="R104">
         <f t="shared" si="16"/>
-        <v>7.5571154026585461</v>
+        <v>7.5571283554899473</v>
       </c>
       <c r="S104">
         <f t="shared" si="17"/>
-        <v>-4.146458091120321</v>
+        <v>-4.1464189749938747</v>
       </c>
     </row>
     <row r="105" spans="3:19">
@@ -7536,55 +7537,55 @@
         <v>100</v>
       </c>
       <c r="D105" s="1">
-        <v>8.8740789228048004E-7</v>
-      </c>
-      <c r="E105">
-        <v>6.3565166335161001</v>
-      </c>
-      <c r="F105">
-        <v>-12.071118265945</v>
+        <v>7.3685365387099E-7</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7.3685365387099E-7</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7.3685365387099E-7</v>
       </c>
       <c r="G105">
-        <v>5.7144844247386999</v>
+        <v>5.7144876617789002</v>
       </c>
       <c r="H105" s="1">
-        <v>3.1322747155088998E-17</v>
+        <v>3.1336072022213999E-17</v>
       </c>
       <c r="I105" s="1">
-        <v>-1.3587561642199E-17</v>
+        <v>-1.3593025406700999E-17</v>
       </c>
       <c r="J105">
-        <v>-12.071118265945</v>
+        <v>-12.071118790872999</v>
       </c>
       <c r="K105" s="1">
-        <v>1.4468718295033999E-16</v>
+        <v>1.4468602388782001E-16</v>
       </c>
       <c r="L105">
-        <v>6.3565166335161001</v>
+        <v>6.3565139214044999</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>-3.906923006654258E-5</v>
+        <v>-3.9069229866406374E-5</v>
       </c>
       <c r="O105">
         <f t="shared" si="13"/>
-        <v>10.458788938940298</v>
+        <v>10.458789302027757</v>
       </c>
       <c r="P105">
         <f t="shared" si="14"/>
-        <v>-438.47817241483159</v>
+        <v>-438.47825277950261</v>
       </c>
       <c r="Q105">
         <f t="shared" si="15"/>
-        <v>0.49290052441386561</v>
+        <v>0.49290081002318459</v>
       </c>
       <c r="R105">
         <f t="shared" si="16"/>
-        <v>9.2138174497305521</v>
+        <v>9.2138163561387501</v>
       </c>
       <c r="S105">
         <f t="shared" si="17"/>
-        <v>4.9489225162999571</v>
+        <v>4.9489253196588345</v>
       </c>
     </row>
   </sheetData>
@@ -7605,20 +7606,20 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <f>(-COS(3*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-3*SIN(3*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>-0.80300570662222781</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <f>(-COS(3*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))+3*SIN(3*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -7627,7 +7628,7 @@
     </row>
     <row r="3" spans="2:11">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <f>E3*PI()/180</f>
@@ -7637,14 +7638,14 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <f>(SIN(6*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>1.0391287205922408</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <f>(-SIN(6*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -7653,20 +7654,20 @@
     </row>
     <row r="4" spans="2:11">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <f>-SIN(D3)*SIN(D5)/SQRT(3)-H3*SIN(3*D5)-H2*POWER(SIN(3*D5),2)+COS(D5)</f>
         <v>0.57449787904584337</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <f>SIN(D3)*SIN(D5)/SQRT(3)+K3*SIN(3*D5)-K2*POWER(SIN(3*D5),2)+COS(D5)</f>
@@ -7675,7 +7676,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <f>E5*PI()/180</f>
@@ -7687,22 +7688,22 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -7758,7 +7759,7 @@
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1">
       <c r="B11">
-        <f t="shared" ref="B11:B71" si="5">B10+1</f>
+        <f t="shared" ref="B11:B69" si="5">B10+1</f>
         <v>-28</v>
       </c>
       <c r="C11">
